--- a/data/investimentos.xlsx
+++ b/data/investimentos.xlsx
@@ -617,7 +617,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>$196.15</t>
+          <t>$196.30</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -626,30 +626,30 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>0.503</v>
+        <v>0.5</v>
       </c>
       <c r="K2" t="n">
-        <v>93.40476</v>
+        <v>93.48</v>
       </c>
       <c r="L2" t="n">
-        <v>16.17065</v>
+        <v>16.18</v>
       </c>
       <c r="M2" t="n">
-        <v>-1886.0576</v>
+        <v>-1887.5</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>1.13%</t>
+          <t>112.85%</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>0.06%</t>
+          <t>6.45%</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>3.04%</t>
+          <t>303.81%</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
@@ -668,19 +668,19 @@
         </is>
       </c>
       <c r="T2" t="n">
-        <v>14.779</v>
+        <v>14.78</v>
       </c>
       <c r="U2" t="n">
-        <v>2.514248022032085</v>
+        <v>2.51</v>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>0.07%</t>
+          <t>6.60%</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>-0.32%</t>
+          <t>-32.40%</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
@@ -698,7 +698,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>$346,510,721,024.00</t>
+          <t>$346,775,748,608.00</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -745,7 +745,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>$131.05</t>
+          <t>$130.93</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -754,30 +754,30 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>0.705</v>
+        <v>0.7</v>
       </c>
       <c r="K3" t="n">
-        <v>16.442911</v>
+        <v>16.43</v>
       </c>
       <c r="L3" t="n">
-        <v>25.397287</v>
+        <v>25.37</v>
       </c>
       <c r="M3" t="n">
-        <v>4.510722</v>
+        <v>4.51</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>0.31%</t>
+          <t>30.93%</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>0.32%</t>
+          <t>32.43%</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>0.29%</t>
+          <t>28.61%</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
@@ -796,19 +796,19 @@
         </is>
       </c>
       <c r="T3" t="n">
-        <v>20.424</v>
+        <v>20.42</v>
       </c>
       <c r="U3" t="n">
-        <v>1.176111106640667</v>
+        <v>1.18</v>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>0.07%</t>
+          <t>7.40%</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>0.36%</t>
+          <t>36.50%</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
@@ -826,7 +826,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>$228,087,300,096.00</t>
+          <t>$227,878,420,480.00</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>$73.67</t>
+          <t>$73.68</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -885,27 +885,27 @@
         <v>0.55</v>
       </c>
       <c r="K4" t="n">
-        <v>43.85417</v>
+        <v>43.86</v>
       </c>
       <c r="L4" t="n">
-        <v>40.48077</v>
+        <v>40.48</v>
       </c>
       <c r="M4" t="n">
-        <v>1.4854729</v>
+        <v>1.49</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>0.03%</t>
+          <t>3.45%</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>0.28%</t>
+          <t>28.16%</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>1.81%</t>
+          <t>180.71%</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
@@ -924,19 +924,19 @@
         </is>
       </c>
       <c r="T4" t="n">
-        <v>20.382</v>
+        <v>20.38</v>
       </c>
       <c r="U4" t="n">
-        <v>5.692168169222745</v>
+        <v>5.69</v>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>0.15%</t>
+          <t>15.00%</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>-0.17%</t>
+          <t>-17.30%</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
@@ -954,7 +954,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>$8,178,956,800.00</t>
+          <t>$8,179,511,808.00</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
@@ -1001,7 +1001,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>$301.30</t>
+          <t>$301.64</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -1013,27 +1013,27 @@
         <v>0.82</v>
       </c>
       <c r="K5" t="n">
-        <v>30.220161</v>
+        <v>30.25</v>
       </c>
       <c r="L5" t="n">
-        <v>27.718033</v>
+        <v>27.75</v>
       </c>
       <c r="M5" t="n">
-        <v>19.733759</v>
+        <v>19.76</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>0.76%</t>
+          <t>76.00%</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>0.20%</t>
+          <t>19.84%</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>0.60%</t>
+          <t>60.32%</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
@@ -1052,19 +1052,19 @@
         </is>
       </c>
       <c r="T5" t="n">
-        <v>20.356</v>
+        <v>20.36</v>
       </c>
       <c r="U5" t="n">
-        <v>1.510853744025491</v>
+        <v>1.51</v>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>0.07%</t>
+          <t>7.50%</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>0.11%</t>
+          <t>10.70%</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
@@ -1082,7 +1082,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>$122,114,867,200.00</t>
+          <t>$122,254,696,448.00</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
@@ -1129,7 +1129,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>$113.62</t>
+          <t>$113.49</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -1138,30 +1138,30 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>0.388</v>
+        <v>0.39</v>
       </c>
       <c r="K6" t="n">
-        <v>16.659824</v>
+        <v>16.64</v>
       </c>
       <c r="L6" t="n">
-        <v>19.290323</v>
+        <v>19.27</v>
       </c>
       <c r="M6" t="n">
-        <v>2.033322</v>
+        <v>2.03</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>0.13%</t>
+          <t>13.01%</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>0.18%</t>
+          <t>17.66%</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>0.54%</t>
+          <t>53.81%</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
@@ -1180,19 +1180,19 @@
         </is>
       </c>
       <c r="T6" t="n">
-        <v>12.586</v>
+        <v>12.59</v>
       </c>
       <c r="U6" t="n">
-        <v>5.444380903497321</v>
+        <v>5.44</v>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>0.11%</t>
+          <t>11.10%</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>2.58%</t>
+          <t>257.80%</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>$60,763,410,432.00</t>
+          <t>$60,693,884,928.00</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
@@ -1257,7 +1257,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>$208.76</t>
+          <t>$209.01</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -1266,30 +1266,30 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>0.343</v>
+        <v>0.34</v>
       </c>
       <c r="K7" t="n">
-        <v>9.823999000000001</v>
+        <v>9.84</v>
       </c>
       <c r="L7" t="n">
-        <v>10.970047</v>
+        <v>10.98</v>
       </c>
       <c r="M7" t="n">
-        <v>2.5030575</v>
+        <v>2.51</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>0.27%</t>
+          <t>27.01%</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>0.09%</t>
+          <t>8.79%</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>0.18%</t>
+          <t>18.06%</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
@@ -1308,19 +1308,19 @@
         </is>
       </c>
       <c r="T7" t="n">
-        <v>7.222</v>
+        <v>7.22</v>
       </c>
       <c r="U7" t="n">
-        <v>1.089990534587176</v>
+        <v>1.09</v>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>0.06%</t>
+          <t>5.80%</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>5.87%</t>
+          <t>586.70%</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
@@ -1338,7 +1338,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>$55,009,300,480.00</t>
+          <t>$55,075,176,448.00</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
@@ -1385,7 +1385,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>$284.07</t>
+          <t>$284.67</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -1393,29 +1393,33 @@
           <t>$339.17</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
       <c r="K8" t="n">
-        <v>23.208334</v>
+        <v>23.26</v>
       </c>
       <c r="L8" t="n">
-        <v>13.743106</v>
+        <v>13.77</v>
       </c>
       <c r="M8" t="n">
-        <v>20.574347</v>
+        <v>20.62</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>0.99%</t>
+          <t>99.14%</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>0.19%</t>
+          <t>18.96%</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>0.76%</t>
+          <t>75.72%</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
@@ -1434,19 +1438,19 @@
         </is>
       </c>
       <c r="T8" t="n">
-        <v>13.226</v>
+        <v>13.23</v>
       </c>
       <c r="U8" t="n">
-        <v>3.54621752204921</v>
+        <v>3.55</v>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>0.09%</t>
+          <t>9.40%</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>0.92%</t>
+          <t>92.00%</t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
@@ -1464,7 +1468,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>$152,746,147,840.00</t>
+          <t>$153,068,765,184.00</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
@@ -1511,7 +1515,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>$44.85</t>
+          <t>$44.92</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1520,30 +1524,30 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>0.378</v>
+        <v>0.38</v>
       </c>
       <c r="K9" t="n">
-        <v>17.05323</v>
+        <v>17.08</v>
       </c>
       <c r="L9" t="n">
-        <v>19.085106</v>
+        <v>19.11</v>
       </c>
       <c r="M9" t="n">
-        <v>3.2099912</v>
+        <v>3.22</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>0.18%</t>
+          <t>17.80%</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>0.16%</t>
+          <t>16.45%</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>0.58%</t>
+          <t>57.79%</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
@@ -1562,19 +1566,19 @@
         </is>
       </c>
       <c r="T9" t="n">
-        <v>12.386</v>
+        <v>12.39</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>0.07%</t>
+          <t>6.90%</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>0.28%</t>
+          <t>28.10%</t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
@@ -1592,7 +1596,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>$851,732,864.00</t>
+          <t>$853,062,208.00</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
@@ -1639,7 +1643,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>$208.79</t>
+          <t>$208.90</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1648,30 +1652,30 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>0.832</v>
+        <v>0.83</v>
       </c>
       <c r="K10" t="n">
-        <v>38.953358</v>
+        <v>38.97</v>
       </c>
       <c r="L10" t="n">
-        <v>30.749632</v>
+        <v>30.77</v>
       </c>
       <c r="M10" t="n">
-        <v>26.32913</v>
+        <v>26.34</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>0.24%</t>
+          <t>24.28%</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>0.13%</t>
+          <t>12.60%</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>1.24%</t>
+          <t>124.11%</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
@@ -1690,19 +1694,19 @@
         </is>
       </c>
       <c r="T10" t="n">
-        <v>22.377</v>
+        <v>22.38</v>
       </c>
       <c r="U10" t="n">
-        <v>6.824118827581463</v>
+        <v>6.82</v>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>0.03%</t>
+          <t>3.20%</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>-0.59%</t>
+          <t>-59.50%</t>
         </is>
       </c>
       <c r="X10" t="inlineStr">
@@ -1720,7 +1724,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>$97,766,121,472.00</t>
+          <t>$97,817,632,768.00</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
@@ -1767,7 +1771,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>$33.28</t>
+          <t>$33.17</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1776,30 +1780,30 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>0.322</v>
+        <v>0.32</v>
       </c>
       <c r="K11" t="n">
-        <v>16</v>
+        <v>15.95</v>
       </c>
       <c r="L11" t="n">
-        <v>15.923445</v>
+        <v>15.87</v>
       </c>
       <c r="M11" t="n">
-        <v>1.4007323</v>
+        <v>1.4</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>0.09%</t>
+          <t>9.34%</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>0.20%</t>
+          <t>20.27%</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>0.57%</t>
+          <t>57.39%</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
@@ -1821,16 +1825,16 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>3.589555450800352</v>
+        <v>3.59</v>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>0.04%</t>
+          <t>4.10%</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>0.18%</t>
+          <t>17.90%</t>
         </is>
       </c>
       <c r="X11" t="inlineStr">
@@ -1848,7 +1852,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>$343,326,464.00</t>
+          <t>$342,191,648.00</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
@@ -1895,7 +1899,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>$157.43</t>
+          <t>$157.02</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1904,30 +1908,30 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>0.6830000000000001</v>
+        <v>0.68</v>
       </c>
       <c r="K12" t="n">
-        <v>21.987429</v>
+        <v>21.93</v>
       </c>
       <c r="L12" t="n">
-        <v>22.049019</v>
+        <v>21.99</v>
       </c>
       <c r="M12" t="n">
-        <v>1.9033053</v>
+        <v>1.9</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>0.09%</t>
+          <t>9.19%</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>0.25%</t>
+          <t>25.35%</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>0.47%</t>
+          <t>46.79%</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
@@ -1946,19 +1950,19 @@
         </is>
       </c>
       <c r="T12" t="n">
-        <v>14.945</v>
+        <v>14.95</v>
       </c>
       <c r="U12" t="n">
-        <v>3.884673681399804</v>
+        <v>3.88</v>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>0.18%</t>
+          <t>18.40%</t>
         </is>
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>0.06%</t>
+          <t>6.30%</t>
         </is>
       </c>
       <c r="X12" t="inlineStr">
@@ -1976,7 +1980,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>$25,005,707,264.00</t>
+          <t>$24,940,584,960.00</t>
         </is>
       </c>
       <c r="AB12" t="inlineStr">
@@ -2023,7 +2027,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>$186.62</t>
+          <t>$186.50</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -2032,30 +2036,30 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>0.866</v>
+        <v>0.87</v>
       </c>
       <c r="K13" t="n">
-        <v>22.926289</v>
+        <v>22.91</v>
       </c>
       <c r="L13" t="n">
-        <v>33.68592</v>
+        <v>33.66</v>
       </c>
       <c r="M13" t="n">
-        <v>2.197753</v>
+        <v>2.2</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>0.10%</t>
+          <t>9.71%</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>0.38%</t>
+          <t>38.24%</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>0.85%</t>
+          <t>84.77%</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
@@ -2074,19 +2078,19 @@
         </is>
       </c>
       <c r="T13" t="n">
-        <v>19.225</v>
+        <v>19.23</v>
       </c>
       <c r="U13" t="n">
-        <v>4.72176775881651</v>
+        <v>4.72</v>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>0.04%</t>
+          <t>4.00%</t>
         </is>
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>0.05%</t>
+          <t>5.40%</t>
         </is>
       </c>
       <c r="X13" t="inlineStr">
@@ -2104,7 +2108,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>$26,769,145,856.00</t>
+          <t>$26,751,932,416.00</t>
         </is>
       </c>
       <c r="AB13" t="inlineStr">
@@ -2151,7 +2155,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>$301.45</t>
+          <t>$301.67</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -2160,30 +2164,30 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>1.167</v>
+        <v>1.17</v>
       </c>
       <c r="K14" t="n">
-        <v>109.619995</v>
+        <v>109.7</v>
       </c>
       <c r="L14" t="n">
-        <v>48.85818</v>
+        <v>48.89</v>
       </c>
       <c r="M14" t="n">
-        <v>5.090339</v>
+        <v>5.09</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>0.19%</t>
+          <t>18.98%</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>0.23%</t>
+          <t>22.64%</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>0.82%</t>
+          <t>81.57%</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
@@ -2202,19 +2206,19 @@
         </is>
       </c>
       <c r="T14" t="n">
-        <v>4.814</v>
+        <v>4.81</v>
       </c>
       <c r="U14" t="n">
-        <v>1.30032454805671</v>
+        <v>1.3</v>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>0.16%</t>
+          <t>16.40%</t>
         </is>
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>1.88%</t>
+          <t>188.10%</t>
         </is>
       </c>
       <c r="X14" t="inlineStr">
@@ -2232,7 +2236,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>$1,417,884,467,200.00</t>
+          <t>$1,418,895,818,752.00</t>
         </is>
       </c>
       <c r="AB14" t="inlineStr">
@@ -2279,7 +2283,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>$142.08</t>
+          <t>$141.91</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -2288,30 +2292,30 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>0.644</v>
+        <v>0.64</v>
       </c>
       <c r="K15" t="n">
-        <v>25.6</v>
+        <v>25.57</v>
       </c>
       <c r="L15" t="n">
-        <v>24.926317</v>
+        <v>24.9</v>
       </c>
       <c r="M15" t="n">
-        <v>2.5949738</v>
+        <v>2.59</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>0.10%</t>
+          <t>10.40%</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>0.22%</t>
+          <t>21.91%</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>0.56%</t>
+          <t>56.26%</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
@@ -2330,19 +2334,19 @@
         </is>
       </c>
       <c r="T15" t="n">
-        <v>15.937</v>
+        <v>15.94</v>
       </c>
       <c r="U15" t="n">
-        <v>5.651293452687371</v>
+        <v>5.65</v>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>0.11%</t>
+          <t>11.10%</t>
         </is>
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>0.04%</t>
+          <t>4.20%</t>
         </is>
       </c>
       <c r="X15" t="inlineStr">
@@ -2360,7 +2364,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>$27,719,667,712.00</t>
+          <t>$27,686,500,352.00</t>
         </is>
       </c>
       <c r="AB15" t="inlineStr">
@@ -2407,7 +2411,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>$45.48</t>
+          <t>$45.42</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -2416,30 +2420,30 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>1.315</v>
+        <v>1.31</v>
       </c>
       <c r="K16" t="n">
-        <v>13.33871</v>
+        <v>13.32</v>
       </c>
       <c r="L16" t="n">
-        <v>12.427595</v>
+        <v>12.41</v>
       </c>
       <c r="M16" t="n">
-        <v>1.2251192</v>
+        <v>1.22</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>0.09%</t>
+          <t>9.46%</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>0.29%</t>
+          <t>28.51%</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>0.30%</t>
+          <t>30.50%</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
@@ -2467,12 +2471,12 @@
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>0.04%</t>
+          <t>4.20%</t>
         </is>
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>0.07%</t>
+          <t>7.20%</t>
         </is>
       </c>
       <c r="X16" t="inlineStr">
@@ -2490,7 +2494,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>$336,905,109,504.00</t>
+          <t>$336,423,649,280.00</t>
         </is>
       </c>
       <c r="AB16" t="inlineStr">
@@ -2537,7 +2541,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>$67.50</t>
+          <t>$67.43</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -2546,30 +2550,30 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>1.228</v>
+        <v>1.23</v>
       </c>
       <c r="K17" t="n">
-        <v>16.463415</v>
+        <v>16.45</v>
       </c>
       <c r="L17" t="n">
-        <v>9.868421</v>
+        <v>9.859999999999999</v>
       </c>
       <c r="M17" t="n">
-        <v>5.162129</v>
+        <v>5.16</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>0.30%</t>
+          <t>30.21%</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>0.02%</t>
+          <t>2.13%</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>0.92%</t>
+          <t>91.95%</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
@@ -2588,19 +2592,19 @@
         </is>
       </c>
       <c r="T17" t="n">
-        <v>6.508</v>
+        <v>6.51</v>
       </c>
       <c r="U17" t="n">
-        <v>1.565368362585259</v>
+        <v>1.57</v>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>-0.01%</t>
+          <t>-0.90%</t>
         </is>
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>-0.16%</t>
+          <t>-15.90%</t>
         </is>
       </c>
       <c r="X17" t="inlineStr">
@@ -2618,7 +2622,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>$14,265,922,560.00</t>
+          <t>$14,251,128,832.00</t>
         </is>
       </c>
       <c r="AB17" t="inlineStr">
@@ -2665,7 +2669,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>$66.08</t>
+          <t>$66.02</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -2674,28 +2678,32 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>1.192</v>
-      </c>
-      <c r="K18" t="inlineStr"/>
+        <v>1.19</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
       <c r="L18" t="n">
-        <v>35.334225</v>
+        <v>35.3</v>
       </c>
       <c r="M18" t="n">
-        <v>1.9898511</v>
+        <v>1.99</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>0.01%</t>
+          <t>0.95%</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0.14%</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>43.56%</t>
+          <t>4355.56%</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
@@ -2714,19 +2722,19 @@
         </is>
       </c>
       <c r="T18" t="n">
-        <v>15.363</v>
+        <v>15.36</v>
       </c>
       <c r="U18" t="n">
-        <v>8.725242624643395</v>
+        <v>8.73</v>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>0.02%</t>
+          <t>2.10%</t>
         </is>
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>0.10%</t>
+          <t>10.50%</t>
         </is>
       </c>
       <c r="X18" t="inlineStr">
@@ -2744,7 +2752,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>$11,681,068,032.00</t>
+          <t>$11,671,344,128.00</t>
         </is>
       </c>
       <c r="AB18" t="inlineStr">
@@ -2791,7 +2799,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>$427.67</t>
+          <t>$427.72</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -2800,30 +2808,30 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>1.397</v>
+        <v>1.4</v>
       </c>
       <c r="K19" t="n">
-        <v>21.786552</v>
+        <v>21.79</v>
       </c>
       <c r="L19" t="n">
-        <v>19.307901</v>
+        <v>19.31</v>
       </c>
       <c r="M19" t="n">
-        <v>10.76441</v>
+        <v>10.77</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>0.53%</t>
+          <t>52.71%</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>0.15%</t>
+          <t>14.95%</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>0.29%</t>
+          <t>28.72%</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
@@ -2842,19 +2850,19 @@
         </is>
       </c>
       <c r="T19" t="n">
-        <v>16.985</v>
+        <v>16.98</v>
       </c>
       <c r="U19" t="n">
-        <v>2.880327865292648</v>
+        <v>2.88</v>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>-0.01%</t>
+          <t>-0.70%</t>
         </is>
       </c>
       <c r="W19" t="inlineStr">
         <is>
-          <t>-0.16%</t>
+          <t>-15.70%</t>
         </is>
       </c>
       <c r="X19" t="inlineStr">
@@ -2872,7 +2880,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>$201,139,617,792.00</t>
+          <t>$201,163,128,832.00</t>
         </is>
       </c>
       <c r="AB19" t="inlineStr">
@@ -2928,30 +2936,30 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>1.366</v>
+        <v>1.37</v>
       </c>
       <c r="K20" t="n">
-        <v>13.624077</v>
+        <v>13.62</v>
       </c>
       <c r="L20" t="n">
-        <v>12.828234</v>
+        <v>12.83</v>
       </c>
       <c r="M20" t="n">
-        <v>0.8624688</v>
+        <v>0.86</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>0.07%</t>
+          <t>6.76%</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>0.19%</t>
+          <t>19.33%</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>0.33%</t>
+          <t>33.09%</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
@@ -2979,12 +2987,12 @@
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>0.08%</t>
+          <t>7.90%</t>
         </is>
       </c>
       <c r="W20" t="inlineStr">
         <is>
-          <t>0.28%</t>
+          <t>28.50%</t>
         </is>
       </c>
       <c r="X20" t="inlineStr">
@@ -3002,7 +3010,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>$169,795,403,776.00</t>
+          <t>$169,786,212,352.00</t>
         </is>
       </c>
       <c r="AB20" t="inlineStr">
@@ -3049,7 +3057,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>$154.18</t>
+          <t>$154.05</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -3061,27 +3069,27 @@
         <v>0.71</v>
       </c>
       <c r="K21" t="n">
-        <v>13.383679</v>
+        <v>13.37</v>
       </c>
       <c r="L21" t="n">
-        <v>21.034105</v>
+        <v>21.02</v>
       </c>
       <c r="M21" t="n">
-        <v>1.6850824</v>
+        <v>1.68</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>0.13%</t>
+          <t>13.44%</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>0.16%</t>
+          <t>15.59%</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>0.29%</t>
+          <t>29.14%</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
@@ -3100,19 +3108,19 @@
         </is>
       </c>
       <c r="T21" t="n">
-        <v>9.531000000000001</v>
+        <v>9.529999999999999</v>
       </c>
       <c r="U21" t="n">
-        <v>0.3614063588470916</v>
+        <v>0.36</v>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>0.28%</t>
+          <t>27.70%</t>
         </is>
       </c>
       <c r="W21" t="inlineStr">
         <is>
-          <t>1.19%</t>
+          <t>119.20%</t>
         </is>
       </c>
       <c r="X21" t="inlineStr">
@@ -3130,7 +3138,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>$24,110,051,328.00</t>
+          <t>$24,089,722,880.00</t>
         </is>
       </c>
       <c r="AB21" t="inlineStr">
@@ -3177,7 +3185,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>$84.78</t>
+          <t>$84.61</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -3186,30 +3194,30 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>0.353</v>
+        <v>0.35</v>
       </c>
       <c r="K22" t="n">
-        <v>23.814608</v>
+        <v>23.77</v>
       </c>
       <c r="L22" t="n">
-        <v>21.963732</v>
+        <v>21.92</v>
       </c>
       <c r="M22" t="n">
-        <v>97.56041</v>
+        <v>97.36</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>3.98%</t>
+          <t>398.04%</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>0.15%</t>
+          <t>14.54%</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>0.57%</t>
+          <t>56.74%</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
@@ -3228,19 +3236,19 @@
         </is>
       </c>
       <c r="T22" t="n">
-        <v>15.511</v>
+        <v>15.51</v>
       </c>
       <c r="U22" t="n">
-        <v>1.815505724709784</v>
+        <v>1.82</v>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>0.01%</t>
+          <t>1.00%</t>
         </is>
       </c>
       <c r="W22" t="inlineStr">
         <is>
-          <t>0.02%</t>
+          <t>2.20%</t>
         </is>
       </c>
       <c r="X22" t="inlineStr">
@@ -3258,7 +3266,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>$68,520,976,384.00</t>
+          <t>$68,383,580,160.00</t>
         </is>
       </c>
       <c r="AB22" t="inlineStr">
@@ -3305,7 +3313,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>$74.19</t>
+          <t>$74.11</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -3314,30 +3322,30 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>0.348</v>
+        <v>0.35</v>
       </c>
       <c r="K23" t="n">
-        <v>21.88643</v>
+        <v>21.86</v>
       </c>
       <c r="L23" t="n">
-        <v>20.724861</v>
+        <v>20.7</v>
       </c>
       <c r="M23" t="n">
-        <v>2.718064</v>
+        <v>2.71</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>0.11%</t>
+          <t>11.31%</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>0.13%</t>
+          <t>12.76%</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>0.62%</t>
+          <t>62.39%</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
@@ -3356,19 +3364,19 @@
         </is>
       </c>
       <c r="T23" t="n">
-        <v>14.071</v>
+        <v>14.07</v>
       </c>
       <c r="U23" t="n">
-        <v>6.316065832771513</v>
+        <v>6.32</v>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>0.14%</t>
+          <t>14.40%</t>
         </is>
       </c>
       <c r="W23" t="inlineStr">
         <is>
-          <t>0.01%</t>
+          <t>1.50%</t>
         </is>
       </c>
       <c r="X23" t="inlineStr">
@@ -3386,7 +3394,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>$22,209,161,216.00</t>
+          <t>$22,183,716,864.00</t>
         </is>
       </c>
       <c r="AB23" t="inlineStr">
@@ -3433,7 +3441,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>$281.24</t>
+          <t>$281.35</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -3442,30 +3450,30 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>0.457</v>
+        <v>0.46</v>
       </c>
       <c r="K24" t="n">
-        <v>27.22507</v>
+        <v>27.24</v>
       </c>
       <c r="L24" t="n">
-        <v>27.120056</v>
+        <v>27.13</v>
       </c>
       <c r="M24" t="n">
-        <v>3.646341</v>
+        <v>3.65</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>0.14%</t>
+          <t>13.61%</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>0.59%</t>
+          <t>58.59%</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>1.03%</t>
+          <t>102.61%</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
@@ -3484,19 +3492,19 @@
         </is>
       </c>
       <c r="T24" t="n">
-        <v>22.926</v>
+        <v>22.93</v>
       </c>
       <c r="U24" t="n">
-        <v>0.8298658947293274</v>
+        <v>0.83</v>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>0.10%</t>
+          <t>10.40%</t>
         </is>
       </c>
       <c r="W24" t="inlineStr">
         <is>
-          <t>0.16%</t>
+          <t>16.10%</t>
         </is>
       </c>
       <c r="X24" t="inlineStr">
@@ -3514,7 +3522,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>$101,351,464,960.00</t>
+          <t>$101,392,916,480.00</t>
         </is>
       </c>
       <c r="AB24" t="inlineStr">
@@ -3561,7 +3569,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>$38.67</t>
+          <t>$38.60</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -3570,30 +3578,30 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>0.572</v>
+        <v>0.57</v>
       </c>
       <c r="K25" t="n">
-        <v>27.045456</v>
+        <v>26.99</v>
       </c>
       <c r="L25" t="n">
-        <v>22.22701</v>
+        <v>22.18</v>
       </c>
       <c r="M25" t="n">
-        <v>2.2913086</v>
+        <v>2.29</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>0.09%</t>
+          <t>8.76%</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>0.10%</t>
+          <t>10.42%</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>0.59%</t>
+          <t>59.44%</t>
         </is>
       </c>
       <c r="Q25" t="inlineStr">
@@ -3612,19 +3620,19 @@
         </is>
       </c>
       <c r="T25" t="n">
-        <v>14.024</v>
+        <v>14.02</v>
       </c>
       <c r="U25" t="n">
-        <v>6.556869970166721</v>
+        <v>6.56</v>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>0.02%</t>
+          <t>2.00%</t>
         </is>
       </c>
       <c r="W25" t="inlineStr">
         <is>
-          <t>-0.16%</t>
+          <t>-15.70%</t>
         </is>
       </c>
       <c r="X25" t="inlineStr">
@@ -3642,7 +3650,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>$25,249,554,432.00</t>
+          <t>$25,200,588,800.00</t>
         </is>
       </c>
       <c r="AB25" t="inlineStr">
@@ -3689,7 +3697,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>$968.54</t>
+          <t>$968.56</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -3698,30 +3706,30 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>0.952</v>
+        <v>0.95</v>
       </c>
       <c r="K26" t="n">
-        <v>54.875072</v>
+        <v>54.88</v>
       </c>
       <c r="L26" t="n">
-        <v>49.214684</v>
+        <v>49.22</v>
       </c>
       <c r="M26" t="n">
-        <v>15.836508</v>
+        <v>15.84</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>0.32%</t>
+          <t>32.08%</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>0.03%</t>
+          <t>2.92%</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>0.27%</t>
+          <t>27.11%</t>
         </is>
       </c>
       <c r="Q26" t="inlineStr">
@@ -3740,19 +3748,19 @@
         </is>
       </c>
       <c r="T26" t="n">
-        <v>33.113</v>
+        <v>33.11</v>
       </c>
       <c r="U26" t="n">
-        <v>0.6717569418136421</v>
+        <v>0.67</v>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>0.08%</t>
+          <t>8.00%</t>
         </is>
       </c>
       <c r="W26" t="inlineStr">
         <is>
-          <t>0.13%</t>
+          <t>13.20%</t>
         </is>
       </c>
       <c r="X26" t="inlineStr">
@@ -3770,7 +3778,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>$429,527,400,448.00</t>
+          <t>$429,534,085,120.00</t>
         </is>
       </c>
       <c r="AB26" t="inlineStr">
@@ -3817,7 +3825,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>$69.25</t>
+          <t>$69.21</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -3826,30 +3834,30 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>0.909</v>
+        <v>0.91</v>
       </c>
       <c r="K27" t="n">
-        <v>28.261223</v>
+        <v>28.25</v>
       </c>
       <c r="L27" t="n">
-        <v>17.753845</v>
+        <v>17.75</v>
       </c>
       <c r="M27" t="n">
-        <v>5.968965</v>
+        <v>5.97</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>0.21%</t>
+          <t>21.36%</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>0.18%</t>
+          <t>17.60%</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>0.66%</t>
+          <t>65.71%</t>
         </is>
       </c>
       <c r="Q27" t="inlineStr">
@@ -3868,19 +3876,19 @@
         </is>
       </c>
       <c r="T27" t="n">
-        <v>19.111</v>
+        <v>19.11</v>
       </c>
       <c r="U27" t="n">
-        <v>2.085537968854062</v>
+        <v>2.09</v>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>0.11%</t>
+          <t>11.40%</t>
         </is>
       </c>
       <c r="W27" t="inlineStr">
         <is>
-          <t>0.35%</t>
+          <t>34.80%</t>
         </is>
       </c>
       <c r="X27" t="inlineStr">
@@ -3898,7 +3906,7 @@
       </c>
       <c r="AA27" t="inlineStr">
         <is>
-          <t>$274,190,385,152.00</t>
+          <t>$274,071,601,152.00</t>
         </is>
       </c>
       <c r="AB27" t="inlineStr">
@@ -3945,7 +3953,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>$32.79</t>
+          <t>$32.65</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -3954,30 +3962,30 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>0.872</v>
+        <v>0.87</v>
       </c>
       <c r="K28" t="n">
-        <v>35.258064</v>
+        <v>35.11</v>
       </c>
       <c r="L28" t="n">
-        <v>24.654135</v>
+        <v>24.55</v>
       </c>
       <c r="M28" t="n">
-        <v>2.1021926</v>
+        <v>2.09</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>0.07%</t>
+          <t>6.96%</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>0.49%</t>
+          <t>49.16%</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>1.30%</t>
+          <t>129.57%</t>
         </is>
       </c>
       <c r="Q28" t="inlineStr">
@@ -3996,19 +4004,19 @@
         </is>
       </c>
       <c r="T28" t="n">
-        <v>25.598</v>
+        <v>25.6</v>
       </c>
       <c r="U28" t="n">
-        <v>2.963307664253698</v>
+        <v>2.96</v>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>0.53%</t>
+          <t>53.20%</t>
         </is>
       </c>
       <c r="W28" t="inlineStr">
         <is>
-          <t>0.62%</t>
+          <t>62.30%</t>
         </is>
       </c>
       <c r="X28" t="inlineStr">
@@ -4026,7 +4034,7 @@
       </c>
       <c r="AA28" t="inlineStr">
         <is>
-          <t>$6,285,481,984.00</t>
+          <t>$6,258,646,016.00</t>
         </is>
       </c>
       <c r="AB28" t="inlineStr">
@@ -4073,7 +4081,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>$63.65</t>
+          <t>$63.52</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -4082,30 +4090,30 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>0.588</v>
+        <v>0.59</v>
       </c>
       <c r="K29" t="n">
-        <v>17.729805</v>
+        <v>17.69</v>
       </c>
       <c r="L29" t="n">
-        <v>9.822531</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="M29" t="n">
-        <v>1.0421954</v>
+        <v>1.04</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>0.06%</t>
+          <t>5.88%</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>0.01%</t>
+          <t>1.18%</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>0.74%</t>
+          <t>74.09%</t>
         </is>
       </c>
       <c r="Q29" t="inlineStr">
@@ -4124,19 +4132,19 @@
         </is>
       </c>
       <c r="T29" t="n">
-        <v>10.675</v>
+        <v>10.68</v>
       </c>
       <c r="U29" t="n">
-        <v>5.920275009182509</v>
+        <v>5.92</v>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>0.08%</t>
+          <t>8.40%</t>
         </is>
       </c>
       <c r="W29" t="inlineStr">
         <is>
-          <t>-0.43%</t>
+          <t>-43.20%</t>
         </is>
       </c>
       <c r="X29" t="inlineStr">
@@ -4154,7 +4162,7 @@
       </c>
       <c r="AA29" t="inlineStr">
         <is>
-          <t>$80,729,202,688.00</t>
+          <t>$80,564,322,304.00</t>
         </is>
       </c>
       <c r="AB29" t="inlineStr">
@@ -4210,16 +4218,16 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>0.841</v>
+        <v>0.84</v>
       </c>
       <c r="K30" t="n">
-        <v>19.662806</v>
+        <v>19.66</v>
       </c>
       <c r="L30" t="n">
-        <v>13.838768</v>
+        <v>13.84</v>
       </c>
       <c r="M30" t="n">
-        <v>1.7877787</v>
+        <v>1.79</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
@@ -4228,12 +4236,12 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>0.07%</t>
+          <t>7.24%</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>0.86%</t>
+          <t>85.97%</t>
         </is>
       </c>
       <c r="Q30" t="inlineStr">
@@ -4252,19 +4260,19 @@
         </is>
       </c>
       <c r="T30" t="n">
-        <v>7.966</v>
+        <v>7.97</v>
       </c>
       <c r="U30" t="n">
-        <v>0.8065708302784098</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>-0.11%</t>
+          <t>-10.90%</t>
         </is>
       </c>
       <c r="W30" t="inlineStr">
         <is>
-          <t>-0.40%</t>
+          <t>-40.30%</t>
         </is>
       </c>
       <c r="X30" t="inlineStr">
@@ -4329,7 +4337,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>$39.59</t>
+          <t>$39.50</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -4338,30 +4346,30 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>0.956</v>
+        <v>0.96</v>
       </c>
       <c r="K31" t="n">
-        <v>24.137196</v>
+        <v>24.09</v>
       </c>
       <c r="L31" t="n">
-        <v>22.238764</v>
+        <v>22.19</v>
       </c>
       <c r="M31" t="n">
-        <v>3.2081206</v>
+        <v>3.2</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>0.13%</t>
+          <t>13.04%</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>0.34%</t>
+          <t>34.20%</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>1.26%</t>
+          <t>126.22%</t>
         </is>
       </c>
       <c r="Q31" t="inlineStr">
@@ -4380,19 +4388,19 @@
         </is>
       </c>
       <c r="T31" t="n">
-        <v>17.745</v>
+        <v>17.75</v>
       </c>
       <c r="U31" t="n">
-        <v>4.84277302195501</v>
+        <v>4.84</v>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>0.06%</t>
+          <t>6.10%</t>
         </is>
       </c>
       <c r="W31" t="inlineStr">
         <is>
-          <t>-0.12%</t>
+          <t>-12.20%</t>
         </is>
       </c>
       <c r="X31" t="inlineStr">
@@ -4410,7 +4418,7 @@
       </c>
       <c r="AA31" t="inlineStr">
         <is>
-          <t>$9,074,069,504.00</t>
+          <t>$9,054,584,832.00</t>
         </is>
       </c>
       <c r="AB31" t="inlineStr">
@@ -4457,7 +4465,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>$169.52</t>
+          <t>$169.49</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -4466,30 +4474,30 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>0.9409999999999999</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="K32" t="n">
-        <v>44.610527</v>
+        <v>44.6</v>
       </c>
       <c r="L32" t="n">
-        <v>140.09917</v>
+        <v>140.07</v>
       </c>
       <c r="M32" t="n">
-        <v>2.6011171</v>
+        <v>2.6</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>0.06%</t>
+          <t>5.83%</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>0.24%</t>
+          <t>24.32%</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>1.28%</t>
+          <t>128.08%</t>
         </is>
       </c>
       <c r="Q32" t="inlineStr">
@@ -4508,19 +4516,19 @@
         </is>
       </c>
       <c r="T32" t="n">
-        <v>30.148</v>
+        <v>30.15</v>
       </c>
       <c r="U32" t="n">
-        <v>7.76287959831357</v>
+        <v>7.76</v>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>0.13%</t>
+          <t>12.60%</t>
         </is>
       </c>
       <c r="W32" t="inlineStr">
         <is>
-          <t>13.79%</t>
+          <t>1378.60%</t>
         </is>
       </c>
       <c r="X32" t="inlineStr">
@@ -4538,7 +4546,7 @@
       </c>
       <c r="AA32" t="inlineStr">
         <is>
-          <t>$58,878,025,728.00</t>
+          <t>$58,867,605,504.00</t>
         </is>
       </c>
       <c r="AB32" t="inlineStr">
@@ -4585,7 +4593,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>$21.39</t>
+          <t>$21.30</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -4594,28 +4602,32 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>0.856</v>
-      </c>
-      <c r="K33" t="inlineStr"/>
+        <v>0.86</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
       <c r="L33" t="n">
-        <v>6.8778133</v>
+        <v>6.85</v>
       </c>
       <c r="M33" t="n">
-        <v>0.879921</v>
+        <v>0.88</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>-0.05%</t>
+          <t>-4.74%</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>-0.02%</t>
+          <t>-2.35%</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>7.00%</t>
+          <t>700.00%</t>
         </is>
       </c>
       <c r="Q33" t="inlineStr">
@@ -4634,14 +4646,14 @@
         </is>
       </c>
       <c r="T33" t="n">
-        <v>8.439</v>
+        <v>8.44</v>
       </c>
       <c r="U33" t="n">
-        <v>4.688244111834478</v>
+        <v>4.69</v>
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>-0.07%</t>
+          <t>-7.40%</t>
         </is>
       </c>
       <c r="W33" t="inlineStr">
@@ -4664,7 +4676,7 @@
       </c>
       <c r="AA33" t="inlineStr">
         <is>
-          <t>$15,162,173,440.00</t>
+          <t>$15,098,377,216.00</t>
         </is>
       </c>
       <c r="AB33" t="inlineStr">
@@ -4711,7 +4723,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>$125.55</t>
+          <t>$125.21</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -4720,40 +4732,40 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>0.341</v>
+        <v>0.34</v>
       </c>
       <c r="K34" t="n">
-        <v>20.547462</v>
+        <v>20.49</v>
       </c>
       <c r="L34" t="n">
-        <v>19.80205</v>
+        <v>19.75</v>
       </c>
       <c r="M34" t="n">
-        <v>1.9566877</v>
+        <v>1.95</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>0.10%</t>
+          <t>9.59%</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>0.16%</t>
+          <t>15.72%</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>0.68%</t>
+          <t>68.41%</t>
         </is>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>$8,249,000,000.00</t>
+          <t>$7,508,000,000.00</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>$1,379,000,000.00</t>
+          <t>$984,000,000.00</t>
         </is>
       </c>
       <c r="S34" t="inlineStr">
@@ -4762,19 +4774,19 @@
         </is>
       </c>
       <c r="T34" t="n">
-        <v>12.352</v>
+        <v>12.35</v>
       </c>
       <c r="U34" t="n">
-        <v>5.852388174717675</v>
+        <v>5.85</v>
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>0.05%</t>
+          <t>4.70%</t>
         </is>
       </c>
       <c r="W34" t="inlineStr">
         <is>
-          <t>0.10%</t>
+          <t>10.50%</t>
         </is>
       </c>
       <c r="X34" t="inlineStr">
@@ -4792,7 +4804,7 @@
       </c>
       <c r="AA34" t="inlineStr">
         <is>
-          <t>$97,626,800,128.00</t>
+          <t>$97,366,302,720.00</t>
         </is>
       </c>
       <c r="AB34" t="inlineStr">
@@ -4839,7 +4851,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>$32.31</t>
+          <t>$32.45</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -4848,30 +4860,30 @@
         </is>
       </c>
       <c r="J35" t="n">
-        <v>1.109</v>
+        <v>1.11</v>
       </c>
       <c r="K35" t="n">
-        <v>7.3599095</v>
+        <v>7.39</v>
       </c>
       <c r="L35" t="n">
-        <v>7.244395</v>
+        <v>7.28</v>
       </c>
       <c r="M35" t="n">
-        <v>1.4305956</v>
+        <v>1.44</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>0.21%</t>
+          <t>20.96%</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>0.17%</t>
+          <t>17.49%</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>0.28%</t>
+          <t>28.47%</t>
         </is>
       </c>
       <c r="Q35" t="inlineStr">
@@ -4893,16 +4905,16 @@
         <v>3.71</v>
       </c>
       <c r="U35" t="n">
-        <v>1.160845402462417</v>
+        <v>1.16</v>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>0.22%</t>
+          <t>21.60%</t>
         </is>
       </c>
       <c r="W35" t="inlineStr">
         <is>
-          <t>-0.18%</t>
+          <t>-18.30%</t>
         </is>
       </c>
       <c r="X35" t="inlineStr">
@@ -4920,7 +4932,7 @@
       </c>
       <c r="AA35" t="inlineStr">
         <is>
-          <t>$20,746,250,240.00</t>
+          <t>$20,836,145,152.00</t>
         </is>
       </c>
       <c r="AB35" t="inlineStr">
@@ -4967,7 +4979,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>$161.60</t>
+          <t>$161.95</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -4979,27 +4991,27 @@
         <v>1</v>
       </c>
       <c r="K36" t="n">
-        <v>34.90281</v>
+        <v>34.98</v>
       </c>
       <c r="L36" t="n">
-        <v>33.52697</v>
+        <v>33.6</v>
       </c>
       <c r="M36" t="n">
-        <v>2.4955604</v>
+        <v>2.5</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>0.08%</t>
+          <t>7.66%</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>0.35%</t>
+          <t>34.95%</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>1.21%</t>
+          <t>120.69%</t>
         </is>
       </c>
       <c r="Q36" t="inlineStr">
@@ -5018,19 +5030,19 @@
         </is>
       </c>
       <c r="T36" t="n">
-        <v>23.227</v>
+        <v>23.23</v>
       </c>
       <c r="U36" t="n">
-        <v>3.409119255190256</v>
+        <v>3.41</v>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>0.13%</t>
+          <t>12.60%</t>
         </is>
       </c>
       <c r="W36" t="inlineStr">
         <is>
-          <t>0.05%</t>
+          <t>5.30%</t>
         </is>
       </c>
       <c r="X36" t="inlineStr">
@@ -5048,7 +5060,7 @@
       </c>
       <c r="AA36" t="inlineStr">
         <is>
-          <t>$8,618,839,040.00</t>
+          <t>$8,637,505,536.00</t>
         </is>
       </c>
       <c r="AB36" t="inlineStr">
@@ -5095,7 +5107,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>$46.91</t>
+          <t>$47.01</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -5104,30 +5116,30 @@
         </is>
       </c>
       <c r="J37" t="n">
-        <v>0.856</v>
+        <v>0.86</v>
       </c>
       <c r="K37" t="n">
-        <v>22.770826</v>
+        <v>22.82</v>
       </c>
       <c r="L37" t="n">
-        <v>21.919579</v>
+        <v>21.97</v>
       </c>
       <c r="M37" t="n">
-        <v>1.7449558</v>
+        <v>1.75</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>0.10%</t>
+          <t>9.92%</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>0.10%</t>
+          <t>10.28%</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>1.31%</t>
+          <t>130.81%</t>
         </is>
       </c>
       <c r="Q37" t="inlineStr">
@@ -5146,19 +5158,19 @@
         </is>
       </c>
       <c r="T37" t="n">
-        <v>12.526</v>
+        <v>12.53</v>
       </c>
       <c r="U37" t="n">
-        <v>5.987743285642463</v>
+        <v>5.99</v>
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>0.31%</t>
+          <t>31.20%</t>
         </is>
       </c>
       <c r="W37" t="inlineStr">
         <is>
-          <t>0.16%</t>
+          <t>16.10%</t>
         </is>
       </c>
       <c r="X37" t="inlineStr">
@@ -5176,7 +5188,7 @@
       </c>
       <c r="AA37" t="inlineStr">
         <is>
-          <t>$102,340,378,624.00</t>
+          <t>$102,563,127,296.00</t>
         </is>
       </c>
       <c r="AB37" t="inlineStr">
@@ -5232,30 +5244,30 @@
         </is>
       </c>
       <c r="J38" t="n">
-        <v>0.888</v>
+        <v>0.89</v>
       </c>
       <c r="K38" t="n">
-        <v>75.78431999999999</v>
+        <v>75.78</v>
       </c>
       <c r="L38" t="n">
-        <v>57.772793</v>
+        <v>57.77</v>
       </c>
       <c r="M38" t="n">
-        <v>5.3713007</v>
+        <v>5.37</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>0.08%</t>
+          <t>7.51%</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>0.11%</t>
+          <t>11.13%</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>1.76%</t>
+          <t>176.01%</t>
         </is>
       </c>
       <c r="Q38" t="inlineStr">
@@ -5274,19 +5286,19 @@
         </is>
       </c>
       <c r="T38" t="n">
-        <v>25.025</v>
+        <v>25.02</v>
       </c>
       <c r="U38" t="n">
-        <v>5.789878137492209</v>
+        <v>5.79</v>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>0.05%</t>
+          <t>5.40%</t>
         </is>
       </c>
       <c r="W38" t="inlineStr">
         <is>
-          <t>0.19%</t>
+          <t>18.70%</t>
         </is>
       </c>
       <c r="X38" t="inlineStr">
@@ -5351,7 +5363,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>$63.44</t>
+          <t>$63.40</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -5359,29 +5371,33 @@
           <t>$78.83</t>
         </is>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
       <c r="K39" t="n">
-        <v>24.119772</v>
+        <v>24.11</v>
       </c>
       <c r="L39" t="n">
-        <v>37.535503</v>
+        <v>37.51</v>
       </c>
       <c r="M39" t="n">
-        <v>2.1930857</v>
+        <v>2.19</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>0.09%</t>
+          <t>9.08%</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>0.33%</t>
+          <t>33.22%</t>
         </is>
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>1.04%</t>
+          <t>104.17%</t>
         </is>
       </c>
       <c r="Q39" t="inlineStr">
@@ -5400,19 +5416,19 @@
         </is>
       </c>
       <c r="T39" t="n">
-        <v>17.759</v>
+        <v>17.76</v>
       </c>
       <c r="U39" t="n">
-        <v>4.630010784089011</v>
+        <v>4.63</v>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>0.05%</t>
+          <t>4.70%</t>
         </is>
       </c>
       <c r="W39" t="inlineStr">
         <is>
-          <t>0.07%</t>
+          <t>7.20%</t>
         </is>
       </c>
       <c r="X39" t="inlineStr">
@@ -5430,7 +5446,7 @@
       </c>
       <c r="AA39" t="inlineStr">
         <is>
-          <t>$24,843,937,792.00</t>
+          <t>$24,830,230,528.00</t>
         </is>
       </c>
       <c r="AB39" t="inlineStr">
@@ -5486,30 +5502,30 @@
         </is>
       </c>
       <c r="J40" t="n">
-        <v>1.092</v>
+        <v>1.09</v>
       </c>
       <c r="K40" t="n">
-        <v>25.235294</v>
+        <v>25.23</v>
       </c>
       <c r="L40" t="n">
-        <v>23.64567</v>
+        <v>23.64</v>
       </c>
       <c r="M40" t="n">
-        <v>1.553624</v>
+        <v>1.55</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>0.06%</t>
+          <t>6.33%</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>0.44%</t>
+          <t>44.48%</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>0.99%</t>
+          <t>99.16%</t>
         </is>
       </c>
       <c r="Q40" t="inlineStr">
@@ -5528,19 +5544,19 @@
         </is>
       </c>
       <c r="T40" t="n">
-        <v>18.465</v>
+        <v>18.46</v>
       </c>
       <c r="U40" t="n">
-        <v>5.158821081180981</v>
+        <v>5.16</v>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>0.25%</t>
+          <t>25.40%</t>
         </is>
       </c>
       <c r="W40" t="inlineStr">
         <is>
-          <t>0.09%</t>
+          <t>8.90%</t>
         </is>
       </c>
       <c r="X40" t="inlineStr">
@@ -5558,7 +5574,7 @@
       </c>
       <c r="AA40" t="inlineStr">
         <is>
-          <t>$5,966,750,720.00</t>
+          <t>$5,964,763,648.00</t>
         </is>
       </c>
       <c r="AB40" t="inlineStr">
@@ -5605,7 +5621,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>$254.88</t>
+          <t>$254.52</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -5617,27 +5633,27 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="K41" t="n">
-        <v>20.50523</v>
+        <v>20.48</v>
       </c>
       <c r="L41" t="n">
-        <v>42.33887</v>
+        <v>42.28</v>
       </c>
       <c r="M41" t="n">
-        <v>2.9129477</v>
+        <v>2.91</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>0.15%</t>
+          <t>15.12%</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>0.42%</t>
+          <t>42.39%</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>0.81%</t>
+          <t>80.71%</t>
         </is>
       </c>
       <c r="Q41" t="inlineStr">
@@ -5656,19 +5672,19 @@
         </is>
       </c>
       <c r="T41" t="n">
-        <v>19.554</v>
+        <v>19.55</v>
       </c>
       <c r="U41" t="n">
-        <v>5.661621975584056</v>
+        <v>5.66</v>
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>0.06%</t>
+          <t>5.90%</t>
         </is>
       </c>
       <c r="W41" t="inlineStr">
         <is>
-          <t>1.38%</t>
+          <t>137.60%</t>
         </is>
       </c>
       <c r="X41" t="inlineStr">
@@ -5686,7 +5702,7 @@
       </c>
       <c r="AA41" t="inlineStr">
         <is>
-          <t>$17,604,177,920.00</t>
+          <t>$17,579,313,152.00</t>
         </is>
       </c>
       <c r="AB41" t="inlineStr">
@@ -5733,7 +5749,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>$138.24</t>
+          <t>$138.05</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -5745,27 +5761,27 @@
         <v>1.08</v>
       </c>
       <c r="K42" t="n">
-        <v>30.052176</v>
+        <v>30.01</v>
       </c>
       <c r="L42" t="n">
-        <v>28.920502</v>
+        <v>28.88</v>
       </c>
       <c r="M42" t="n">
-        <v>2.1276205</v>
+        <v>2.12</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>0.07%</t>
+          <t>6.90%</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>0.29%</t>
+          <t>28.77%</t>
         </is>
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>1.41%</t>
+          <t>140.87%</t>
         </is>
       </c>
       <c r="Q42" t="inlineStr">
@@ -5784,19 +5800,19 @@
         </is>
       </c>
       <c r="T42" t="n">
-        <v>19.373</v>
+        <v>19.37</v>
       </c>
       <c r="U42" t="n">
-        <v>6.034455910232476</v>
+        <v>6.03</v>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>0.04%</t>
+          <t>3.60%</t>
         </is>
       </c>
       <c r="W42" t="inlineStr">
         <is>
-          <t>0.34%</t>
+          <t>34.20%</t>
         </is>
       </c>
       <c r="X42" t="inlineStr">
@@ -5814,7 +5830,7 @@
       </c>
       <c r="AA42" t="inlineStr">
         <is>
-          <t>$30,634,123,264.00</t>
+          <t>$30,592,018,432.00</t>
         </is>
       </c>
       <c r="AB42" t="inlineStr">
@@ -5861,7 +5877,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>$226.74</t>
+          <t>$226.45</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -5873,27 +5889,27 @@
         <v>1.31</v>
       </c>
       <c r="K43" t="n">
-        <v>13.4884</v>
+        <v>13.47</v>
       </c>
       <c r="L43" t="n">
-        <v>9.966594000000001</v>
+        <v>9.949999999999999</v>
       </c>
       <c r="M43" t="n">
-        <v>1.9222096</v>
+        <v>1.92</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>0.15%</t>
+          <t>14.70%</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>0.05%</t>
+          <t>4.65%</t>
         </is>
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>0.33%</t>
+          <t>32.84%</t>
         </is>
       </c>
       <c r="Q43" t="inlineStr">
@@ -5919,12 +5935,12 @@
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>0.14%</t>
+          <t>13.90%</t>
         </is>
       </c>
       <c r="W43" t="inlineStr">
         <is>
-          <t>-0.13%</t>
+          <t>-13.30%</t>
         </is>
       </c>
       <c r="X43" t="inlineStr">
@@ -5942,7 +5958,7 @@
       </c>
       <c r="AA43" t="inlineStr">
         <is>
-          <t>$53,487,742,976.00</t>
+          <t>$53,419,331,584.00</t>
         </is>
       </c>
       <c r="AB43" t="inlineStr">
@@ -5989,7 +6005,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>$110.43</t>
+          <t>$110.28</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -5998,30 +6014,30 @@
         </is>
       </c>
       <c r="J44" t="n">
-        <v>0.347</v>
+        <v>0.35</v>
       </c>
       <c r="K44" t="n">
-        <v>23.19958</v>
+        <v>23.17</v>
       </c>
       <c r="L44" t="n">
-        <v>14.86272</v>
+        <v>14.84</v>
       </c>
       <c r="M44" t="n">
-        <v>7.1749725</v>
+        <v>7.17</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>0.33%</t>
+          <t>32.65%</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>0.21%</t>
+          <t>20.76%</t>
         </is>
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>0.65%</t>
+          <t>65.13%</t>
         </is>
       </c>
       <c r="Q44" t="inlineStr">
@@ -6040,14 +6056,14 @@
         </is>
       </c>
       <c r="T44" t="n">
-        <v>11.371</v>
+        <v>11.37</v>
       </c>
       <c r="U44" t="n">
-        <v>1.818128828807856</v>
+        <v>1.82</v>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>-0.00%</t>
+          <t>-0.30%</t>
         </is>
       </c>
       <c r="W44" t="inlineStr">
@@ -6070,7 +6086,7 @@
       </c>
       <c r="AA44" t="inlineStr">
         <is>
-          <t>$137,367,191,552.00</t>
+          <t>$137,180,594,176.00</t>
         </is>
       </c>
       <c r="AB44" t="inlineStr">
@@ -6117,7 +6133,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>$315.87</t>
+          <t>$314.99</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -6126,30 +6142,30 @@
         </is>
       </c>
       <c r="J45" t="n">
-        <v>0.493</v>
+        <v>0.49</v>
       </c>
       <c r="K45" t="n">
-        <v>21.19933</v>
+        <v>21.14</v>
       </c>
       <c r="L45" t="n">
-        <v>19.643656</v>
+        <v>19.59</v>
       </c>
       <c r="M45" t="n">
-        <v>3.597936</v>
+        <v>3.59</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>0.18%</t>
+          <t>17.92%</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>0.08%</t>
+          <t>8.13%</t>
         </is>
       </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>0.39%</t>
+          <t>39.22%</t>
         </is>
       </c>
       <c r="Q45" t="inlineStr">
@@ -6168,19 +6184,19 @@
         </is>
       </c>
       <c r="T45" t="n">
-        <v>15.374</v>
+        <v>15.37</v>
       </c>
       <c r="U45" t="n">
-        <v>1.748559183255028</v>
+        <v>1.75</v>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>0.09%</t>
+          <t>8.90%</t>
         </is>
       </c>
       <c r="W45" t="inlineStr">
         <is>
-          <t>0.15%</t>
+          <t>14.70%</t>
         </is>
       </c>
       <c r="X45" t="inlineStr">
@@ -6198,7 +6214,7 @@
       </c>
       <c r="AA45" t="inlineStr">
         <is>
-          <t>$84,966,817,792.00</t>
+          <t>$84,730,101,760.00</t>
         </is>
       </c>
       <c r="AB45" t="inlineStr">
@@ -6245,7 +6261,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>$724.46</t>
+          <t>$724.74</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -6257,27 +6273,27 @@
         <v>1.37</v>
       </c>
       <c r="K46" t="n">
-        <v>15.950243</v>
+        <v>15.96</v>
       </c>
       <c r="L46" t="n">
-        <v>17.431665</v>
+        <v>17.44</v>
       </c>
       <c r="M46" t="n">
-        <v>1.9222157</v>
+        <v>1.92</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>0.13%</t>
+          <t>12.74%</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>0.28%</t>
+          <t>28.40%</t>
         </is>
       </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>0.26%</t>
+          <t>26.43%</t>
         </is>
       </c>
       <c r="Q46" t="inlineStr">
@@ -6305,12 +6321,12 @@
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>0.14%</t>
+          <t>14.10%</t>
         </is>
       </c>
       <c r="W46" t="inlineStr">
         <is>
-          <t>0.27%</t>
+          <t>26.60%</t>
         </is>
       </c>
       <c r="X46" t="inlineStr">
@@ -6328,7 +6344,7 @@
       </c>
       <c r="AA46" t="inlineStr">
         <is>
-          <t>$219,309,260,800.00</t>
+          <t>$219,394,015,232.00</t>
         </is>
       </c>
       <c r="AB46" t="inlineStr">
@@ -6375,7 +6391,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>$9.72</t>
+          <t>$9.68</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -6384,30 +6400,30 @@
         </is>
       </c>
       <c r="J47" t="n">
-        <v>1.045</v>
+        <v>1.04</v>
       </c>
       <c r="K47" t="n">
-        <v>42.260868</v>
+        <v>42.09</v>
       </c>
       <c r="L47" t="n">
-        <v>33.517242</v>
+        <v>33.38</v>
       </c>
       <c r="M47" t="n">
-        <v>3.455386</v>
+        <v>3.44</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>0.09%</t>
+          <t>9.11%</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>0.11%</t>
+          <t>10.63%</t>
         </is>
       </c>
       <c r="P47" t="inlineStr">
         <is>
-          <t>1.31%</t>
+          <t>131.40%</t>
         </is>
       </c>
       <c r="Q47" t="inlineStr">
@@ -6426,19 +6442,19 @@
         </is>
       </c>
       <c r="T47" t="n">
-        <v>15.876</v>
+        <v>15.88</v>
       </c>
       <c r="U47" t="n">
-        <v>5.546737291907772</v>
+        <v>5.55</v>
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>0.07%</t>
+          <t>7.30%</t>
         </is>
       </c>
       <c r="W47" t="inlineStr">
         <is>
-          <t>-0.30%</t>
+          <t>-30.00%</t>
         </is>
       </c>
       <c r="X47" t="inlineStr">
@@ -6456,7 +6472,7 @@
       </c>
       <c r="AA47" t="inlineStr">
         <is>
-          <t>$266,823,728.00</t>
+          <t>$265,725,696.00</t>
         </is>
       </c>
       <c r="AB47" t="inlineStr">
@@ -6503,7 +6519,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>$32.42</t>
+          <t>$32.38</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -6512,30 +6528,30 @@
         </is>
       </c>
       <c r="J48" t="n">
-        <v>0.333</v>
+        <v>0.33</v>
       </c>
       <c r="K48" t="n">
-        <v>8.907966999999999</v>
+        <v>8.9</v>
       </c>
       <c r="L48" t="n">
-        <v>6.537298</v>
+        <v>6.53</v>
       </c>
       <c r="M48" t="n">
-        <v>0.011433518</v>
+        <v>0.01</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>0.07%</t>
+          <t>7.05%</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>0.04%</t>
+          <t>3.85%</t>
         </is>
       </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t>0.37%</t>
+          <t>37.29%</t>
         </is>
       </c>
       <c r="Q48" t="inlineStr">
@@ -6554,19 +6570,19 @@
         </is>
       </c>
       <c r="T48" t="n">
-        <v>4.475</v>
+        <v>4.47</v>
       </c>
       <c r="U48" t="n">
-        <v>7.047548109960649</v>
+        <v>7.05</v>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>-0.01%</t>
+          <t>-1.30%</t>
         </is>
       </c>
       <c r="W48" t="inlineStr">
         <is>
-          <t>-0.86%</t>
+          <t>-86.00%</t>
         </is>
       </c>
       <c r="X48" t="inlineStr">
@@ -6584,7 +6600,7 @@
       </c>
       <c r="AA48" t="inlineStr">
         <is>
-          <t>$43,228,360,704.00</t>
+          <t>$43,168,370,688.00</t>
         </is>
       </c>
       <c r="AB48" t="inlineStr">
@@ -6631,7 +6647,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>$219.43</t>
+          <t>$219.23</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -6640,30 +6656,30 @@
         </is>
       </c>
       <c r="J49" t="n">
-        <v>1.065</v>
+        <v>1.06</v>
       </c>
       <c r="K49" t="n">
-        <v>24.934658</v>
+        <v>24.91</v>
       </c>
       <c r="L49" t="n">
-        <v>19.92961</v>
+        <v>19.91</v>
       </c>
       <c r="M49" t="n">
-        <v>8.655478</v>
+        <v>8.65</v>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>0.34%</t>
+          <t>33.60%</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>0.14%</t>
+          <t>14.30%</t>
         </is>
       </c>
       <c r="P49" t="inlineStr">
         <is>
-          <t>0.51%</t>
+          <t>50.85%</t>
         </is>
       </c>
       <c r="Q49" t="inlineStr">
@@ -6682,19 +6698,19 @@
         </is>
       </c>
       <c r="T49" t="n">
-        <v>16.857</v>
+        <v>16.86</v>
       </c>
       <c r="U49" t="n">
-        <v>3.780299099714917</v>
+        <v>3.78</v>
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>0.08%</t>
+          <t>8.10%</t>
         </is>
       </c>
       <c r="W49" t="inlineStr">
         <is>
-          <t>0.04%</t>
+          <t>3.80%</t>
         </is>
       </c>
       <c r="X49" t="inlineStr">
@@ -6712,7 +6728,7 @@
       </c>
       <c r="AA49" t="inlineStr">
         <is>
-          <t>$139,312,283,648.00</t>
+          <t>$139,188,469,760.00</t>
         </is>
       </c>
       <c r="AB49" t="inlineStr">
@@ -6759,7 +6775,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>$25.07</t>
+          <t>$25.01</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -6768,16 +6784,16 @@
         </is>
       </c>
       <c r="J50" t="n">
-        <v>1.309</v>
+        <v>1.31</v>
       </c>
       <c r="K50" t="n">
-        <v>9.644232000000001</v>
+        <v>9.619999999999999</v>
       </c>
       <c r="L50" t="n">
-        <v>6.965278</v>
+        <v>6.95</v>
       </c>
       <c r="M50" t="n">
-        <v>-18.505535</v>
+        <v>-18.46</v>
       </c>
       <c r="N50" t="inlineStr">
         <is>
@@ -6786,12 +6802,12 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>0.05%</t>
+          <t>4.64%</t>
         </is>
       </c>
       <c r="P50" t="inlineStr">
         <is>
-          <t>0.43%</t>
+          <t>43.46%</t>
         </is>
       </c>
       <c r="Q50" t="inlineStr">
@@ -6810,19 +6826,19 @@
         </is>
       </c>
       <c r="T50" t="n">
-        <v>6.997</v>
+        <v>7</v>
       </c>
       <c r="U50" t="n">
-        <v>2.546153900854701</v>
+        <v>2.55</v>
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>0.03%</t>
+          <t>3.30%</t>
         </is>
       </c>
       <c r="W50" t="inlineStr">
         <is>
-          <t>-0.31%</t>
+          <t>-31.10%</t>
         </is>
       </c>
       <c r="X50" t="inlineStr">
@@ -6840,7 +6856,7 @@
       </c>
       <c r="AA50" t="inlineStr">
         <is>
-          <t>$23,552,272,384.00</t>
+          <t>$23,491,219,456.00</t>
         </is>
       </c>
       <c r="AB50" t="inlineStr">
@@ -6896,30 +6912,30 @@
         </is>
       </c>
       <c r="J51" t="n">
-        <v>0.501</v>
+        <v>0.5</v>
       </c>
       <c r="K51" t="n">
-        <v>12.412871</v>
+        <v>12.41</v>
       </c>
       <c r="L51" t="n">
-        <v>45.097122</v>
+        <v>45.1</v>
       </c>
       <c r="M51" t="n">
-        <v>6.346563</v>
+        <v>6.35</v>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>0.10%</t>
+          <t>10.13%</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>0.34%</t>
+          <t>33.67%</t>
         </is>
       </c>
       <c r="P51" t="inlineStr">
         <is>
-          <t>0.65%</t>
+          <t>65.35%</t>
         </is>
       </c>
       <c r="Q51" t="inlineStr">
@@ -6947,12 +6963,12 @@
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>-0.11%</t>
+          <t>-11.00%</t>
         </is>
       </c>
       <c r="W51" t="inlineStr">
         <is>
-          <t>-0.23%</t>
+          <t>-23.40%</t>
         </is>
       </c>
       <c r="X51" t="inlineStr">
@@ -6970,7 +6986,7 @@
       </c>
       <c r="AA51" t="inlineStr">
         <is>
-          <t>$217,993,986,048.00</t>
+          <t>$218,011,369,472.00</t>
         </is>
       </c>
       <c r="AB51" t="inlineStr">
@@ -7017,7 +7033,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>$252.61</t>
+          <t>$252.28</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -7026,30 +7042,30 @@
         </is>
       </c>
       <c r="J52" t="n">
-        <v>0.677</v>
+        <v>0.68</v>
       </c>
       <c r="K52" t="n">
-        <v>40.80937</v>
+        <v>40.76</v>
       </c>
       <c r="L52" t="n">
-        <v>23.808672</v>
+        <v>23.78</v>
       </c>
       <c r="M52" t="n">
-        <v>8.554062</v>
+        <v>8.539999999999999</v>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>0.23%</t>
+          <t>22.67%</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>0.09%</t>
+          <t>9.11%</t>
         </is>
       </c>
       <c r="P52" t="inlineStr">
         <is>
-          <t>1.08%</t>
+          <t>107.90%</t>
         </is>
       </c>
       <c r="Q52" t="inlineStr">
@@ -7068,19 +7084,19 @@
         </is>
       </c>
       <c r="T52" t="n">
-        <v>20.155</v>
+        <v>20.16</v>
       </c>
       <c r="U52" t="n">
-        <v>4.77465978695775</v>
+        <v>4.77</v>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>0.08%</t>
+          <t>7.70%</t>
         </is>
       </c>
       <c r="W52" t="inlineStr">
         <is>
-          <t>0.18%</t>
+          <t>17.70%</t>
         </is>
       </c>
       <c r="X52" t="inlineStr">
@@ -7098,7 +7114,7 @@
       </c>
       <c r="AA52" t="inlineStr">
         <is>
-          <t>$235,311,005,696.00</t>
+          <t>$235,003,609,088.00</t>
         </is>
       </c>
       <c r="AB52" t="inlineStr">
@@ -7145,7 +7161,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>$30.25</t>
+          <t>$30.26</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -7154,30 +7170,30 @@
         </is>
       </c>
       <c r="J53" t="n">
-        <v>0.779</v>
+        <v>0.78</v>
       </c>
       <c r="K53" t="n">
-        <v>33.99438</v>
+        <v>34</v>
       </c>
       <c r="L53" t="n">
-        <v>40.88513</v>
+        <v>40.89</v>
       </c>
       <c r="M53" t="n">
-        <v>1.9182729</v>
+        <v>1.92</v>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>0.06%</t>
+          <t>5.53%</t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>0.21%</t>
+          <t>20.59%</t>
         </is>
       </c>
       <c r="P53" t="inlineStr">
         <is>
-          <t>1.29%</t>
+          <t>129.21%</t>
         </is>
       </c>
       <c r="Q53" t="inlineStr">
@@ -7196,19 +7212,19 @@
         </is>
       </c>
       <c r="T53" t="n">
-        <v>18.468</v>
+        <v>18.47</v>
       </c>
       <c r="U53" t="n">
-        <v>5.650558988417109</v>
+        <v>5.65</v>
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>0.04%</t>
+          <t>4.40%</t>
         </is>
       </c>
       <c r="W53" t="inlineStr">
         <is>
-          <t>0.93%</t>
+          <t>92.60%</t>
         </is>
       </c>
       <c r="X53" t="inlineStr">
@@ -7226,7 +7242,7 @@
       </c>
       <c r="AA53" t="inlineStr">
         <is>
-          <t>$18,546,556,928.00</t>
+          <t>$18,549,622,784.00</t>
         </is>
       </c>
       <c r="AB53" t="inlineStr">
@@ -7273,7 +7289,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>$171.01</t>
+          <t>$170.59</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -7282,30 +7298,30 @@
         </is>
       </c>
       <c r="J54" t="n">
-        <v>0.399</v>
+        <v>0.4</v>
       </c>
       <c r="K54" t="n">
-        <v>18.309958</v>
+        <v>18.26</v>
       </c>
       <c r="L54" t="n">
-        <v>16.13349</v>
+        <v>16.09</v>
       </c>
       <c r="M54" t="n">
-        <v>5.2450547</v>
+        <v>5.23</v>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>0.30%</t>
+          <t>30.21%</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>0.25%</t>
+          <t>25.00%</t>
         </is>
       </c>
       <c r="P54" t="inlineStr">
         <is>
-          <t>0.54%</t>
+          <t>53.75%</t>
         </is>
       </c>
       <c r="Q54" t="inlineStr">
@@ -7324,19 +7340,19 @@
         </is>
       </c>
       <c r="T54" t="n">
-        <v>14.645</v>
+        <v>14.64</v>
       </c>
       <c r="U54" t="n">
-        <v>1.677772257929002</v>
+        <v>1.68</v>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>0.06%</t>
+          <t>5.80%</t>
         </is>
       </c>
       <c r="W54" t="inlineStr">
         <is>
-          <t>0.19%</t>
+          <t>18.70%</t>
         </is>
       </c>
       <c r="X54" t="inlineStr">
@@ -7354,7 +7370,7 @@
       </c>
       <c r="AA54" t="inlineStr">
         <is>
-          <t>$411,862,269,952.00</t>
+          <t>$410,838,695,936.00</t>
         </is>
       </c>
       <c r="AB54" t="inlineStr">
@@ -7401,7 +7417,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>$291.41</t>
+          <t>$291.35</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -7410,40 +7426,40 @@
         </is>
       </c>
       <c r="J55" t="n">
-        <v>1.107</v>
+        <v>1.11</v>
       </c>
       <c r="K55" t="n">
-        <v>14.951771</v>
+        <v>14.95</v>
       </c>
       <c r="L55" t="n">
-        <v>17.408005</v>
+        <v>17.4</v>
       </c>
       <c r="M55" t="n">
-        <v>2.378566</v>
+        <v>2.38</v>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>0.16%</t>
+          <t>16.21%</t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>0.35%</t>
+          <t>34.55%</t>
         </is>
       </c>
       <c r="P55" t="inlineStr">
         <is>
-          <t>0.27%</t>
+          <t>27.18%</t>
         </is>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>$45,327,000,000.00</t>
+          <t>$44,882,000,000.00</t>
         </is>
       </c>
       <c r="R55" t="inlineStr">
         <is>
-          <t>$14,643,000,000.00</t>
+          <t>$14,987,000,000.00</t>
         </is>
       </c>
       <c r="S55" t="inlineStr">
@@ -7461,12 +7477,12 @@
       </c>
       <c r="V55" t="inlineStr">
         <is>
-          <t>-0.11%</t>
+          <t>-10.60%</t>
         </is>
       </c>
       <c r="W55" t="inlineStr">
         <is>
-          <t>-0.14%</t>
+          <t>-14.40%</t>
         </is>
       </c>
       <c r="X55" t="inlineStr">
@@ -7484,7 +7500,7 @@
       </c>
       <c r="AA55" t="inlineStr">
         <is>
-          <t>$801,281,343,488.00</t>
+          <t>$801,116,323,840.00</t>
         </is>
       </c>
       <c r="AB55" t="inlineStr">
@@ -7531,7 +7547,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>$21.36</t>
+          <t>$21.33</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -7540,30 +7556,30 @@
         </is>
       </c>
       <c r="J56" t="n">
-        <v>1.325</v>
+        <v>1.32</v>
       </c>
       <c r="K56" t="n">
-        <v>26.054878</v>
+        <v>26.01</v>
       </c>
       <c r="L56" t="n">
-        <v>30.52143</v>
+        <v>30.47</v>
       </c>
       <c r="M56" t="n">
-        <v>1.3752816</v>
+        <v>1.37</v>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>0.06%</t>
+          <t>5.63%</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>0.29%</t>
+          <t>28.54%</t>
         </is>
       </c>
       <c r="P56" t="inlineStr">
         <is>
-          <t>1.21%</t>
+          <t>120.73%</t>
         </is>
       </c>
       <c r="Q56" t="inlineStr">
@@ -7582,19 +7598,19 @@
         </is>
       </c>
       <c r="T56" t="n">
-        <v>17.778</v>
+        <v>17.78</v>
       </c>
       <c r="U56" t="n">
-        <v>6.498405408456358</v>
+        <v>6.5</v>
       </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>0.05%</t>
+          <t>5.00%</t>
         </is>
       </c>
       <c r="W56" t="inlineStr">
         <is>
-          <t>0.39%</t>
+          <t>38.60%</t>
         </is>
       </c>
       <c r="X56" t="inlineStr">
@@ -7612,7 +7628,7 @@
       </c>
       <c r="AA56" t="inlineStr">
         <is>
-          <t>$14,468,377,600.00</t>
+          <t>$14,444,676,096.00</t>
         </is>
       </c>
       <c r="AB56" t="inlineStr">
@@ -7659,7 +7675,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>$136.78</t>
+          <t>$136.68</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -7668,30 +7684,30 @@
         </is>
       </c>
       <c r="J57" t="n">
-        <v>0.341</v>
+        <v>0.34</v>
       </c>
       <c r="K57" t="n">
-        <v>18.71067</v>
+        <v>18.7</v>
       </c>
       <c r="L57" t="n">
-        <v>17.92595</v>
+        <v>17.91</v>
       </c>
       <c r="M57" t="n">
-        <v>35.720814</v>
+        <v>35.7</v>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>1.84%</t>
+          <t>184.20%</t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>0.12%</t>
+          <t>12.32%</t>
         </is>
       </c>
       <c r="P57" t="inlineStr">
         <is>
-          <t>0.68%</t>
+          <t>67.85%</t>
         </is>
       </c>
       <c r="Q57" t="inlineStr">
@@ -7710,19 +7726,19 @@
         </is>
       </c>
       <c r="T57" t="n">
-        <v>13.406</v>
+        <v>13.41</v>
       </c>
       <c r="U57" t="n">
-        <v>1.901750720221572</v>
+        <v>1.9</v>
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>-0.02%</t>
+          <t>-1.60%</t>
         </is>
       </c>
       <c r="W57" t="inlineStr">
         <is>
-          <t>-0.05%</t>
+          <t>-5.00%</t>
         </is>
       </c>
       <c r="X57" t="inlineStr">
@@ -7740,7 +7756,7 @@
       </c>
       <c r="AA57" t="inlineStr">
         <is>
-          <t>$45,379,207,168.00</t>
+          <t>$45,347,688,448.00</t>
         </is>
       </c>
       <c r="AB57" t="inlineStr">
@@ -7787,7 +7803,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>$69.62</t>
+          <t>$69.51</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -7796,30 +7812,30 @@
         </is>
       </c>
       <c r="J58" t="n">
-        <v>0.437</v>
+        <v>0.44</v>
       </c>
       <c r="K58" t="n">
-        <v>24.689716</v>
+        <v>24.65</v>
       </c>
       <c r="L58" t="n">
-        <v>23.44276</v>
+        <v>23.4</v>
       </c>
       <c r="M58" t="n">
-        <v>10.484114</v>
+        <v>10.47</v>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>0.42%</t>
+          <t>42.37%</t>
         </is>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>0.26%</t>
+          <t>25.89%</t>
         </is>
       </c>
       <c r="P58" t="inlineStr">
         <is>
-          <t>0.71%</t>
+          <t>70.57%</t>
         </is>
       </c>
       <c r="Q58" t="inlineStr">
@@ -7838,19 +7854,19 @@
         </is>
       </c>
       <c r="T58" t="n">
-        <v>21.194</v>
+        <v>21.19</v>
       </c>
       <c r="U58" t="n">
-        <v>3.179849318762111</v>
+        <v>3.18</v>
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>0.01%</t>
+          <t>1.40%</t>
         </is>
       </c>
       <c r="W58" t="inlineStr">
         <is>
-          <t>0.57%</t>
+          <t>57.30%</t>
         </is>
       </c>
       <c r="X58" t="inlineStr">
@@ -7868,7 +7884,7 @@
       </c>
       <c r="AA58" t="inlineStr">
         <is>
-          <t>$299,643,011,072.00</t>
+          <t>$299,148,083,200.00</t>
         </is>
       </c>
       <c r="AB58" t="inlineStr">
@@ -7915,7 +7931,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>$38.05</t>
+          <t>$38.17</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -7924,30 +7940,30 @@
         </is>
       </c>
       <c r="J59" t="n">
-        <v>1.236</v>
+        <v>1.24</v>
       </c>
       <c r="K59" t="n">
-        <v>20.679346</v>
+        <v>20.74</v>
       </c>
       <c r="L59" t="n">
-        <v>29.496124</v>
+        <v>29.59</v>
       </c>
       <c r="M59" t="n">
-        <v>0.83875227</v>
+        <v>0.84</v>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>0.04%</t>
+          <t>4.38%</t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>0.19%</t>
+          <t>19.29%</t>
         </is>
       </c>
       <c r="P59" t="inlineStr">
         <is>
-          <t>1.17%</t>
+          <t>117.39%</t>
         </is>
       </c>
       <c r="Q59" t="inlineStr">
@@ -7966,19 +7982,19 @@
         </is>
       </c>
       <c r="T59" t="n">
-        <v>14.061</v>
+        <v>14.06</v>
       </c>
       <c r="U59" t="n">
-        <v>7.196382152931656</v>
+        <v>7.2</v>
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>0.03%</t>
+          <t>3.30%</t>
         </is>
       </c>
       <c r="W59" t="inlineStr">
         <is>
-          <t>0.39%</t>
+          <t>39.00%</t>
         </is>
       </c>
       <c r="X59" t="inlineStr">
@@ -7996,7 +8012,7 @@
       </c>
       <c r="AA59" t="inlineStr">
         <is>
-          <t>$4,544,882,176.00</t>
+          <t>$4,559,215,616.00</t>
         </is>
       </c>
       <c r="AB59" t="inlineStr">
@@ -8043,7 +8059,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>$471.86</t>
+          <t>$471.48</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -8052,30 +8068,30 @@
         </is>
       </c>
       <c r="J60" t="n">
-        <v>0.929</v>
+        <v>0.93</v>
       </c>
       <c r="K60" t="n">
-        <v>33.58434</v>
+        <v>33.56</v>
       </c>
       <c r="L60" t="n">
-        <v>27.838346</v>
+        <v>27.82</v>
       </c>
       <c r="M60" t="n">
-        <v>5.744792</v>
+        <v>5.74</v>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>0.17%</t>
+          <t>17.31%</t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>0.20%</t>
+          <t>20.20%</t>
         </is>
       </c>
       <c r="P60" t="inlineStr">
         <is>
-          <t>0.41%</t>
+          <t>41.08%</t>
         </is>
       </c>
       <c r="Q60" t="inlineStr">
@@ -8094,19 +8110,19 @@
         </is>
       </c>
       <c r="T60" t="n">
-        <v>18.731</v>
+        <v>18.73</v>
       </c>
       <c r="U60" t="n">
-        <v>1.998612084810793</v>
+        <v>2</v>
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>0.03%</t>
+          <t>2.80%</t>
         </is>
       </c>
       <c r="W60" t="inlineStr">
         <is>
-          <t>0.08%</t>
+          <t>8.40%</t>
         </is>
       </c>
       <c r="X60" t="inlineStr">
@@ -8124,7 +8140,7 @@
       </c>
       <c r="AA60" t="inlineStr">
         <is>
-          <t>$221,259,874,304.00</t>
+          <t>$221,081,698,304.00</t>
         </is>
       </c>
       <c r="AB60" t="inlineStr">
@@ -8171,7 +8187,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>$435.74</t>
+          <t>$434.85</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -8180,30 +8196,30 @@
         </is>
       </c>
       <c r="J61" t="n">
-        <v>0.262</v>
+        <v>0.26</v>
       </c>
       <c r="K61" t="n">
-        <v>24.46603</v>
+        <v>24.42</v>
       </c>
       <c r="L61" t="n">
-        <v>15.501245</v>
+        <v>15.47</v>
       </c>
       <c r="M61" t="n">
-        <v>18.952633</v>
+        <v>18.91</v>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>0.73%</t>
+          <t>73.06%</t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>0.06%</t>
+          <t>5.85%</t>
         </is>
       </c>
       <c r="P61" t="inlineStr">
         <is>
-          <t>0.73%</t>
+          <t>73.23%</t>
         </is>
       </c>
       <c r="Q61" t="inlineStr">
@@ -8222,19 +8238,19 @@
         </is>
       </c>
       <c r="T61" t="n">
-        <v>16.726</v>
+        <v>16.73</v>
       </c>
       <c r="U61" t="n">
-        <v>3.007784407144343</v>
+        <v>3.01</v>
       </c>
       <c r="V61" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0.20%</t>
         </is>
       </c>
       <c r="W61" t="inlineStr">
         <is>
-          <t>-0.79%</t>
+          <t>-78.70%</t>
         </is>
       </c>
       <c r="X61" t="inlineStr">
@@ -8252,7 +8268,7 @@
       </c>
       <c r="AA61" t="inlineStr">
         <is>
-          <t>$101,730,033,664.00</t>
+          <t>$101,522,251,776.00</t>
         </is>
       </c>
       <c r="AB61" t="inlineStr">
@@ -8299,7 +8315,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>$96.05</t>
+          <t>$95.94</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -8308,30 +8324,30 @@
         </is>
       </c>
       <c r="J62" t="n">
-        <v>1.661</v>
+        <v>1.66</v>
       </c>
       <c r="K62" t="n">
-        <v>23.144579</v>
+        <v>23.12</v>
       </c>
       <c r="L62" t="n">
-        <v>22.494146</v>
+        <v>22.47</v>
       </c>
       <c r="M62" t="n">
-        <v>12.356877</v>
+        <v>12.34</v>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>0.58%</t>
+          <t>58.24%</t>
         </is>
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>0.29%</t>
+          <t>29.07%</t>
         </is>
       </c>
       <c r="P62" t="inlineStr">
         <is>
-          <t>0.22%</t>
+          <t>22.17%</t>
         </is>
       </c>
       <c r="Q62" t="inlineStr">
@@ -8350,19 +8366,19 @@
         </is>
       </c>
       <c r="T62" t="n">
-        <v>19.206</v>
+        <v>19.21</v>
       </c>
       <c r="U62" t="n">
-        <v>0.713270316434951</v>
+        <v>0.71</v>
       </c>
       <c r="V62" t="inlineStr">
         <is>
-          <t>0.34%</t>
+          <t>33.60%</t>
         </is>
       </c>
       <c r="W62" t="inlineStr">
         <is>
-          <t>0.73%</t>
+          <t>73.40%</t>
         </is>
       </c>
       <c r="X62" t="inlineStr">
@@ -8380,7 +8396,7 @@
       </c>
       <c r="AA62" t="inlineStr">
         <is>
-          <t>$121,862,479,872.00</t>
+          <t>$121,722,912,768.00</t>
         </is>
       </c>
       <c r="AB62" t="inlineStr">
@@ -8427,7 +8443,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>$49.73</t>
+          <t>$49.55</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -8436,30 +8452,30 @@
         </is>
       </c>
       <c r="J63" t="n">
-        <v>0.867</v>
+        <v>0.87</v>
       </c>
       <c r="K63" t="n">
-        <v>105.80851</v>
+        <v>105.43</v>
       </c>
       <c r="L63" t="n">
-        <v>5.775842</v>
+        <v>5.75</v>
       </c>
       <c r="M63" t="n">
-        <v>1.343074</v>
+        <v>1.34</v>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>0.01%</t>
+          <t>1.21%</t>
         </is>
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>0.01%</t>
+          <t>0.66%</t>
         </is>
       </c>
       <c r="P63" t="inlineStr">
         <is>
-          <t>11.47%</t>
+          <t>1146.81%</t>
         </is>
       </c>
       <c r="Q63" t="inlineStr">
@@ -8478,19 +8494,19 @@
         </is>
       </c>
       <c r="T63" t="n">
-        <v>10.127</v>
+        <v>10.13</v>
       </c>
       <c r="U63" t="n">
-        <v>4.749377996430925</v>
+        <v>4.75</v>
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>-0.12%</t>
+          <t>-11.80%</t>
         </is>
       </c>
       <c r="W63" t="inlineStr">
         <is>
-          <t>-0.88%</t>
+          <t>-87.70%</t>
         </is>
       </c>
       <c r="X63" t="inlineStr">
@@ -8508,7 +8524,7 @@
       </c>
       <c r="AA63" t="inlineStr">
         <is>
-          <t>$15,995,554,816.00</t>
+          <t>$15,937,657,856.00</t>
         </is>
       </c>
       <c r="AB63" t="inlineStr">
@@ -8555,7 +8571,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>$64.06</t>
+          <t>$64.15</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -8564,30 +8580,30 @@
         </is>
       </c>
       <c r="J64" t="n">
-        <v>0.854</v>
+        <v>0.85</v>
       </c>
       <c r="K64" t="n">
-        <v>10.857627</v>
+        <v>10.87</v>
       </c>
       <c r="L64" t="n">
-        <v>16.595854</v>
+        <v>16.62</v>
       </c>
       <c r="M64" t="n">
-        <v>1.9997501</v>
+        <v>2</v>
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>0.19%</t>
+          <t>19.31%</t>
         </is>
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>0.95%</t>
+          <t>94.61%</t>
         </is>
       </c>
       <c r="P64" t="inlineStr">
         <is>
-          <t>0.70%</t>
+          <t>70.34%</t>
         </is>
       </c>
       <c r="Q64" t="inlineStr">
@@ -8615,12 +8631,12 @@
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>0.04%</t>
+          <t>4.10%</t>
         </is>
       </c>
       <c r="W64" t="inlineStr">
         <is>
-          <t>0.04%</t>
+          <t>4.00%</t>
         </is>
       </c>
       <c r="X64" t="inlineStr">
@@ -8638,7 +8654,7 @@
       </c>
       <c r="AA64" t="inlineStr">
         <is>
-          <t>$5,703,223,296.00</t>
+          <t>$5,711,236,096.00</t>
         </is>
       </c>
       <c r="AB64" t="inlineStr">
@@ -8685,7 +8701,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>$140.88</t>
+          <t>$140.61</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -8694,30 +8710,30 @@
         </is>
       </c>
       <c r="J65" t="n">
-        <v>0.747</v>
+        <v>0.75</v>
       </c>
       <c r="K65" t="n">
-        <v>28.987654</v>
+        <v>28.93</v>
       </c>
       <c r="L65" t="n">
-        <v>33.946987</v>
+        <v>33.88</v>
       </c>
       <c r="M65" t="n">
-        <v>2.799515</v>
+        <v>2.79</v>
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>0.10%</t>
+          <t>9.57%</t>
         </is>
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>0.26%</t>
+          <t>25.98%</t>
         </is>
       </c>
       <c r="P65" t="inlineStr">
         <is>
-          <t>1.23%</t>
+          <t>122.84%</t>
         </is>
       </c>
       <c r="Q65" t="inlineStr">
@@ -8736,19 +8752,19 @@
         </is>
       </c>
       <c r="T65" t="n">
-        <v>17.576</v>
+        <v>17.58</v>
       </c>
       <c r="U65" t="n">
-        <v>4.090713681433916</v>
+        <v>4.09</v>
       </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t>0.01%</t>
+          <t>0.60%</t>
         </is>
       </c>
       <c r="W65" t="inlineStr">
         <is>
-          <t>0.06%</t>
+          <t>6.40%</t>
         </is>
       </c>
       <c r="X65" t="inlineStr">
@@ -8766,7 +8782,7 @@
       </c>
       <c r="AA65" t="inlineStr">
         <is>
-          <t>$16,908,559,360.00</t>
+          <t>$16,876,152,832.00</t>
         </is>
       </c>
       <c r="AB65" t="inlineStr">
@@ -8813,7 +8829,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>$308.05</t>
+          <t>$307.66</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -8822,16 +8838,16 @@
         </is>
       </c>
       <c r="J66" t="n">
-        <v>0.521</v>
+        <v>0.52</v>
       </c>
       <c r="K66" t="n">
-        <v>27.212896</v>
+        <v>27.18</v>
       </c>
       <c r="L66" t="n">
-        <v>24.429024</v>
+        <v>24.4</v>
       </c>
       <c r="M66" t="n">
-        <v>-63.765266</v>
+        <v>-63.68</v>
       </c>
       <c r="N66" t="inlineStr">
         <is>
@@ -8840,12 +8856,12 @@
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>0.32%</t>
+          <t>31.75%</t>
         </is>
       </c>
       <c r="P66" t="inlineStr">
         <is>
-          <t>0.61%</t>
+          <t>60.72%</t>
         </is>
       </c>
       <c r="Q66" t="inlineStr">
@@ -8864,19 +8880,19 @@
         </is>
       </c>
       <c r="T66" t="n">
-        <v>19.084</v>
+        <v>19.08</v>
       </c>
       <c r="U66" t="n">
-        <v>3.799294813560661</v>
+        <v>3.8</v>
       </c>
       <c r="V66" t="inlineStr">
         <is>
-          <t>-0.04%</t>
+          <t>-3.50%</t>
         </is>
       </c>
       <c r="W66" t="inlineStr">
         <is>
-          <t>-0.02%</t>
+          <t>-2.30%</t>
         </is>
       </c>
       <c r="X66" t="inlineStr">
@@ -8894,7 +8910,7 @@
       </c>
       <c r="AA66" t="inlineStr">
         <is>
-          <t>$220,265,906,176.00</t>
+          <t>$219,987,066,880.00</t>
         </is>
       </c>
       <c r="AB66" t="inlineStr">
@@ -8941,7 +8957,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>$89.38</t>
+          <t>$89.36</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -8950,30 +8966,30 @@
         </is>
       </c>
       <c r="J67" t="n">
-        <v>0.8169999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="K67" t="n">
-        <v>24.760277</v>
+        <v>24.75</v>
       </c>
       <c r="L67" t="n">
-        <v>15.279419</v>
+        <v>15.28</v>
       </c>
       <c r="M67" t="n">
-        <v>2.386007</v>
+        <v>2.39</v>
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>0.10%</t>
+          <t>9.51%</t>
         </is>
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>0.14%</t>
+          <t>13.90%</t>
         </is>
       </c>
       <c r="P67" t="inlineStr">
         <is>
-          <t>0.78%</t>
+          <t>77.56%</t>
         </is>
       </c>
       <c r="Q67" t="inlineStr">
@@ -8995,16 +9011,16 @@
         <v>14.9</v>
       </c>
       <c r="U67" t="n">
-        <v>3.250960119396626</v>
+        <v>3.25</v>
       </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>0.04%</t>
+          <t>3.90%</t>
         </is>
       </c>
       <c r="W67" t="inlineStr">
         <is>
-          <t>0.68%</t>
+          <t>68.00%</t>
         </is>
       </c>
       <c r="X67" t="inlineStr">
@@ -9022,7 +9038,7 @@
       </c>
       <c r="AA67" t="inlineStr">
         <is>
-          <t>$114,524,913,664.00</t>
+          <t>$114,493,399,040.00</t>
         </is>
       </c>
       <c r="AB67" t="inlineStr">
@@ -9069,7 +9085,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>$75.97</t>
+          <t>$75.95</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -9078,30 +9094,30 @@
         </is>
       </c>
       <c r="J68" t="n">
-        <v>0.831</v>
+        <v>0.83</v>
       </c>
       <c r="K68" t="n">
-        <v>12.413399</v>
+        <v>12.41</v>
       </c>
       <c r="L68" t="n">
-        <v>7.8400416</v>
+        <v>7.84</v>
       </c>
       <c r="M68" t="n">
-        <v>1.8604594</v>
+        <v>1.86</v>
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>0.16%</t>
+          <t>15.98%</t>
         </is>
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>0.06%</t>
+          <t>6.13%</t>
         </is>
       </c>
       <c r="P68" t="inlineStr">
         <is>
-          <t>0.36%</t>
+          <t>35.62%</t>
         </is>
       </c>
       <c r="Q68" t="inlineStr">
@@ -9120,19 +9136,19 @@
         </is>
       </c>
       <c r="T68" t="n">
-        <v>9.055</v>
+        <v>9.050000000000001</v>
       </c>
       <c r="U68" t="n">
-        <v>6.346525810527194</v>
+        <v>6.35</v>
       </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t>0.16%</t>
+          <t>15.60%</t>
         </is>
       </c>
       <c r="W68" t="inlineStr">
         <is>
-          <t>0.16%</t>
+          <t>16.40%</t>
         </is>
       </c>
       <c r="X68" t="inlineStr">
@@ -9150,7 +9166,7 @@
       </c>
       <c r="AA68" t="inlineStr">
         <is>
-          <t>$50,998,509,568.00</t>
+          <t>$50,985,078,784.00</t>
         </is>
       </c>
       <c r="AB68" t="inlineStr">
@@ -9197,7 +9213,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>$151.05</t>
+          <t>$150.82</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -9206,30 +9222,30 @@
         </is>
       </c>
       <c r="J69" t="n">
-        <v>1.104</v>
+        <v>1.1</v>
       </c>
       <c r="K69" t="n">
-        <v>20.979168</v>
+        <v>20.95</v>
       </c>
       <c r="L69" t="n">
-        <v>19.120253</v>
+        <v>19.09</v>
       </c>
       <c r="M69" t="n">
-        <v>18.754656</v>
+        <v>18.73</v>
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>0.95%</t>
+          <t>94.76%</t>
         </is>
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>0.16%</t>
+          <t>16.01%</t>
         </is>
       </c>
       <c r="P69" t="inlineStr">
         <is>
-          <t>0.40%</t>
+          <t>39.72%</t>
         </is>
       </c>
       <c r="Q69" t="inlineStr">
@@ -9248,19 +9264,19 @@
         </is>
       </c>
       <c r="T69" t="n">
-        <v>15.457</v>
+        <v>15.46</v>
       </c>
       <c r="U69" t="n">
-        <v>2.378257130737769</v>
+        <v>2.38</v>
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>0.01%</t>
+          <t>1.40%</t>
         </is>
       </c>
       <c r="W69" t="inlineStr">
         <is>
-          <t>-0.35%</t>
+          <t>-35.10%</t>
         </is>
       </c>
       <c r="X69" t="inlineStr">
@@ -9278,7 +9294,7 @@
       </c>
       <c r="AA69" t="inlineStr">
         <is>
-          <t>$80,453,763,072.00</t>
+          <t>$80,331,259,904.00</t>
         </is>
       </c>
       <c r="AB69" t="inlineStr">
@@ -9325,7 +9341,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>$141.27</t>
+          <t>$141.30</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -9337,27 +9353,27 @@
         <v>1.32</v>
       </c>
       <c r="K70" t="n">
-        <v>15.998868</v>
+        <v>16</v>
       </c>
       <c r="L70" t="n">
-        <v>17.814629</v>
+        <v>17.82</v>
       </c>
       <c r="M70" t="n">
-        <v>2.2938282</v>
+        <v>2.29</v>
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>0.14%</t>
+          <t>14.13%</t>
         </is>
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>0.22%</t>
+          <t>22.49%</t>
         </is>
       </c>
       <c r="P70" t="inlineStr">
         <is>
-          <t>0.42%</t>
+          <t>41.90%</t>
         </is>
       </c>
       <c r="Q70" t="inlineStr">
@@ -9385,12 +9401,12 @@
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>0.11%</t>
+          <t>11.10%</t>
         </is>
       </c>
       <c r="W70" t="inlineStr">
         <is>
-          <t>0.17%</t>
+          <t>17.00%</t>
         </is>
       </c>
       <c r="X70" t="inlineStr">
@@ -9408,7 +9424,7 @@
       </c>
       <c r="AA70" t="inlineStr">
         <is>
-          <t>$225,514,946,560.00</t>
+          <t>$225,562,836,992.00</t>
         </is>
       </c>
       <c r="AB70" t="inlineStr">
@@ -9455,7 +9471,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>$524.62</t>
+          <t>$524.94</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
@@ -9464,30 +9480,30 @@
         </is>
       </c>
       <c r="J71" t="n">
-        <v>1.055</v>
+        <v>1.05</v>
       </c>
       <c r="K71" t="n">
-        <v>38.518356</v>
+        <v>38.54</v>
       </c>
       <c r="L71" t="n">
-        <v>35.09164</v>
+        <v>35.11</v>
       </c>
       <c r="M71" t="n">
-        <v>11.354428</v>
+        <v>11.36</v>
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>0.33%</t>
+          <t>33.28%</t>
         </is>
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>0.36%</t>
+          <t>36.15%</t>
         </is>
       </c>
       <c r="P71" t="inlineStr">
         <is>
-          <t>0.24%</t>
+          <t>23.75%</t>
         </is>
       </c>
       <c r="Q71" t="inlineStr">
@@ -9506,19 +9522,19 @@
         </is>
       </c>
       <c r="T71" t="n">
-        <v>25.176</v>
+        <v>25.18</v>
       </c>
       <c r="U71" t="n">
-        <v>0.7167024415957317</v>
+        <v>0.72</v>
       </c>
       <c r="V71" t="inlineStr">
         <is>
-          <t>0.18%</t>
+          <t>18.10%</t>
         </is>
       </c>
       <c r="W71" t="inlineStr">
         <is>
-          <t>0.24%</t>
+          <t>23.70%</t>
         </is>
       </c>
       <c r="X71" t="inlineStr">
@@ -9536,7 +9552,7 @@
       </c>
       <c r="AA71" t="inlineStr">
         <is>
-          <t>$3,899,589,656,576.00</t>
+          <t>$3,901,968,351,232.00</t>
         </is>
       </c>
       <c r="AB71" t="inlineStr">
@@ -9583,7 +9599,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>$70.61</t>
+          <t>$70.54</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
@@ -9592,30 +9608,30 @@
         </is>
       </c>
       <c r="J72" t="n">
-        <v>0.616</v>
+        <v>0.62</v>
       </c>
       <c r="K72" t="n">
-        <v>24.60453</v>
+        <v>24.58</v>
       </c>
       <c r="L72" t="n">
-        <v>19.188858</v>
+        <v>19.17</v>
       </c>
       <c r="M72" t="n">
-        <v>2.8627315</v>
+        <v>2.86</v>
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>0.08%</t>
+          <t>7.59%</t>
         </is>
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>0.23%</t>
+          <t>22.85%</t>
         </is>
       </c>
       <c r="P72" t="inlineStr">
         <is>
-          <t>0.75%</t>
+          <t>75.37%</t>
         </is>
       </c>
       <c r="Q72" t="inlineStr">
@@ -9634,19 +9650,19 @@
         </is>
       </c>
       <c r="T72" t="n">
-        <v>16.948</v>
+        <v>16.95</v>
       </c>
       <c r="U72" t="n">
-        <v>6.364064405074055</v>
+        <v>6.36</v>
       </c>
       <c r="V72" t="inlineStr">
         <is>
-          <t>0.10%</t>
+          <t>10.40%</t>
         </is>
       </c>
       <c r="W72" t="inlineStr">
         <is>
-          <t>0.24%</t>
+          <t>24.10%</t>
         </is>
       </c>
       <c r="X72" t="inlineStr">
@@ -9664,7 +9680,7 @@
       </c>
       <c r="AA72" t="inlineStr">
         <is>
-          <t>$145,416,765,440.00</t>
+          <t>$145,262,313,472.00</t>
         </is>
       </c>
       <c r="AB72" t="inlineStr">
@@ -9711,7 +9727,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>$72.39</t>
+          <t>$72.30</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
@@ -9720,30 +9736,30 @@
         </is>
       </c>
       <c r="J73" t="n">
-        <v>0.305</v>
+        <v>0.3</v>
       </c>
       <c r="K73" t="n">
-        <v>18.188442</v>
+        <v>18.17</v>
       </c>
       <c r="L73" t="n">
-        <v>14.8950615</v>
+        <v>14.88</v>
       </c>
       <c r="M73" t="n">
-        <v>9.378158000000001</v>
+        <v>9.369999999999999</v>
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>0.08%</t>
+          <t>8.36%</t>
         </is>
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>0.16%</t>
+          <t>15.79%</t>
         </is>
       </c>
       <c r="P73" t="inlineStr">
         <is>
-          <t>0.92%</t>
+          <t>92.31%</t>
         </is>
       </c>
       <c r="Q73" t="inlineStr">
@@ -9762,19 +9778,19 @@
         </is>
       </c>
       <c r="T73" t="n">
-        <v>58.293</v>
+        <v>58.29</v>
       </c>
       <c r="U73" t="n">
-        <v>7.164704163244353</v>
+        <v>7.16</v>
       </c>
       <c r="V73" t="inlineStr">
         <is>
-          <t>-0.08%</t>
+          <t>-8.30%</t>
         </is>
       </c>
       <c r="W73" t="inlineStr">
         <is>
-          <t>0.47%</t>
+          <t>47.00%</t>
         </is>
       </c>
       <c r="X73" t="inlineStr">
@@ -9792,7 +9808,7 @@
       </c>
       <c r="AA73" t="inlineStr">
         <is>
-          <t>$71,828,684,800.00</t>
+          <t>$71,739,392,000.00</t>
         </is>
       </c>
       <c r="AB73" t="inlineStr">
@@ -9839,7 +9855,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>$138.61</t>
+          <t>$138.52</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
@@ -9848,30 +9864,30 @@
         </is>
       </c>
       <c r="J74" t="n">
-        <v>1.751</v>
+        <v>1.75</v>
       </c>
       <c r="K74" t="n">
-        <v>24.840502</v>
+        <v>24.82</v>
       </c>
       <c r="L74" t="n">
-        <v>14.808762</v>
+        <v>14.8</v>
       </c>
       <c r="M74" t="n">
-        <v>1.567685</v>
+        <v>1.57</v>
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>0.07%</t>
+          <t>7.30%</t>
         </is>
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>0.04%</t>
+          <t>4.21%</t>
         </is>
       </c>
       <c r="P74" t="inlineStr">
         <is>
-          <t>0.39%</t>
+          <t>39.25%</t>
         </is>
       </c>
       <c r="Q74" t="inlineStr">
@@ -9890,19 +9906,19 @@
         </is>
       </c>
       <c r="T74" t="n">
-        <v>10.501</v>
+        <v>10.5</v>
       </c>
       <c r="U74" t="n">
-        <v>1.918851138207737</v>
+        <v>1.92</v>
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>0.05%</t>
+          <t>4.70%</t>
         </is>
       </c>
       <c r="W74" t="inlineStr">
         <is>
-          <t>-0.03%</t>
+          <t>-2.90%</t>
         </is>
       </c>
       <c r="X74" t="inlineStr">
@@ -9920,7 +9936,7 @@
       </c>
       <c r="AA74" t="inlineStr">
         <is>
-          <t>$31,984,398,336.00</t>
+          <t>$31,963,631,616.00</t>
         </is>
       </c>
       <c r="AB74" t="inlineStr">
@@ -9967,7 +9983,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>$57.05</t>
+          <t>$56.91</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
@@ -9976,30 +9992,30 @@
         </is>
       </c>
       <c r="J75" t="n">
-        <v>0.768</v>
+        <v>0.77</v>
       </c>
       <c r="K75" t="n">
-        <v>51.85909</v>
+        <v>51.74</v>
       </c>
       <c r="L75" t="n">
-        <v>35.877357</v>
+        <v>35.79</v>
       </c>
       <c r="M75" t="n">
-        <v>1.3198445</v>
+        <v>1.32</v>
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>0.03%</t>
+          <t>2.51%</t>
         </is>
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>0.18%</t>
+          <t>18.10%</t>
         </is>
       </c>
       <c r="P75" t="inlineStr">
         <is>
-          <t>2.88%</t>
+          <t>287.59%</t>
         </is>
       </c>
       <c r="Q75" t="inlineStr">
@@ -10021,16 +10037,16 @@
         <v>16.24</v>
       </c>
       <c r="U75" t="n">
-        <v>5.643263078081802</v>
+        <v>5.64</v>
       </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>0.10%</t>
+          <t>10.00%</t>
         </is>
       </c>
       <c r="W75" t="inlineStr">
         <is>
-          <t>0.80%</t>
+          <t>80.30%</t>
         </is>
       </c>
       <c r="X75" t="inlineStr">
@@ -10048,7 +10064,7 @@
       </c>
       <c r="AA75" t="inlineStr">
         <is>
-          <t>$51,516,198,912.00</t>
+          <t>$51,394,281,472.00</t>
         </is>
       </c>
       <c r="AB75" t="inlineStr">
@@ -10095,7 +10111,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>$40.34</t>
+          <t>$40.35</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
@@ -10104,30 +10120,30 @@
         </is>
       </c>
       <c r="J76" t="n">
-        <v>0.659</v>
+        <v>0.66</v>
       </c>
       <c r="K76" t="n">
-        <v>24.904322</v>
+        <v>24.91</v>
       </c>
       <c r="L76" t="n">
-        <v>25.86218</v>
+        <v>25.87</v>
       </c>
       <c r="M76" t="n">
-        <v>2.3710036</v>
+        <v>2.37</v>
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>0.11%</t>
+          <t>10.65%</t>
         </is>
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>0.42%</t>
+          <t>42.23%</t>
         </is>
       </c>
       <c r="P76" t="inlineStr">
         <is>
-          <t>1.65%</t>
+          <t>165.43%</t>
         </is>
       </c>
       <c r="Q76" t="inlineStr">
@@ -10146,19 +10162,19 @@
         </is>
       </c>
       <c r="T76" t="n">
-        <v>16.149</v>
+        <v>16.15</v>
       </c>
       <c r="U76" t="n">
-        <v>4.978596530591215</v>
+        <v>4.98</v>
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>0.12%</t>
+          <t>11.80%</t>
         </is>
       </c>
       <c r="W76" t="inlineStr">
         <is>
-          <t>0.02%</t>
+          <t>1.80%</t>
         </is>
       </c>
       <c r="X76" t="inlineStr">
@@ -10176,7 +10192,7 @@
       </c>
       <c r="AA76" t="inlineStr">
         <is>
-          <t>$12,233,007,104.00</t>
+          <t>$12,234,522,624.00</t>
         </is>
       </c>
       <c r="AB76" t="inlineStr">
@@ -10223,7 +10239,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>$75.24</t>
+          <t>$75.23</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
@@ -10235,37 +10251,37 @@
         <v>0.99</v>
       </c>
       <c r="K77" t="n">
-        <v>14.666666</v>
+        <v>14.66</v>
       </c>
       <c r="L77" t="n">
-        <v>12.603015</v>
+        <v>12.6</v>
       </c>
       <c r="M77" t="n">
-        <v>2.1704888</v>
+        <v>2.17</v>
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>0.17%</t>
+          <t>16.77%</t>
         </is>
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>0.11%</t>
+          <t>11.06%</t>
         </is>
       </c>
       <c r="P77" t="inlineStr">
         <is>
-          <t>0.79%</t>
+          <t>78.75%</t>
         </is>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>$8,043,000,000.00</t>
+          <t>$7,887,000,000.00</t>
         </is>
       </c>
       <c r="R77" t="inlineStr">
         <is>
-          <t>$636,000,000.00</t>
+          <t>$841,000,000.00</t>
         </is>
       </c>
       <c r="S77" t="inlineStr">
@@ -10274,19 +10290,19 @@
         </is>
       </c>
       <c r="T77" t="n">
-        <v>11.708</v>
+        <v>11.71</v>
       </c>
       <c r="U77" t="n">
-        <v>4.744556511318844</v>
+        <v>4.74</v>
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>0.61%</t>
+          <t>61.20%</t>
         </is>
       </c>
       <c r="W77" t="inlineStr">
         <is>
-          <t>0.01%</t>
+          <t>0.80%</t>
         </is>
       </c>
       <c r="X77" t="inlineStr">
@@ -10304,7 +10320,7 @@
       </c>
       <c r="AA77" t="inlineStr">
         <is>
-          <t>$47,382,310,912.00</t>
+          <t>$47,376,019,456.00</t>
         </is>
       </c>
       <c r="AB77" t="inlineStr">
@@ -10351,7 +10367,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>$255.66</t>
+          <t>$256.43</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
@@ -10360,30 +10376,30 @@
         </is>
       </c>
       <c r="J78" t="n">
-        <v>1.431</v>
+        <v>1.43</v>
       </c>
       <c r="K78" t="n">
-        <v>58.772415</v>
+        <v>58.95</v>
       </c>
       <c r="L78" t="n">
-        <v>35.706707</v>
+        <v>35.81</v>
       </c>
       <c r="M78" t="n">
-        <v>35.089214</v>
+        <v>35.19</v>
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>0.82%</t>
+          <t>82.38%</t>
         </is>
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>0.22%</t>
+          <t>21.68%</t>
         </is>
       </c>
       <c r="P78" t="inlineStr">
         <is>
-          <t>0.39%</t>
+          <t>39.17%</t>
         </is>
       </c>
       <c r="Q78" t="inlineStr">
@@ -10402,19 +10418,19 @@
         </is>
       </c>
       <c r="T78" t="n">
-        <v>34.761</v>
+        <v>34.76</v>
       </c>
       <c r="U78" t="n">
-        <v>4.639019276018107</v>
+        <v>4.64</v>
       </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t>0.11%</t>
+          <t>11.30%</t>
         </is>
       </c>
       <c r="W78" t="inlineStr">
         <is>
-          <t>0.07%</t>
+          <t>7.30%</t>
         </is>
       </c>
       <c r="X78" t="inlineStr">
@@ -10432,7 +10448,7 @@
       </c>
       <c r="AA78" t="inlineStr">
         <is>
-          <t>$718,105,477,120.00</t>
+          <t>$720,268,230,656.00</t>
         </is>
       </c>
       <c r="AB78" t="inlineStr">
@@ -10479,7 +10495,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>$141.36</t>
+          <t>$140.80</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
@@ -10488,30 +10504,30 @@
         </is>
       </c>
       <c r="J79" t="n">
-        <v>0.457</v>
+        <v>0.46</v>
       </c>
       <c r="K79" t="n">
-        <v>25.748615</v>
+        <v>25.65</v>
       </c>
       <c r="L79" t="n">
-        <v>16.380056</v>
+        <v>16.32</v>
       </c>
       <c r="M79" t="n">
-        <v>10.51472</v>
+        <v>10.47</v>
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>0.40%</t>
+          <t>39.86%</t>
         </is>
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>0.08%</t>
+          <t>8.23%</t>
         </is>
       </c>
       <c r="P79" t="inlineStr">
         <is>
-          <t>1.00%</t>
+          <t>99.95%</t>
         </is>
       </c>
       <c r="Q79" t="inlineStr">
@@ -10533,16 +10549,16 @@
         <v>13.77</v>
       </c>
       <c r="U79" t="n">
-        <v>3.017618116309035</v>
+        <v>3.02</v>
       </c>
       <c r="V79" t="inlineStr">
         <is>
-          <t>0.01%</t>
+          <t>1.00%</t>
         </is>
       </c>
       <c r="W79" t="inlineStr">
         <is>
-          <t>-0.59%</t>
+          <t>-58.70%</t>
         </is>
       </c>
       <c r="X79" t="inlineStr">
@@ -10560,7 +10576,7 @@
       </c>
       <c r="AA79" t="inlineStr">
         <is>
-          <t>$193,533,018,112.00</t>
+          <t>$192,766,476,288.00</t>
         </is>
       </c>
       <c r="AB79" t="inlineStr">
@@ -10607,7 +10623,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>$153.19</t>
+          <t>$152.86</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
@@ -10616,30 +10632,30 @@
         </is>
       </c>
       <c r="J80" t="n">
-        <v>0.373</v>
+        <v>0.37</v>
       </c>
       <c r="K80" t="n">
-        <v>23.4954</v>
+        <v>23.44</v>
       </c>
       <c r="L80" t="n">
-        <v>20.645554</v>
+        <v>20.6</v>
       </c>
       <c r="M80" t="n">
-        <v>7.0023313</v>
+        <v>6.99</v>
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>0.31%</t>
+          <t>31.24%</t>
         </is>
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>0.19%</t>
+          <t>18.95%</t>
         </is>
       </c>
       <c r="P80" t="inlineStr">
         <is>
-          <t>0.63%</t>
+          <t>62.62%</t>
         </is>
       </c>
       <c r="Q80" t="inlineStr">
@@ -10658,19 +10674,19 @@
         </is>
       </c>
       <c r="T80" t="n">
-        <v>15.562</v>
+        <v>15.56</v>
       </c>
       <c r="U80" t="n">
-        <v>1.493600408276818</v>
+        <v>1.49</v>
       </c>
       <c r="V80" t="inlineStr">
         <is>
-          <t>0.02%</t>
+          <t>1.70%</t>
         </is>
       </c>
       <c r="W80" t="inlineStr">
         <is>
-          <t>0.17%</t>
+          <t>16.50%</t>
         </is>
       </c>
       <c r="X80" t="inlineStr">
@@ -10688,7 +10704,7 @@
       </c>
       <c r="AA80" t="inlineStr">
         <is>
-          <t>$358,827,687,936.00</t>
+          <t>$358,054,690,816.00</t>
         </is>
       </c>
       <c r="AB80" t="inlineStr">
@@ -10735,7 +10751,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>$105.81</t>
+          <t>$105.73</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
@@ -10744,30 +10760,30 @@
         </is>
       </c>
       <c r="J81" t="n">
-        <v>1.223</v>
+        <v>1.22</v>
       </c>
       <c r="K81" t="n">
-        <v>28.520214</v>
+        <v>28.5</v>
       </c>
       <c r="L81" t="n">
-        <v>30.059658</v>
+        <v>30.04</v>
       </c>
       <c r="M81" t="n">
-        <v>1.864559</v>
+        <v>1.86</v>
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>0.06%</t>
+          <t>6.37%</t>
         </is>
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>0.39%</t>
+          <t>38.69%</t>
         </is>
       </c>
       <c r="P81" t="inlineStr">
         <is>
-          <t>1.06%</t>
+          <t>106.20%</t>
         </is>
       </c>
       <c r="Q81" t="inlineStr">
@@ -10786,19 +10802,19 @@
         </is>
       </c>
       <c r="T81" t="n">
-        <v>21.809</v>
+        <v>21.81</v>
       </c>
       <c r="U81" t="n">
-        <v>5.569601788103498</v>
+        <v>5.57</v>
       </c>
       <c r="V81" t="inlineStr">
         <is>
-          <t>0.09%</t>
+          <t>8.60%</t>
         </is>
       </c>
       <c r="W81" t="inlineStr">
         <is>
-          <t>-0.34%</t>
+          <t>-34.00%</t>
         </is>
       </c>
       <c r="X81" t="inlineStr">
@@ -10816,7 +10832,7 @@
       </c>
       <c r="AA81" t="inlineStr">
         <is>
-          <t>$98,198,339,584.00</t>
+          <t>$98,124,103,680.00</t>
         </is>
       </c>
       <c r="AB81" t="inlineStr">
@@ -10863,7 +10879,7 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>$281.95</t>
+          <t>$281.42</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
@@ -10872,30 +10888,30 @@
         </is>
       </c>
       <c r="J82" t="n">
-        <v>0.848</v>
+        <v>0.85</v>
       </c>
       <c r="K82" t="n">
-        <v>30.78057</v>
+        <v>30.72</v>
       </c>
       <c r="L82" t="n">
-        <v>26.523989</v>
+        <v>26.47</v>
       </c>
       <c r="M82" t="n">
-        <v>9.849437999999999</v>
+        <v>9.83</v>
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>0.19%</t>
+          <t>18.92%</t>
         </is>
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>0.38%</t>
+          <t>38.06%</t>
         </is>
       </c>
       <c r="P82" t="inlineStr">
         <is>
-          <t>1.31%</t>
+          <t>130.86%</t>
         </is>
       </c>
       <c r="Q82" t="inlineStr">
@@ -10917,16 +10933,16 @@
         <v>18.86</v>
       </c>
       <c r="U82" t="n">
-        <v>3.113806534526071</v>
+        <v>3.11</v>
       </c>
       <c r="V82" t="inlineStr">
         <is>
-          <t>0.02%</t>
+          <t>1.60%</t>
         </is>
       </c>
       <c r="W82" t="inlineStr">
         <is>
-          <t>-0.34%</t>
+          <t>-33.80%</t>
         </is>
       </c>
       <c r="X82" t="inlineStr">
@@ -10944,7 +10960,7 @@
       </c>
       <c r="AA82" t="inlineStr">
         <is>
-          <t>$49,468,973,056.00</t>
+          <t>$49,375,981,568.00</t>
         </is>
       </c>
       <c r="AB82" t="inlineStr">
@@ -10991,7 +11007,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>$119.68</t>
+          <t>$119.84</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
@@ -11000,30 +11016,30 @@
         </is>
       </c>
       <c r="J83" t="n">
-        <v>1.064</v>
+        <v>1.06</v>
       </c>
       <c r="K83" t="n">
-        <v>28.427553</v>
+        <v>28.47</v>
       </c>
       <c r="L83" t="n">
-        <v>12.61117</v>
+        <v>12.63</v>
       </c>
       <c r="M83" t="n">
-        <v>1.7593273</v>
+        <v>1.76</v>
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>0.06%</t>
+          <t>6.18%</t>
         </is>
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>0.01%</t>
+          <t>1.29%</t>
         </is>
       </c>
       <c r="P83" t="inlineStr">
         <is>
-          <t>1.10%</t>
+          <t>110.45%</t>
         </is>
       </c>
       <c r="Q83" t="inlineStr">
@@ -11042,19 +11058,19 @@
         </is>
       </c>
       <c r="T83" t="n">
-        <v>18.436</v>
+        <v>18.44</v>
       </c>
       <c r="U83" t="n">
-        <v>5.4861111278826</v>
+        <v>5.49</v>
       </c>
       <c r="V83" t="inlineStr">
         <is>
-          <t>-0.13%</t>
+          <t>-12.60%</t>
         </is>
       </c>
       <c r="W83" t="inlineStr">
         <is>
-          <t>-0.10%</t>
+          <t>-9.80%</t>
         </is>
       </c>
       <c r="X83" t="inlineStr">
@@ -11072,7 +11088,7 @@
       </c>
       <c r="AA83" t="inlineStr">
         <is>
-          <t>$48,365,559,808.00</t>
+          <t>$48,430,219,264.00</t>
         </is>
       </c>
       <c r="AB83" t="inlineStr">
@@ -11119,7 +11135,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>$40.35</t>
+          <t>$40.52</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
@@ -11128,16 +11144,16 @@
         </is>
       </c>
       <c r="J84" t="n">
-        <v>1.122</v>
+        <v>1.12</v>
       </c>
       <c r="K84" t="n">
-        <v>17.025316</v>
+        <v>17.1</v>
       </c>
       <c r="L84" t="n">
-        <v>16.536884</v>
+        <v>16.61</v>
       </c>
       <c r="M84" t="n">
-        <v>-3.0572813</v>
+        <v>-3.07</v>
       </c>
       <c r="N84" t="inlineStr">
         <is>
@@ -11146,12 +11162,12 @@
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>0.04%</t>
+          <t>3.78%</t>
         </is>
       </c>
       <c r="P84" t="inlineStr">
         <is>
-          <t>0.78%</t>
+          <t>77.64%</t>
         </is>
       </c>
       <c r="Q84" t="inlineStr">
@@ -11170,19 +11186,19 @@
         </is>
       </c>
       <c r="T84" t="n">
-        <v>9.129</v>
+        <v>9.130000000000001</v>
       </c>
       <c r="U84" t="n">
-        <v>3.95590856187506</v>
+        <v>3.96</v>
       </c>
       <c r="V84" t="inlineStr">
         <is>
-          <t>0.01%</t>
+          <t>0.90%</t>
         </is>
       </c>
       <c r="W84" t="inlineStr">
         <is>
-          <t>-0.39%</t>
+          <t>-38.60%</t>
         </is>
       </c>
       <c r="X84" t="inlineStr">
@@ -11200,7 +11216,7 @@
       </c>
       <c r="AA84" t="inlineStr">
         <is>
-          <t>$1,320,994,432.00</t>
+          <t>$1,326,560,000.00</t>
         </is>
       </c>
       <c r="AB84" t="inlineStr">
@@ -11247,7 +11263,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>$146.20</t>
+          <t>$145.84</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -11256,30 +11272,30 @@
         </is>
       </c>
       <c r="J85" t="n">
-        <v>1.228</v>
+        <v>1.23</v>
       </c>
       <c r="K85" t="n">
-        <v>14.111969</v>
+        <v>14.08</v>
       </c>
       <c r="L85" t="n">
-        <v>11.954211</v>
+        <v>11.92</v>
       </c>
       <c r="M85" t="n">
-        <v>5.824469</v>
+        <v>5.81</v>
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>0.45%</t>
+          <t>44.62%</t>
         </is>
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>0.27%</t>
+          <t>26.77%</t>
         </is>
       </c>
       <c r="P85" t="inlineStr">
         <is>
-          <t>0.33%</t>
+          <t>33.20%</t>
         </is>
       </c>
       <c r="Q85" t="inlineStr">
@@ -11298,19 +11314,19 @@
         </is>
       </c>
       <c r="T85" t="n">
-        <v>11.757</v>
+        <v>11.76</v>
       </c>
       <c r="U85" t="n">
-        <v>1.066109164560371</v>
+        <v>1.07</v>
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>0.10%</t>
+          <t>10.30%</t>
         </is>
       </c>
       <c r="W85" t="inlineStr">
         <is>
-          <t>0.29%</t>
+          <t>29.40%</t>
         </is>
       </c>
       <c r="X85" t="inlineStr">
@@ -11328,7 +11344,7 @@
       </c>
       <c r="AA85" t="inlineStr">
         <is>
-          <t>$157,749,805,056.00</t>
+          <t>$157,361,373,184.00</t>
         </is>
       </c>
       <c r="AB85" t="inlineStr">
@@ -11375,7 +11391,7 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>$73.34</t>
+          <t>$73.20</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
@@ -11384,30 +11400,30 @@
         </is>
       </c>
       <c r="J86" t="n">
-        <v>1.058</v>
+        <v>1.06</v>
       </c>
       <c r="K86" t="n">
-        <v>34.273365</v>
+        <v>34.21</v>
       </c>
       <c r="L86" t="n">
-        <v>34.926193</v>
+        <v>34.86</v>
       </c>
       <c r="M86" t="n">
-        <v>2.0579982</v>
+        <v>2.05</v>
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>0.06%</t>
+          <t>5.97%</t>
         </is>
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>0.26%</t>
+          <t>26.07%</t>
         </is>
       </c>
       <c r="P86" t="inlineStr">
         <is>
-          <t>1.30%</t>
+          <t>130.14%</t>
         </is>
       </c>
       <c r="Q86" t="inlineStr">
@@ -11426,19 +11442,19 @@
         </is>
       </c>
       <c r="T86" t="n">
-        <v>19.034</v>
+        <v>19.03</v>
       </c>
       <c r="U86" t="n">
-        <v>5.147540645301508</v>
+        <v>5.15</v>
       </c>
       <c r="V86" t="inlineStr">
         <is>
-          <t>0.07%</t>
+          <t>6.80%</t>
         </is>
       </c>
       <c r="W86" t="inlineStr">
         <is>
-          <t>0.04%</t>
+          <t>3.70%</t>
         </is>
       </c>
       <c r="X86" t="inlineStr">
@@ -11456,7 +11472,7 @@
       </c>
       <c r="AA86" t="inlineStr">
         <is>
-          <t>$13,396,464,640.00</t>
+          <t>$13,369,979,904.00</t>
         </is>
       </c>
       <c r="AB86" t="inlineStr">
@@ -11503,7 +11519,7 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>$21.41</t>
+          <t>$21.37</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
@@ -11512,30 +11528,30 @@
         </is>
       </c>
       <c r="J87" t="n">
-        <v>0.464</v>
+        <v>0.46</v>
       </c>
       <c r="K87" t="n">
-        <v>16.722656</v>
+        <v>16.7</v>
       </c>
       <c r="L87" t="n">
-        <v>17.545082</v>
+        <v>17.52</v>
       </c>
       <c r="M87" t="n">
-        <v>1.8728673</v>
+        <v>1.87</v>
       </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t>0.12%</t>
+          <t>11.60%</t>
         </is>
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>0.15%</t>
+          <t>14.50%</t>
         </is>
       </c>
       <c r="P87" t="inlineStr">
         <is>
-          <t>0.63%</t>
+          <t>63.09%</t>
         </is>
       </c>
       <c r="Q87" t="inlineStr">
@@ -11554,19 +11570,19 @@
         </is>
       </c>
       <c r="T87" t="n">
-        <v>11.811</v>
+        <v>11.81</v>
       </c>
       <c r="U87" t="n">
-        <v>4.715540062658653</v>
+        <v>4.72</v>
       </c>
       <c r="V87" t="inlineStr">
         <is>
-          <t>0.12%</t>
+          <t>11.60%</t>
         </is>
       </c>
       <c r="W87" t="inlineStr">
         <is>
-          <t>0.17%</t>
+          <t>17.50%</t>
         </is>
       </c>
       <c r="X87" t="inlineStr">
@@ -11584,7 +11600,7 @@
       </c>
       <c r="AA87" t="inlineStr">
         <is>
-          <t>$220,719,808.00</t>
+          <t>$220,358,896.00</t>
         </is>
       </c>
       <c r="AB87" t="inlineStr">
@@ -11631,7 +11647,7 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>$55.36</t>
+          <t>$55.43</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
@@ -11640,28 +11656,32 @@
         </is>
       </c>
       <c r="J88" t="n">
-        <v>1.675</v>
-      </c>
-      <c r="K88" t="inlineStr"/>
+        <v>1.68</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
       <c r="L88" t="n">
-        <v>-24.604445</v>
+        <v>-24.64</v>
       </c>
       <c r="M88" t="n">
-        <v>1.1015162</v>
+        <v>1.1</v>
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>-0.00%</t>
+          <t>-0.43%</t>
         </is>
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>-0.02%</t>
+          <t>-1.95%</t>
         </is>
       </c>
       <c r="P88" t="inlineStr">
         <is>
-          <t>37.59%</t>
+          <t>3759.38%</t>
         </is>
       </c>
       <c r="Q88" t="inlineStr">
@@ -11680,14 +11700,14 @@
         </is>
       </c>
       <c r="T88" t="n">
-        <v>61.902</v>
+        <v>61.9</v>
       </c>
       <c r="U88" t="n">
-        <v>31.32600443965964</v>
+        <v>31.33</v>
       </c>
       <c r="V88" t="inlineStr">
         <is>
-          <t>-0.04%</t>
+          <t>-3.50%</t>
         </is>
       </c>
       <c r="W88" t="inlineStr">
@@ -11710,7 +11730,7 @@
       </c>
       <c r="AA88" t="inlineStr">
         <is>
-          <t>$4,200,561,920.00</t>
+          <t>$4,205,873,152.00</t>
         </is>
       </c>
       <c r="AB88" t="inlineStr">
@@ -11757,7 +11777,7 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>$94.81</t>
+          <t>$94.68</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
@@ -11766,30 +11786,30 @@
         </is>
       </c>
       <c r="J89" t="n">
-        <v>0.358</v>
+        <v>0.36</v>
       </c>
       <c r="K89" t="n">
-        <v>24.498709</v>
+        <v>24.47</v>
       </c>
       <c r="L89" t="n">
-        <v>21.946758</v>
+        <v>21.92</v>
       </c>
       <c r="M89" t="n">
-        <v>3.0663002</v>
+        <v>3.06</v>
       </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t>0.11%</t>
+          <t>11.23%</t>
         </is>
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>0.15%</t>
+          <t>15.10%</t>
         </is>
       </c>
       <c r="P89" t="inlineStr">
         <is>
-          <t>0.75%</t>
+          <t>74.94%</t>
         </is>
       </c>
       <c r="Q89" t="inlineStr">
@@ -11808,19 +11828,19 @@
         </is>
       </c>
       <c r="T89" t="n">
-        <v>13.224</v>
+        <v>13.22</v>
       </c>
       <c r="U89" t="n">
-        <v>5.299611111396322</v>
+        <v>5.3</v>
       </c>
       <c r="V89" t="inlineStr">
         <is>
-          <t>0.08%</t>
+          <t>7.90%</t>
         </is>
       </c>
       <c r="W89" t="inlineStr">
         <is>
-          <t>-0.28%</t>
+          <t>-27.50%</t>
         </is>
       </c>
       <c r="X89" t="inlineStr">
@@ -11838,7 +11858,7 @@
       </c>
       <c r="AA89" t="inlineStr">
         <is>
-          <t>$104,295,743,488.00</t>
+          <t>$104,152,735,744.00</t>
         </is>
       </c>
       <c r="AB89" t="inlineStr">
@@ -11885,7 +11905,7 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>$167.63</t>
+          <t>$167.53</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
@@ -11894,30 +11914,30 @@
         </is>
       </c>
       <c r="J90" t="n">
-        <v>1.516</v>
+        <v>1.52</v>
       </c>
       <c r="K90" t="n">
-        <v>25.908812</v>
+        <v>25.89</v>
       </c>
       <c r="L90" t="n">
-        <v>24.724188</v>
+        <v>24.71</v>
       </c>
       <c r="M90" t="n">
-        <v>22.701788</v>
+        <v>22.69</v>
       </c>
       <c r="N90" t="inlineStr">
         <is>
-          <t>0.73%</t>
+          <t>73.08%</t>
         </is>
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>0.35%</t>
+          <t>35.03%</t>
         </is>
       </c>
       <c r="P90" t="inlineStr">
         <is>
-          <t>1.29%</t>
+          <t>129.06%</t>
         </is>
       </c>
       <c r="Q90" t="inlineStr">
@@ -11936,19 +11956,19 @@
         </is>
       </c>
       <c r="T90" t="n">
-        <v>18.082</v>
+        <v>18.08</v>
       </c>
       <c r="U90" t="n">
-        <v>5.811092213936931</v>
+        <v>5.81</v>
       </c>
       <c r="V90" t="inlineStr">
         <is>
-          <t>0.03%</t>
+          <t>2.60%</t>
         </is>
       </c>
       <c r="W90" t="inlineStr">
         <is>
-          <t>0.13%</t>
+          <t>12.60%</t>
         </is>
       </c>
       <c r="X90" t="inlineStr">
@@ -11966,7 +11986,7 @@
       </c>
       <c r="AA90" t="inlineStr">
         <is>
-          <t>$63,231,213,568.00</t>
+          <t>$63,193,489,408.00</t>
         </is>
       </c>
       <c r="AB90" t="inlineStr">
@@ -12013,7 +12033,7 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>$34.66</t>
+          <t>$34.70</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
@@ -12022,30 +12042,30 @@
         </is>
       </c>
       <c r="J91" t="n">
-        <v>0.907</v>
+        <v>0.91</v>
       </c>
       <c r="K91" t="n">
-        <v>27.291338</v>
+        <v>27.32</v>
       </c>
       <c r="L91" t="n">
-        <v>39.386364</v>
+        <v>39.43</v>
       </c>
       <c r="M91" t="n">
-        <v>1.8783872</v>
+        <v>1.88</v>
       </c>
       <c r="N91" t="inlineStr">
         <is>
-          <t>0.07%</t>
+          <t>6.90%</t>
         </is>
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>0.29%</t>
+          <t>29.16%</t>
         </is>
       </c>
       <c r="P91" t="inlineStr">
         <is>
-          <t>1.17%</t>
+          <t>116.93%</t>
         </is>
       </c>
       <c r="Q91" t="inlineStr">
@@ -12064,19 +12084,19 @@
         </is>
       </c>
       <c r="T91" t="n">
-        <v>16.521</v>
+        <v>16.52</v>
       </c>
       <c r="U91" t="n">
-        <v>5.253404366681784</v>
+        <v>5.25</v>
       </c>
       <c r="V91" t="inlineStr">
         <is>
-          <t>0.09%</t>
+          <t>9.40%</t>
         </is>
       </c>
       <c r="W91" t="inlineStr">
         <is>
-          <t>-0.18%</t>
+          <t>-18.40%</t>
         </is>
       </c>
       <c r="X91" t="inlineStr">
@@ -12094,7 +12114,7 @@
       </c>
       <c r="AA91" t="inlineStr">
         <is>
-          <t>$6,609,523,200.00</t>
+          <t>$6,617,151,488.00</t>
         </is>
       </c>
       <c r="AB91" t="inlineStr">
@@ -12141,7 +12161,7 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>$27.48</t>
+          <t>$27.49</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
@@ -12150,30 +12170,30 @@
         </is>
       </c>
       <c r="J92" t="n">
-        <v>0.622</v>
+        <v>0.62</v>
       </c>
       <c r="K92" t="n">
-        <v>15.705714</v>
+        <v>15.71</v>
       </c>
       <c r="L92" t="n">
-        <v>12.270089</v>
+        <v>12.27</v>
       </c>
       <c r="M92" t="n">
-        <v>1.869728</v>
+        <v>1.87</v>
       </c>
       <c r="N92" t="inlineStr">
         <is>
-          <t>0.12%</t>
+          <t>11.53%</t>
         </is>
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>0.10%</t>
+          <t>10.29%</t>
         </is>
       </c>
       <c r="P92" t="inlineStr">
         <is>
-          <t>0.63%</t>
+          <t>63.43%</t>
         </is>
       </c>
       <c r="Q92" t="inlineStr">
@@ -12192,19 +12212,19 @@
         </is>
       </c>
       <c r="T92" t="n">
-        <v>8.029</v>
+        <v>8.029999999999999</v>
       </c>
       <c r="U92" t="n">
-        <v>3.406984822919679</v>
+        <v>3.41</v>
       </c>
       <c r="V92" t="inlineStr">
         <is>
-          <t>0.04%</t>
+          <t>3.50%</t>
         </is>
       </c>
       <c r="W92" t="inlineStr">
         <is>
-          <t>0.26%</t>
+          <t>26.30%</t>
         </is>
       </c>
       <c r="X92" t="inlineStr">
@@ -12222,7 +12242,7 @@
       </c>
       <c r="AA92" t="inlineStr">
         <is>
-          <t>$196,528,472,064.00</t>
+          <t>$196,564,205,568.00</t>
         </is>
       </c>
       <c r="AB92" t="inlineStr">
@@ -12269,7 +12289,7 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>$105.43</t>
+          <t>$105.42</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
@@ -12281,27 +12301,27 @@
         <v>1.49</v>
       </c>
       <c r="K93" t="n">
-        <v>11.806271</v>
+        <v>11.81</v>
       </c>
       <c r="L93" t="n">
-        <v>11.275935</v>
+        <v>11.27</v>
       </c>
       <c r="M93" t="n">
-        <v>2.1953607</v>
+        <v>2.2</v>
       </c>
       <c r="N93" t="inlineStr">
         <is>
-          <t>0.19%</t>
+          <t>18.72%</t>
         </is>
       </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t>0.29%</t>
+          <t>28.72%</t>
         </is>
       </c>
       <c r="P93" t="inlineStr">
         <is>
-          <t>0.56%</t>
+          <t>56.22%</t>
         </is>
       </c>
       <c r="Q93" t="inlineStr">
@@ -12320,19 +12340,19 @@
         </is>
       </c>
       <c r="T93" t="n">
-        <v>7.985</v>
+        <v>7.99</v>
       </c>
       <c r="U93" t="n">
-        <v>0.1899282737621943</v>
+        <v>0.19</v>
       </c>
       <c r="V93" t="inlineStr">
         <is>
-          <t>-0.01%</t>
+          <t>-0.60%</t>
         </is>
       </c>
       <c r="W93" t="inlineStr">
         <is>
-          <t>0.06%</t>
+          <t>6.10%</t>
         </is>
       </c>
       <c r="X93" t="inlineStr">
@@ -12350,7 +12370,7 @@
       </c>
       <c r="AA93" t="inlineStr">
         <is>
-          <t>$23,164,553,216.00</t>
+          <t>$23,162,355,712.00</t>
         </is>
       </c>
       <c r="AB93" t="inlineStr">
@@ -12397,7 +12417,7 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>$60.27</t>
+          <t>$60.20</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
@@ -12406,30 +12426,30 @@
         </is>
       </c>
       <c r="J94" t="n">
-        <v>0.715</v>
+        <v>0.71</v>
       </c>
       <c r="K94" t="n">
-        <v>10.918478</v>
+        <v>10.91</v>
       </c>
       <c r="L94" t="n">
-        <v>7.4132843</v>
+        <v>7.4</v>
       </c>
       <c r="M94" t="n">
-        <v>1.1384372</v>
+        <v>1.14</v>
       </c>
       <c r="N94" t="inlineStr">
         <is>
-          <t>0.11%</t>
+          <t>10.92%</t>
         </is>
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>0.07%</t>
+          <t>6.83%</t>
         </is>
       </c>
       <c r="P94" t="inlineStr">
         <is>
-          <t>0.64%</t>
+          <t>64.14%</t>
         </is>
       </c>
       <c r="Q94" t="inlineStr">
@@ -12448,19 +12468,19 @@
         </is>
       </c>
       <c r="T94" t="n">
-        <v>4.868</v>
+        <v>4.87</v>
       </c>
       <c r="U94" t="n">
-        <v>1.778811726874659</v>
+        <v>1.78</v>
       </c>
       <c r="V94" t="inlineStr">
         <is>
-          <t>-0.09%</t>
+          <t>-9.20%</t>
         </is>
       </c>
       <c r="W94" t="inlineStr">
         <is>
-          <t>-0.27%</t>
+          <t>-26.90%</t>
         </is>
       </c>
       <c r="X94" t="inlineStr">
@@ -12478,7 +12498,7 @@
       </c>
       <c r="AA94" t="inlineStr">
         <is>
-          <t>$132,305,305,600.00</t>
+          <t>$132,151,640,064.00</t>
         </is>
       </c>
       <c r="AB94" t="inlineStr">
@@ -12525,7 +12545,7 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>$60.83</t>
+          <t>$60.81</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
@@ -12534,30 +12554,30 @@
         </is>
       </c>
       <c r="J95" t="n">
-        <v>0.205</v>
+        <v>0.2</v>
       </c>
       <c r="K95" t="n">
-        <v>23.396156</v>
+        <v>23.39</v>
       </c>
       <c r="L95" t="n">
-        <v>17.380001</v>
+        <v>17.37</v>
       </c>
       <c r="M95" t="n">
-        <v>8.381097</v>
+        <v>8.380000000000001</v>
       </c>
       <c r="N95" t="inlineStr">
         <is>
-          <t>0.29%</t>
+          <t>28.70%</t>
         </is>
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>0.09%</t>
+          <t>9.29%</t>
         </is>
       </c>
       <c r="P95" t="inlineStr">
         <is>
-          <t>0.80%</t>
+          <t>79.87%</t>
         </is>
       </c>
       <c r="Q95" t="inlineStr">
@@ -12576,19 +12596,19 @@
         </is>
       </c>
       <c r="T95" t="n">
-        <v>14.755</v>
+        <v>14.76</v>
       </c>
       <c r="U95" t="n">
-        <v>2.681487043823565</v>
+        <v>2.68</v>
       </c>
       <c r="V95" t="inlineStr">
         <is>
-          <t>-0.03%</t>
+          <t>-3.20%</t>
         </is>
       </c>
       <c r="W95" t="inlineStr">
         <is>
-          <t>-0.03%</t>
+          <t>-3.40%</t>
         </is>
       </c>
       <c r="X95" t="inlineStr">
@@ -12606,7 +12626,7 @@
       </c>
       <c r="AA95" t="inlineStr">
         <is>
-          <t>$149,145,436,160.00</t>
+          <t>$149,096,398,848.00</t>
         </is>
       </c>
       <c r="AB95" t="inlineStr">
@@ -12653,7 +12673,7 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>$225.66</t>
+          <t>$225.46</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
@@ -12662,30 +12682,30 @@
         </is>
       </c>
       <c r="J96" t="n">
-        <v>1.054</v>
+        <v>1.05</v>
       </c>
       <c r="K96" t="n">
-        <v>19.60556</v>
+        <v>19.59</v>
       </c>
       <c r="L96" t="n">
-        <v>18.634188</v>
+        <v>18.62</v>
       </c>
       <c r="M96" t="n">
-        <v>8.23096</v>
+        <v>8.220000000000001</v>
       </c>
       <c r="N96" t="inlineStr">
         <is>
-          <t>0.42%</t>
+          <t>42.35%</t>
         </is>
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t>0.28%</t>
+          <t>28.43%</t>
         </is>
       </c>
       <c r="P96" t="inlineStr">
         <is>
-          <t>0.47%</t>
+          <t>46.57%</t>
         </is>
       </c>
       <c r="Q96" t="inlineStr">
@@ -12704,19 +12724,19 @@
         </is>
       </c>
       <c r="T96" t="n">
-        <v>13.352</v>
+        <v>13.35</v>
       </c>
       <c r="U96" t="n">
-        <v>2.745916172773955</v>
+        <v>2.75</v>
       </c>
       <c r="V96" t="inlineStr">
         <is>
-          <t>0.02%</t>
+          <t>2.40%</t>
         </is>
       </c>
       <c r="W96" t="inlineStr">
         <is>
-          <t>0.15%</t>
+          <t>15.00%</t>
         </is>
       </c>
       <c r="X96" t="inlineStr">
@@ -12734,7 +12754,7 @@
       </c>
       <c r="AA96" t="inlineStr">
         <is>
-          <t>$133,825,404,928.00</t>
+          <t>$133,706,801,152.00</t>
         </is>
       </c>
       <c r="AB96" t="inlineStr">
@@ -12781,7 +12801,7 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>$86.23</t>
+          <t>$86.25</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
@@ -12790,30 +12810,30 @@
         </is>
       </c>
       <c r="J97" t="n">
-        <v>1.097</v>
+        <v>1.1</v>
       </c>
       <c r="K97" t="n">
-        <v>12.83259</v>
+        <v>12.83</v>
       </c>
       <c r="L97" t="n">
-        <v>9.788308000000001</v>
+        <v>9.789999999999999</v>
       </c>
       <c r="M97" t="n">
-        <v>4.637537</v>
+        <v>4.64</v>
       </c>
       <c r="N97" t="inlineStr">
         <is>
-          <t>0.35%</t>
+          <t>34.91%</t>
         </is>
       </c>
       <c r="O97" t="inlineStr">
         <is>
-          <t>0.06%</t>
+          <t>6.35%</t>
         </is>
       </c>
       <c r="P97" t="inlineStr">
         <is>
-          <t>0.97%</t>
+          <t>97.32%</t>
         </is>
       </c>
       <c r="Q97" t="inlineStr">
@@ -12832,19 +12852,19 @@
         </is>
       </c>
       <c r="T97" t="n">
-        <v>8.321</v>
+        <v>8.32</v>
       </c>
       <c r="U97" t="n">
-        <v>2.501860658018571</v>
+        <v>2.5</v>
       </c>
       <c r="V97" t="inlineStr">
         <is>
-          <t>-0.03%</t>
+          <t>-2.70%</t>
         </is>
       </c>
       <c r="W97" t="inlineStr">
         <is>
-          <t>-0.08%</t>
+          <t>-8.30%</t>
         </is>
       </c>
       <c r="X97" t="inlineStr">
@@ -12862,7 +12882,7 @@
       </c>
       <c r="AA97" t="inlineStr">
         <is>
-          <t>$73,023,627,264.00</t>
+          <t>$73,036,324,864.00</t>
         </is>
       </c>
       <c r="AB97" t="inlineStr">
@@ -12918,30 +12938,30 @@
         </is>
       </c>
       <c r="J98" t="n">
-        <v>0.709</v>
+        <v>0.71</v>
       </c>
       <c r="K98" t="n">
-        <v>12.645595</v>
+        <v>12.65</v>
       </c>
       <c r="L98" t="n">
-        <v>12.089744</v>
+        <v>12.09</v>
       </c>
       <c r="M98" t="n">
-        <v>1.2905686</v>
+        <v>1.29</v>
       </c>
       <c r="N98" t="inlineStr">
         <is>
-          <t>0.10%</t>
+          <t>10.45%</t>
         </is>
       </c>
       <c r="O98" t="inlineStr">
         <is>
-          <t>0.70%</t>
+          <t>70.20%</t>
         </is>
       </c>
       <c r="P98" t="inlineStr">
         <is>
-          <t>0.66%</t>
+          <t>66.28%</t>
         </is>
       </c>
       <c r="Q98" t="inlineStr">
@@ -12960,19 +12980,19 @@
         </is>
       </c>
       <c r="T98" t="n">
-        <v>14.788</v>
+        <v>14.79</v>
       </c>
       <c r="U98" t="n">
-        <v>4.90589170115723</v>
+        <v>4.91</v>
       </c>
       <c r="V98" t="inlineStr">
         <is>
-          <t>0.05%</t>
+          <t>4.60%</t>
         </is>
       </c>
       <c r="W98" t="inlineStr">
         <is>
-          <t>0.15%</t>
+          <t>15.40%</t>
         </is>
       </c>
       <c r="X98" t="inlineStr">
@@ -12990,7 +13010,7 @@
       </c>
       <c r="AA98" t="inlineStr">
         <is>
-          <t>$35,195,543,552.00</t>
+          <t>$35,200,872,448.00</t>
         </is>
       </c>
       <c r="AB98" t="inlineStr">
@@ -13037,7 +13057,7 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>$68.61</t>
+          <t>$68.50</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
@@ -13046,30 +13066,30 @@
         </is>
       </c>
       <c r="J99" t="n">
-        <v>0.893</v>
+        <v>0.89</v>
       </c>
       <c r="K99" t="n">
-        <v>159.55814</v>
+        <v>159.3</v>
       </c>
       <c r="L99" t="n">
-        <v>428.8125</v>
+        <v>428.12</v>
       </c>
       <c r="M99" t="n">
-        <v>2.7015002</v>
+        <v>2.7</v>
       </c>
       <c r="N99" t="inlineStr">
         <is>
-          <t>0.02%</t>
+          <t>1.82%</t>
         </is>
       </c>
       <c r="O99" t="inlineStr">
         <is>
-          <t>0.04%</t>
+          <t>3.62%</t>
         </is>
       </c>
       <c r="P99" t="inlineStr">
         <is>
-          <t>4.33%</t>
+          <t>432.56%</t>
         </is>
       </c>
       <c r="Q99" t="inlineStr">
@@ -13088,19 +13108,19 @@
         </is>
       </c>
       <c r="T99" t="n">
-        <v>21.943</v>
+        <v>21.94</v>
       </c>
       <c r="U99" t="n">
-        <v>6.579668956814749</v>
+        <v>6.58</v>
       </c>
       <c r="V99" t="inlineStr">
         <is>
-          <t>0.18%</t>
+          <t>18.40%</t>
         </is>
       </c>
       <c r="W99" t="inlineStr">
         <is>
-          <t>2.16%</t>
+          <t>215.80%</t>
         </is>
       </c>
       <c r="X99" t="inlineStr">
@@ -13118,7 +13138,7 @@
       </c>
       <c r="AA99" t="inlineStr">
         <is>
-          <t>$31,181,256,704.00</t>
+          <t>$31,131,265,024.00</t>
         </is>
       </c>
       <c r="AB99" t="inlineStr">
@@ -13174,30 +13194,30 @@
         </is>
       </c>
       <c r="J100" t="n">
-        <v>0.362</v>
+        <v>0.36</v>
       </c>
       <c r="K100" t="n">
-        <v>9.849999</v>
+        <v>9.85</v>
       </c>
       <c r="L100" t="n">
-        <v>8.954545</v>
+        <v>8.949999999999999</v>
       </c>
       <c r="M100" t="n">
-        <v>1.732736</v>
+        <v>1.73</v>
       </c>
       <c r="N100" t="inlineStr">
         <is>
-          <t>0.18%</t>
+          <t>18.45%</t>
         </is>
       </c>
       <c r="O100" t="inlineStr">
         <is>
-          <t>0.13%</t>
+          <t>13.28%</t>
         </is>
       </c>
       <c r="P100" t="inlineStr">
         <is>
-          <t>0.63%</t>
+          <t>63.02%</t>
         </is>
       </c>
       <c r="Q100" t="inlineStr">
@@ -13216,19 +13236,19 @@
         </is>
       </c>
       <c r="T100" t="n">
-        <v>7.061</v>
+        <v>7.06</v>
       </c>
       <c r="U100" t="n">
-        <v>3.500630848146121</v>
+        <v>3.5</v>
       </c>
       <c r="V100" t="inlineStr">
         <is>
-          <t>0.05%</t>
+          <t>5.20%</t>
         </is>
       </c>
       <c r="W100" t="inlineStr">
         <is>
-          <t>0.08%</t>
+          <t>8.30%</t>
         </is>
       </c>
       <c r="X100" t="inlineStr">
@@ -13246,7 +13266,7 @@
       </c>
       <c r="AA100" t="inlineStr">
         <is>
-          <t>$178,582,224,896.00</t>
+          <t>$178,561,138,688.00</t>
         </is>
       </c>
       <c r="AB100" t="inlineStr">
@@ -13293,7 +13313,7 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>$109.88</t>
+          <t>$109.73</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
@@ -13302,30 +13322,30 @@
         </is>
       </c>
       <c r="J101" t="n">
-        <v>0.406</v>
+        <v>0.41</v>
       </c>
       <c r="K101" t="n">
-        <v>21.08925</v>
+        <v>21.06</v>
       </c>
       <c r="L101" t="n">
-        <v>21.048851</v>
+        <v>21.02</v>
       </c>
       <c r="M101" t="n">
-        <v>2.674464</v>
+        <v>2.67</v>
       </c>
       <c r="N101" t="inlineStr">
         <is>
-          <t>0.13%</t>
+          <t>12.73%</t>
         </is>
       </c>
       <c r="O101" t="inlineStr">
         <is>
-          <t>0.18%</t>
+          <t>17.87%</t>
         </is>
       </c>
       <c r="P101" t="inlineStr">
         <is>
-          <t>0.66%</t>
+          <t>66.31%</t>
         </is>
       </c>
       <c r="Q101" t="inlineStr">
@@ -13344,19 +13364,19 @@
         </is>
       </c>
       <c r="T101" t="n">
-        <v>15.366</v>
+        <v>15.37</v>
       </c>
       <c r="U101" t="n">
-        <v>5.602806596959334</v>
+        <v>5.6</v>
       </c>
       <c r="V101" t="inlineStr">
         <is>
-          <t>0.13%</t>
+          <t>13.40%</t>
         </is>
       </c>
       <c r="W101" t="inlineStr">
         <is>
-          <t>0.14%</t>
+          <t>13.60%</t>
         </is>
       </c>
       <c r="X101" t="inlineStr">
@@ -13374,7 +13394,7 @@
       </c>
       <c r="AA101" t="inlineStr">
         <is>
-          <t>$35,365,023,744.00</t>
+          <t>$35,318,353,920.00</t>
         </is>
       </c>
       <c r="AB101" t="inlineStr">
@@ -13421,7 +13441,7 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>$169.34</t>
+          <t>$168.96</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
@@ -13430,30 +13450,30 @@
         </is>
       </c>
       <c r="J102" t="n">
-        <v>0.915</v>
+        <v>0.92</v>
       </c>
       <c r="K102" t="n">
-        <v>95.134834</v>
+        <v>94.92</v>
       </c>
       <c r="L102" t="n">
-        <v>93.04395</v>
+        <v>92.84</v>
       </c>
       <c r="M102" t="n">
-        <v>3.13732</v>
+        <v>3.13</v>
       </c>
       <c r="N102" t="inlineStr">
         <is>
-          <t>0.03%</t>
+          <t>3.45%</t>
         </is>
       </c>
       <c r="O102" t="inlineStr">
         <is>
-          <t>0.12%</t>
+          <t>12.18%</t>
         </is>
       </c>
       <c r="P102" t="inlineStr">
         <is>
-          <t>1.50%</t>
+          <t>149.72%</t>
         </is>
       </c>
       <c r="Q102" t="inlineStr">
@@ -13472,19 +13492,19 @@
         </is>
       </c>
       <c r="T102" t="n">
-        <v>36.611</v>
+        <v>36.61</v>
       </c>
       <c r="U102" t="n">
-        <v>4.987749176283001</v>
+        <v>4.99</v>
       </c>
       <c r="V102" t="inlineStr">
         <is>
-          <t>0.40%</t>
+          <t>39.60%</t>
         </is>
       </c>
       <c r="W102" t="inlineStr">
         <is>
-          <t>0.07%</t>
+          <t>7.40%</t>
         </is>
       </c>
       <c r="X102" t="inlineStr">
@@ -13502,7 +13522,7 @@
       </c>
       <c r="AA102" t="inlineStr">
         <is>
-          <t>$113,258,987,520.00</t>
+          <t>$113,004,838,912.00</t>
         </is>
       </c>
       <c r="AB102" t="inlineStr">
@@ -13549,7 +13569,7 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>$64.80</t>
+          <t>$64.83</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
@@ -13558,30 +13578,30 @@
         </is>
       </c>
       <c r="J103" t="n">
-        <v>0.795</v>
+        <v>0.8</v>
       </c>
       <c r="K103" t="n">
-        <v>42.63158</v>
+        <v>42.65</v>
       </c>
       <c r="L103" t="n">
-        <v>29.589043</v>
+        <v>29.6</v>
       </c>
       <c r="M103" t="n">
-        <v>1.727954</v>
+        <v>1.73</v>
       </c>
       <c r="N103" t="inlineStr">
         <is>
-          <t>0.04%</t>
+          <t>3.98%</t>
         </is>
       </c>
       <c r="O103" t="inlineStr">
         <is>
-          <t>0.21%</t>
+          <t>20.52%</t>
         </is>
       </c>
       <c r="P103" t="inlineStr">
         <is>
-          <t>2.33%</t>
+          <t>233.22%</t>
         </is>
       </c>
       <c r="Q103" t="inlineStr">
@@ -13600,19 +13620,19 @@
         </is>
       </c>
       <c r="T103" t="n">
-        <v>16.754</v>
+        <v>16.75</v>
       </c>
       <c r="U103" t="n">
-        <v>6.326224886664107</v>
+        <v>6.33</v>
       </c>
       <c r="V103" t="inlineStr">
         <is>
-          <t>0.11%</t>
+          <t>10.70%</t>
         </is>
       </c>
       <c r="W103" t="inlineStr">
         <is>
-          <t>-0.65%</t>
+          <t>-64.60%</t>
         </is>
       </c>
       <c r="X103" t="inlineStr">
@@ -13630,7 +13650,7 @@
       </c>
       <c r="AA103" t="inlineStr">
         <is>
-          <t>$14,190,617,600.00</t>
+          <t>$14,197,187,584.00</t>
         </is>
       </c>
       <c r="AB103" t="inlineStr">
@@ -13677,7 +13697,7 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>$106.78</t>
+          <t>$106.51</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
@@ -13686,30 +13706,30 @@
         </is>
       </c>
       <c r="J104" t="n">
-        <v>0.502</v>
+        <v>0.5</v>
       </c>
       <c r="K104" t="n">
-        <v>15.1884775</v>
+        <v>15.15</v>
       </c>
       <c r="L104" t="n">
-        <v>13.567345</v>
+        <v>13.53</v>
       </c>
       <c r="M104" t="n">
-        <v>1.7335011</v>
+        <v>1.73</v>
       </c>
       <c r="N104" t="inlineStr">
         <is>
-          <t>0.12%</t>
+          <t>11.83%</t>
         </is>
       </c>
       <c r="O104" t="inlineStr">
         <is>
-          <t>0.09%</t>
+          <t>9.40%</t>
         </is>
       </c>
       <c r="P104" t="inlineStr">
         <is>
-          <t>0.56%</t>
+          <t>55.68%</t>
         </is>
       </c>
       <c r="Q104" t="inlineStr">
@@ -13728,19 +13748,19 @@
         </is>
       </c>
       <c r="T104" t="n">
-        <v>7.842</v>
+        <v>7.84</v>
       </c>
       <c r="U104" t="n">
-        <v>0.6250040380880343</v>
+        <v>0.63</v>
       </c>
       <c r="V104" t="inlineStr">
         <is>
-          <t>-0.12%</t>
+          <t>-12.30%</t>
         </is>
       </c>
       <c r="W104" t="inlineStr">
         <is>
-          <t>-0.24%</t>
+          <t>-23.60%</t>
         </is>
       </c>
       <c r="X104" t="inlineStr">
@@ -13758,7 +13778,7 @@
       </c>
       <c r="AA104" t="inlineStr">
         <is>
-          <t>$455,208,501,248.00</t>
+          <t>$454,078,758,912.00</t>
         </is>
       </c>
       <c r="AB104" t="inlineStr">

--- a/data/investimentos.xlsx
+++ b/data/investimentos.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -55,11 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -611,7 +615,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>3.31%</t>
+          <t>3.30%</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -621,7 +625,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>$197.34</t>
+          <t>$198.44</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -633,13 +637,13 @@
         <v>0.5</v>
       </c>
       <c r="L2" t="n">
-        <v>93.97</v>
+        <v>94.05</v>
       </c>
       <c r="M2" t="n">
-        <v>16.27</v>
+        <v>16.36</v>
       </c>
       <c r="N2" t="n">
-        <v>-1897.5</v>
+        <v>-1908.08</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -672,7 +676,7 @@
         </is>
       </c>
       <c r="U2" t="n">
-        <v>14.75</v>
+        <v>14.79</v>
       </c>
       <c r="V2" t="n">
         <v>2.51</v>
@@ -692,24 +696,22 @@
           <t>$1.64</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
+      <c r="Z2" s="2" t="n">
+        <v>45853</v>
+      </c>
+      <c r="AA2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="AA2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>$348,612,952,064.00</t>
+          <t>$350,556,160,000.00</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>2025-08-11</t>
+          <t>2025-08-12</t>
         </is>
       </c>
     </row>
@@ -744,17 +746,17 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.76%</t>
+          <t>1.80%</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>$107.11</t>
+          <t>$107.60</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>$131.29</t>
+          <t>$130.48</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -766,13 +768,13 @@
         <v>0.7</v>
       </c>
       <c r="L3" t="n">
-        <v>16.45</v>
+        <v>16.37</v>
       </c>
       <c r="M3" t="n">
-        <v>25.44</v>
+        <v>25.29</v>
       </c>
       <c r="N3" t="n">
-        <v>4.52</v>
+        <v>4.49</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -805,7 +807,7 @@
         </is>
       </c>
       <c r="U3" t="n">
-        <v>20.97</v>
+        <v>20.53</v>
       </c>
       <c r="V3" t="n">
         <v>1.18</v>
@@ -825,24 +827,22 @@
           <t>$0.59</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
+      <c r="Z3" s="2" t="n">
+        <v>45853</v>
+      </c>
+      <c r="AA3" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="AA3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>$228,513,693,696.00</t>
+          <t>$227,095,216,128.00</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>2025-08-11</t>
+          <t>2025-08-12</t>
         </is>
       </c>
     </row>
@@ -877,7 +877,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>4.19%</t>
+          <t>4.22%</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -887,7 +887,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>$73.21</t>
+          <t>$72.28</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -899,13 +899,13 @@
         <v>0.55</v>
       </c>
       <c r="L4" t="n">
-        <v>43.58</v>
+        <v>43.02</v>
       </c>
       <c r="M4" t="n">
-        <v>40.23</v>
+        <v>39.71</v>
       </c>
       <c r="N4" t="n">
-        <v>1.48</v>
+        <v>1.46</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -938,7 +938,7 @@
         </is>
       </c>
       <c r="U4" t="n">
-        <v>20.2</v>
+        <v>20.11</v>
       </c>
       <c r="V4" t="n">
         <v>5.69</v>
@@ -958,24 +958,22 @@
           <t>$0.26</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
+      <c r="Z4" s="2" t="n">
+        <v>45869</v>
+      </c>
+      <c r="AA4" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="AA4" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>$8,127,323,648.00</t>
+          <t>$8,024,091,648.00</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>2025-08-11</t>
+          <t>2025-08-12</t>
         </is>
       </c>
     </row>
@@ -1010,17 +1008,17 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2.01%</t>
+          <t>2.03%</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>$258.63</t>
+          <t>$259.08</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>$303.30</t>
+          <t>$302.35</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -1032,13 +1030,13 @@
         <v>0.82</v>
       </c>
       <c r="L5" t="n">
-        <v>30.42</v>
+        <v>30.26</v>
       </c>
       <c r="M5" t="n">
-        <v>27.9</v>
+        <v>27.81</v>
       </c>
       <c r="N5" t="n">
-        <v>19.87</v>
+        <v>19.8</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -1071,7 +1069,7 @@
         </is>
       </c>
       <c r="U5" t="n">
-        <v>20.79</v>
+        <v>20.65</v>
       </c>
       <c r="V5" t="n">
         <v>1.53</v>
@@ -1091,24 +1089,22 @@
           <t>$1.54</t>
         </is>
       </c>
-      <c r="Z5" t="inlineStr">
+      <c r="Z5" s="2" t="n">
+        <v>45821</v>
+      </c>
+      <c r="AA5" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="AA5" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>$122,849,542,144.00</t>
+          <t>$122,462,732,288.00</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>2025-08-11</t>
+          <t>2025-08-12</t>
         </is>
       </c>
     </row>
@@ -1143,7 +1139,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>3.31%</t>
+          <t>3.32%</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -1153,7 +1149,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>$111.78</t>
+          <t>$111.85</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -1165,10 +1161,10 @@
         <v>0.39</v>
       </c>
       <c r="L6" t="n">
-        <v>16.39</v>
+        <v>16.4</v>
       </c>
       <c r="M6" t="n">
-        <v>18.98</v>
+        <v>18.99</v>
       </c>
       <c r="N6" t="n">
         <v>2</v>
@@ -1204,7 +1200,7 @@
         </is>
       </c>
       <c r="U6" t="n">
-        <v>12.54</v>
+        <v>12.51</v>
       </c>
       <c r="V6" t="n">
         <v>5.44</v>
@@ -1224,24 +1220,22 @@
           <t>$0.93</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
+      <c r="Z6" s="2" t="n">
+        <v>45877</v>
+      </c>
+      <c r="AA6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="AA6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>$59,778,850,816.00</t>
+          <t>$59,816,820,736.00</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>2025-08-11</t>
+          <t>2025-08-12</t>
         </is>
       </c>
     </row>
@@ -1276,7 +1270,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>1.93%</t>
+          <t>1.94%</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -1286,7 +1280,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>$206.47</t>
+          <t>$206.34</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -1298,10 +1292,10 @@
         <v>0.34</v>
       </c>
       <c r="L7" t="n">
-        <v>9.710000000000001</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="M7" t="n">
-        <v>10.85</v>
+        <v>10.84</v>
       </c>
       <c r="N7" t="n">
         <v>2.47</v>
@@ -1337,7 +1331,7 @@
         </is>
       </c>
       <c r="U7" t="n">
-        <v>7.27</v>
+        <v>7.25</v>
       </c>
       <c r="V7" t="n">
         <v>1.09</v>
@@ -1357,24 +1351,22 @@
           <t>$1.00</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr">
+      <c r="Z7" s="2" t="n">
+        <v>45817</v>
+      </c>
+      <c r="AA7" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="AA7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>$54,386,114,560.00</t>
+          <t>$54,372,937,728.00</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>2025-08-11</t>
+          <t>2025-08-12</t>
         </is>
       </c>
     </row>
@@ -1409,7 +1401,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>3.30%</t>
+          <t>3.34%</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -1419,7 +1411,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>$285.24</t>
+          <t>$284.69</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -1431,13 +1423,13 @@
         <v>0.48</v>
       </c>
       <c r="L8" t="n">
-        <v>23.34</v>
+        <v>23.28</v>
       </c>
       <c r="M8" t="n">
-        <v>13.8</v>
+        <v>13.77</v>
       </c>
       <c r="N8" t="n">
-        <v>20.67</v>
+        <v>20.63</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1470,7 +1462,7 @@
         </is>
       </c>
       <c r="U8" t="n">
-        <v>12.67</v>
+        <v>12.56</v>
       </c>
       <c r="V8" t="n">
         <v>3.5</v>
@@ -1490,24 +1482,22 @@
           <t>$2.38</t>
         </is>
       </c>
-      <c r="Z8" t="inlineStr">
+      <c r="Z8" s="2" t="n">
+        <v>45793</v>
+      </c>
+      <c r="AA8" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="AA8" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>$153,562,365,952.00</t>
+          <t>$153,266,274,304.00</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>2025-08-11</t>
+          <t>2025-08-12</t>
         </is>
       </c>
     </row>
@@ -1542,7 +1532,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>3.48%</t>
+          <t>3.47%</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -1552,7 +1542,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>$45.05</t>
+          <t>$45.30</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -1564,13 +1554,13 @@
         <v>0.38</v>
       </c>
       <c r="L9" t="n">
-        <v>17.13</v>
+        <v>17.23</v>
       </c>
       <c r="M9" t="n">
-        <v>19.17</v>
+        <v>19.28</v>
       </c>
       <c r="N9" t="n">
-        <v>3.22</v>
+        <v>3.24</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1603,7 +1593,7 @@
         </is>
       </c>
       <c r="U9" t="n">
-        <v>12.26</v>
+        <v>12.29</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1623,24 +1613,22 @@
           <t>$0.39</t>
         </is>
       </c>
-      <c r="Z9" t="inlineStr">
+      <c r="Z9" s="2" t="n">
+        <v>45821</v>
+      </c>
+      <c r="AA9" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="AA9" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>$855,531,008.00</t>
+          <t>$860,373,696.00</t>
         </is>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>2025-08-11</t>
+          <t>2025-08-12</t>
         </is>
       </c>
     </row>
@@ -1675,7 +1663,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>3.29%</t>
+          <t>3.30%</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -1685,7 +1673,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>$205.35</t>
+          <t>$205.66</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1697,13 +1685,13 @@
         <v>0.83</v>
       </c>
       <c r="L10" t="n">
-        <v>38.38</v>
+        <v>38.37</v>
       </c>
       <c r="M10" t="n">
-        <v>30.24</v>
+        <v>30.29</v>
       </c>
       <c r="N10" t="n">
-        <v>25.9</v>
+        <v>25.93</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1736,7 +1724,7 @@
         </is>
       </c>
       <c r="U10" t="n">
-        <v>22.13</v>
+        <v>22.1</v>
       </c>
       <c r="V10" t="n">
         <v>6.82</v>
@@ -1756,24 +1744,22 @@
           <t>$1.70</t>
         </is>
       </c>
-      <c r="Z10" t="inlineStr">
+      <c r="Z10" s="2" t="n">
+        <v>45821</v>
+      </c>
+      <c r="AA10" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="AA10" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>$96,157,687,808.00</t>
+          <t>$96,298,164,224.00</t>
         </is>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>2025-08-11</t>
+          <t>2025-08-12</t>
         </is>
       </c>
     </row>
@@ -1808,7 +1794,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>3.66%</t>
+          <t>3.64%</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -1818,7 +1804,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>$33.70</t>
+          <t>$33.76</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1830,10 +1816,10 @@
         <v>0.32</v>
       </c>
       <c r="L11" t="n">
-        <v>15.53</v>
+        <v>15.56</v>
       </c>
       <c r="M11" t="n">
-        <v>16.12</v>
+        <v>16.15</v>
       </c>
       <c r="N11" t="n">
         <v>1.42</v>
@@ -1855,24 +1841,24 @@
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>$25,886,000.00</t>
+          <t>$28,549,000.00</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>$5,435,000.00</t>
+          <t>$6,290,000.00</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>$0.00</t>
+          <t>$-21,051,500.00</t>
         </is>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>10.79</v>
       </c>
       <c r="V11" t="n">
-        <v>3.59</v>
+        <v>3.68</v>
       </c>
       <c r="W11" t="inlineStr">
         <is>
@@ -1889,24 +1875,22 @@
           <t>$0.31</t>
         </is>
       </c>
-      <c r="Z11" t="inlineStr">
+      <c r="Z11" s="2" t="n">
+        <v>45793</v>
+      </c>
+      <c r="AA11" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="AA11" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>$347,318,944.00</t>
+          <t>$347,730,528.00</t>
         </is>
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>2025-08-11</t>
+          <t>2025-08-12</t>
         </is>
       </c>
     </row>
@@ -1941,7 +1925,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2.12%</t>
+          <t>2.11%</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -1951,7 +1935,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>$164.39</t>
+          <t>$164.68</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1963,10 +1947,10 @@
         <v>0.68</v>
       </c>
       <c r="L12" t="n">
-        <v>22.74</v>
+        <v>22.78</v>
       </c>
       <c r="M12" t="n">
-        <v>23.02</v>
+        <v>23.06</v>
       </c>
       <c r="N12" t="n">
         <v>1.97</v>
@@ -2002,7 +1986,7 @@
         </is>
       </c>
       <c r="U12" t="n">
-        <v>15.41</v>
+        <v>15.46</v>
       </c>
       <c r="V12" t="n">
         <v>4.01</v>
@@ -2022,24 +2006,22 @@
           <t>$0.87</t>
         </is>
       </c>
-      <c r="Z12" t="inlineStr">
+      <c r="Z12" s="2" t="n">
+        <v>45804</v>
+      </c>
+      <c r="AA12" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="AA12" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>$26,388,539,392.00</t>
+          <t>$26,435,090,432.00</t>
         </is>
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>2025-08-11</t>
+          <t>2025-08-12</t>
         </is>
       </c>
     </row>
@@ -2074,7 +2056,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>3.75%</t>
+          <t>3.78%</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -2084,7 +2066,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>$185.23</t>
+          <t>$186.51</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -2096,13 +2078,13 @@
         <v>0.87</v>
       </c>
       <c r="L13" t="n">
-        <v>22.76</v>
+        <v>22.91</v>
       </c>
       <c r="M13" t="n">
-        <v>33.44</v>
+        <v>33.67</v>
       </c>
       <c r="N13" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -2135,7 +2117,7 @@
         </is>
       </c>
       <c r="U13" t="n">
-        <v>19.29</v>
+        <v>19.15</v>
       </c>
       <c r="V13" t="n">
         <v>4.8</v>
@@ -2155,24 +2137,22 @@
           <t>$1.75</t>
         </is>
       </c>
-      <c r="Z13" t="inlineStr">
+      <c r="Z13" s="2" t="n">
+        <v>45838</v>
+      </c>
+      <c r="AA13" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="AA13" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>$26,373,603,328.00</t>
+          <t>$26,555,854,848.00</t>
         </is>
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>2025-08-11</t>
+          <t>2025-08-12</t>
         </is>
       </c>
     </row>
@@ -2207,7 +2187,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.77%</t>
+          <t>0.78%</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -2217,25 +2197,25 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>$306.77</t>
+          <t>$310.42</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>$310.34</t>
+          <t>$310.43</t>
         </is>
       </c>
       <c r="K14" t="n">
         <v>1.17</v>
       </c>
       <c r="L14" t="n">
-        <v>111.96</v>
+        <v>113.29</v>
       </c>
       <c r="M14" t="n">
-        <v>49.72</v>
+        <v>50.31</v>
       </c>
       <c r="N14" t="n">
-        <v>5.18</v>
+        <v>5.24</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -2268,7 +2248,7 @@
         </is>
       </c>
       <c r="U14" t="n">
-        <v>4.97</v>
+        <v>4.96</v>
       </c>
       <c r="V14" t="n">
         <v>1.3</v>
@@ -2288,24 +2268,22 @@
           <t>$0.59</t>
         </is>
       </c>
-      <c r="Z14" t="inlineStr">
+      <c r="Z14" s="2" t="n">
+        <v>45828</v>
+      </c>
+      <c r="AA14" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="AA14" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>$1,442,883,436,544.00</t>
+          <t>$1,460,051,247,104.00</t>
         </is>
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>2025-08-11</t>
+          <t>2025-08-12</t>
         </is>
       </c>
     </row>
@@ -2340,7 +2318,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2.28%</t>
+          <t>2.27%</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -2350,7 +2328,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>$144.93</t>
+          <t>$141.63</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -2362,13 +2340,13 @@
         <v>0.64</v>
       </c>
       <c r="L15" t="n">
-        <v>26.11</v>
+        <v>25.52</v>
       </c>
       <c r="M15" t="n">
-        <v>25.43</v>
+        <v>24.85</v>
       </c>
       <c r="N15" t="n">
-        <v>2.65</v>
+        <v>2.59</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -2401,7 +2379,7 @@
         </is>
       </c>
       <c r="U15" t="n">
-        <v>16.22</v>
+        <v>16.23</v>
       </c>
       <c r="V15" t="n">
         <v>5.65</v>
@@ -2421,24 +2399,22 @@
           <t>$0.83</t>
         </is>
       </c>
-      <c r="Z15" t="inlineStr">
+      <c r="Z15" s="2" t="n">
+        <v>45790</v>
+      </c>
+      <c r="AA15" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="AA15" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>$28,275,697,664.00</t>
+          <t>$27,632,439,296.00</t>
         </is>
       </c>
       <c r="AC15" t="inlineStr">
         <is>
-          <t>2025-08-11</t>
+          <t>2025-08-12</t>
         </is>
       </c>
     </row>
@@ -2483,7 +2459,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>$46.27</t>
+          <t>$47.48</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -2495,13 +2471,13 @@
         <v>1.31</v>
       </c>
       <c r="L16" t="n">
-        <v>13.57</v>
+        <v>13.93</v>
       </c>
       <c r="M16" t="n">
-        <v>12.64</v>
+        <v>12.97</v>
       </c>
       <c r="N16" t="n">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -2556,24 +2532,22 @@
           <t>$0.26</t>
         </is>
       </c>
-      <c r="Z16" t="inlineStr">
+      <c r="Z16" s="2" t="n">
+        <v>45814</v>
+      </c>
+      <c r="AA16" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="AA16" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>$342,682,533,888.00</t>
+          <t>$351,719,030,784.00</t>
         </is>
       </c>
       <c r="AC16" t="inlineStr">
         <is>
-          <t>2025-08-11</t>
+          <t>2025-08-12</t>
         </is>
       </c>
     </row>
@@ -2608,7 +2582,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>5.51%</t>
+          <t>5.54%</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -2618,7 +2592,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>$68.66</t>
+          <t>$70.58</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -2630,13 +2604,13 @@
         <v>1.23</v>
       </c>
       <c r="L17" t="n">
-        <v>16.75</v>
+        <v>17.21</v>
       </c>
       <c r="M17" t="n">
-        <v>10.04</v>
+        <v>10.32</v>
       </c>
       <c r="N17" t="n">
-        <v>5.25</v>
+        <v>5.4</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -2669,7 +2643,7 @@
         </is>
       </c>
       <c r="U17" t="n">
-        <v>6.67</v>
+        <v>6.64</v>
       </c>
       <c r="V17" t="n">
         <v>1.57</v>
@@ -2689,24 +2663,22 @@
           <t>$0.95</t>
         </is>
       </c>
-      <c r="Z17" t="inlineStr">
+      <c r="Z17" s="2" t="n">
+        <v>45826</v>
+      </c>
+      <c r="AA17" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="AA17" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>$14,511,086,592.00</t>
+          <t>$14,916,872,192.00</t>
         </is>
       </c>
       <c r="AC17" t="inlineStr">
         <is>
-          <t>2025-08-11</t>
+          <t>2025-08-12</t>
         </is>
       </c>
     </row>
@@ -2741,7 +2713,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>6.20%</t>
+          <t>6.31%</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -2751,7 +2723,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>$62.59</t>
+          <t>$62.80</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -2763,13 +2735,13 @@
         <v>1.19</v>
       </c>
       <c r="L18" t="n">
-        <v>3129.25</v>
+        <v>3139.75</v>
       </c>
       <c r="M18" t="n">
-        <v>33.47</v>
+        <v>33.58</v>
       </c>
       <c r="N18" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -2802,7 +2774,7 @@
         </is>
       </c>
       <c r="U18" t="n">
-        <v>15.16</v>
+        <v>15.06</v>
       </c>
       <c r="V18" t="n">
         <v>8.75</v>
@@ -2822,24 +2794,22 @@
           <t>$0.98</t>
         </is>
       </c>
-      <c r="Z18" t="inlineStr">
+      <c r="Z18" s="2" t="n">
+        <v>45838</v>
+      </c>
+      <c r="AA18" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="AA18" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>$11,065,216,000.00</t>
+          <t>$11,102,344,192.00</t>
         </is>
       </c>
       <c r="AC18" t="inlineStr">
         <is>
-          <t>2025-08-11</t>
+          <t>2025-08-12</t>
         </is>
       </c>
     </row>
@@ -2874,7 +2844,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>1.45%</t>
+          <t>1.48%</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -2884,7 +2854,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>$407.74</t>
+          <t>$414.49</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -2896,13 +2866,13 @@
         <v>1.4</v>
       </c>
       <c r="L19" t="n">
-        <v>20.74</v>
+        <v>21.09</v>
       </c>
       <c r="M19" t="n">
-        <v>18.41</v>
+        <v>18.71</v>
       </c>
       <c r="N19" t="n">
-        <v>10.24</v>
+        <v>10.41</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -2935,7 +2905,7 @@
         </is>
       </c>
       <c r="U19" t="n">
-        <v>16.46</v>
+        <v>16.2</v>
       </c>
       <c r="V19" t="n">
         <v>2.9</v>
@@ -2955,24 +2925,22 @@
           <t>$1.51</t>
         </is>
       </c>
-      <c r="Z19" t="inlineStr">
+      <c r="Z19" s="2" t="n">
+        <v>45859</v>
+      </c>
+      <c r="AA19" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="AA19" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>$191,015,288,832.00</t>
+          <t>$194,179,858,432.00</t>
         </is>
       </c>
       <c r="AC19" t="inlineStr">
         <is>
-          <t>2025-08-11</t>
+          <t>2025-08-12</t>
         </is>
       </c>
     </row>
@@ -3007,7 +2975,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2.59%</t>
+          <t>2.60%</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -3017,7 +2985,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>$92.50</t>
+          <t>$95.28</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -3029,13 +2997,13 @@
         <v>1.37</v>
       </c>
       <c r="L20" t="n">
-        <v>13.66</v>
+        <v>14.07</v>
       </c>
       <c r="M20" t="n">
-        <v>12.87</v>
+        <v>13.25</v>
       </c>
       <c r="N20" t="n">
-        <v>0.86</v>
+        <v>0.89</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -3090,24 +3058,22 @@
           <t>$0.60</t>
         </is>
       </c>
-      <c r="Z20" t="inlineStr">
+      <c r="Z20" s="2" t="n">
+        <v>45873</v>
+      </c>
+      <c r="AA20" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="AA20" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>$170,292,445,184.00</t>
+          <t>$175,405,924,352.00</t>
         </is>
       </c>
       <c r="AC20" t="inlineStr">
         <is>
-          <t>2025-08-11</t>
+          <t>2025-08-12</t>
         </is>
       </c>
     </row>
@@ -3152,7 +3118,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>$149.54</t>
+          <t>$150.99</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -3164,13 +3130,13 @@
         <v>0.71</v>
       </c>
       <c r="L21" t="n">
-        <v>12.97</v>
+        <v>13.1</v>
       </c>
       <c r="M21" t="n">
-        <v>20.4</v>
+        <v>20.6</v>
       </c>
       <c r="N21" t="n">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -3203,7 +3169,7 @@
         </is>
       </c>
       <c r="U21" t="n">
-        <v>9.51</v>
+        <v>9.49</v>
       </c>
       <c r="V21" t="n">
         <v>0.36</v>
@@ -3223,24 +3189,22 @@
           <t>$0.87</t>
         </is>
       </c>
-      <c r="Z21" t="inlineStr">
+      <c r="Z21" s="2" t="n">
+        <v>45831</v>
+      </c>
+      <c r="AA21" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="AA21" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>$23,384,465,408.00</t>
+          <t>$23,611,213,824.00</t>
         </is>
       </c>
       <c r="AC21" t="inlineStr">
         <is>
-          <t>2025-08-11</t>
+          <t>2025-08-12</t>
         </is>
       </c>
     </row>
@@ -3285,7 +3249,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>$84.32</t>
+          <t>$84.47</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -3297,13 +3261,13 @@
         <v>0.35</v>
       </c>
       <c r="L22" t="n">
-        <v>23.69</v>
+        <v>23.73</v>
       </c>
       <c r="M22" t="n">
-        <v>21.84</v>
+        <v>21.88</v>
       </c>
       <c r="N22" t="n">
-        <v>97.03</v>
+        <v>97.2</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -3336,7 +3300,7 @@
         </is>
       </c>
       <c r="U22" t="n">
-        <v>15.78</v>
+        <v>15.74</v>
       </c>
       <c r="V22" t="n">
         <v>1.82</v>
@@ -3356,24 +3320,22 @@
           <t>$0.52</t>
         </is>
       </c>
-      <c r="Z22" t="inlineStr">
+      <c r="Z22" s="2" t="n">
+        <v>45856</v>
+      </c>
+      <c r="AA22" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="AA22" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>$68,149,194,752.00</t>
+          <t>$68,266,381,312.00</t>
         </is>
       </c>
       <c r="AC22" t="inlineStr">
         <is>
-          <t>2025-08-11</t>
+          <t>2025-08-12</t>
         </is>
       </c>
     </row>
@@ -3408,7 +3370,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2.95%</t>
+          <t>2.98%</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -3418,7 +3380,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>$72.57</t>
+          <t>$72.75</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -3430,13 +3392,13 @@
         <v>0.35</v>
       </c>
       <c r="L23" t="n">
-        <v>21.41</v>
+        <v>21.46</v>
       </c>
       <c r="M23" t="n">
-        <v>20.27</v>
+        <v>20.32</v>
       </c>
       <c r="N23" t="n">
-        <v>2.66</v>
+        <v>2.67</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -3469,7 +3431,7 @@
         </is>
       </c>
       <c r="U23" t="n">
-        <v>14</v>
+        <v>13.94</v>
       </c>
       <c r="V23" t="n">
         <v>6.32</v>
@@ -3489,24 +3451,22 @@
           <t>$0.54</t>
         </is>
       </c>
-      <c r="Z23" t="inlineStr">
+      <c r="Z23" s="2" t="n">
+        <v>45877</v>
+      </c>
+      <c r="AA23" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="AA23" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>$21,722,740,736.00</t>
+          <t>$21,776,621,568.00</t>
         </is>
       </c>
       <c r="AC23" t="inlineStr">
         <is>
-          <t>2025-08-11</t>
+          <t>2025-08-12</t>
         </is>
       </c>
     </row>
@@ -3541,7 +3501,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>1.77%</t>
+          <t>1.75%</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -3551,7 +3511,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>$286.50</t>
+          <t>$275.90</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -3563,13 +3523,13 @@
         <v>0.46</v>
       </c>
       <c r="L24" t="n">
-        <v>27.73</v>
+        <v>26.68</v>
       </c>
       <c r="M24" t="n">
-        <v>27.63</v>
+        <v>26.61</v>
       </c>
       <c r="N24" t="n">
-        <v>3.71</v>
+        <v>3.58</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -3602,7 +3562,7 @@
         </is>
       </c>
       <c r="U24" t="n">
-        <v>22.73</v>
+        <v>23.02</v>
       </c>
       <c r="V24" t="n">
         <v>0.83</v>
@@ -3622,24 +3582,22 @@
           <t>$1.25</t>
         </is>
       </c>
-      <c r="Z24" t="inlineStr">
+      <c r="Z24" s="2" t="n">
+        <v>45817</v>
+      </c>
+      <c r="AA24" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="AA24" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>$103,248,871,424.00</t>
+          <t>$99,428,843,520.00</t>
         </is>
       </c>
       <c r="AC24" t="inlineStr">
         <is>
-          <t>2025-08-11</t>
+          <t>2025-08-12</t>
         </is>
       </c>
     </row>
@@ -3674,7 +3632,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2.27%</t>
+          <t>2.28%</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -3684,7 +3642,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>$38.48</t>
+          <t>$38.27</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -3696,13 +3654,13 @@
         <v>0.57</v>
       </c>
       <c r="L25" t="n">
-        <v>26.91</v>
+        <v>26.77</v>
       </c>
       <c r="M25" t="n">
-        <v>22.12</v>
+        <v>22</v>
       </c>
       <c r="N25" t="n">
-        <v>2.28</v>
+        <v>2.27</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -3735,7 +3693,7 @@
         </is>
       </c>
       <c r="U25" t="n">
-        <v>14</v>
+        <v>13.95</v>
       </c>
       <c r="V25" t="n">
         <v>6.56</v>
@@ -3755,24 +3713,22 @@
           <t>$0.22</t>
         </is>
       </c>
-      <c r="Z25" t="inlineStr">
+      <c r="Z25" s="2" t="n">
+        <v>45792</v>
+      </c>
+      <c r="AA25" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="AA25" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>$25,125,511,168.00</t>
+          <t>$24,988,409,856.00</t>
         </is>
       </c>
       <c r="AC25" t="inlineStr">
         <is>
-          <t>2025-08-11</t>
+          <t>2025-08-12</t>
         </is>
       </c>
     </row>
@@ -3812,12 +3768,12 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>$852.40</t>
+          <t>$856.16</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>$988.42</t>
+          <t>$987.61</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -3829,13 +3785,13 @@
         <v>0.95</v>
       </c>
       <c r="L26" t="n">
-        <v>55.97</v>
+        <v>56.11</v>
       </c>
       <c r="M26" t="n">
-        <v>50.22</v>
+        <v>50.18</v>
       </c>
       <c r="N26" t="n">
-        <v>16.16</v>
+        <v>16.15</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -3868,7 +3824,7 @@
         </is>
       </c>
       <c r="U26" t="n">
-        <v>34.44</v>
+        <v>34.72</v>
       </c>
       <c r="V26" t="n">
         <v>0.67</v>
@@ -3888,24 +3844,22 @@
           <t>$1.30</t>
         </is>
       </c>
-      <c r="Z26" t="inlineStr">
+      <c r="Z26" s="2" t="n">
+        <v>45870</v>
+      </c>
+      <c r="AA26" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="AA26" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>$438,341,533,696.00</t>
+          <t>$437,982,855,168.00</t>
         </is>
       </c>
       <c r="AC26" t="inlineStr">
         <is>
-          <t>2025-08-11</t>
+          <t>2025-08-12</t>
         </is>
       </c>
     </row>
@@ -3940,17 +3894,17 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2.28%</t>
+          <t>2.32%</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>$44.50</t>
+          <t>$44.89</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>$70.88</t>
+          <t>$71.38</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -3962,13 +3916,13 @@
         <v>0.91</v>
       </c>
       <c r="L27" t="n">
-        <v>28.93</v>
+        <v>29.13</v>
       </c>
       <c r="M27" t="n">
-        <v>18.17</v>
+        <v>18.3</v>
       </c>
       <c r="N27" t="n">
-        <v>6.11</v>
+        <v>6.15</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -4001,7 +3955,7 @@
         </is>
       </c>
       <c r="U27" t="n">
-        <v>20.26</v>
+        <v>19.96</v>
       </c>
       <c r="V27" t="n">
         <v>2.09</v>
@@ -4021,24 +3975,22 @@
           <t>$0.41</t>
         </is>
       </c>
-      <c r="Z27" t="inlineStr">
+      <c r="Z27" s="2" t="n">
+        <v>45841</v>
+      </c>
+      <c r="AA27" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="AA27" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>$280,664,997,888.00</t>
+          <t>$282,664,796,160.00</t>
         </is>
       </c>
       <c r="AC27" t="inlineStr">
         <is>
-          <t>2025-08-11</t>
+          <t>2025-08-12</t>
         </is>
       </c>
     </row>
@@ -4073,7 +4025,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>4.07%</t>
+          <t>4.08%</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -4083,7 +4035,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>$32.85</t>
+          <t>$32.97</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -4095,13 +4047,13 @@
         <v>0.87</v>
       </c>
       <c r="L28" t="n">
-        <v>26.93</v>
+        <v>27.02</v>
       </c>
       <c r="M28" t="n">
-        <v>24.7</v>
+        <v>24.79</v>
       </c>
       <c r="N28" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -4134,7 +4086,7 @@
         </is>
       </c>
       <c r="U28" t="n">
-        <v>23.81</v>
+        <v>23.8</v>
       </c>
       <c r="V28" t="n">
         <v>3.69</v>
@@ -4154,24 +4106,22 @@
           <t>$0.34</t>
         </is>
       </c>
-      <c r="Z28" t="inlineStr">
+      <c r="Z28" s="2" t="n">
+        <v>45838</v>
+      </c>
+      <c r="AA28" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="AA28" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>$6,561,655,808.00</t>
+          <t>$6,585,626,112.00</t>
         </is>
       </c>
       <c r="AC28" t="inlineStr">
         <is>
-          <t>2025-08-11</t>
+          <t>2025-08-12</t>
         </is>
       </c>
     </row>
@@ -4206,7 +4156,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>4.06%</t>
+          <t>4.10%</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -4216,7 +4166,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>$65.03</t>
+          <t>$65.25</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -4228,13 +4178,13 @@
         <v>0.59</v>
       </c>
       <c r="L29" t="n">
-        <v>18.11</v>
+        <v>18.18</v>
       </c>
       <c r="M29" t="n">
-        <v>10.04</v>
+        <v>10.07</v>
       </c>
       <c r="N29" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -4267,7 +4217,7 @@
         </is>
       </c>
       <c r="U29" t="n">
-        <v>10.87</v>
+        <v>10.81</v>
       </c>
       <c r="V29" t="n">
         <v>5.92</v>
@@ -4287,24 +4237,22 @@
           <t>$0.67</t>
         </is>
       </c>
-      <c r="Z29" t="inlineStr">
+      <c r="Z29" s="2" t="n">
+        <v>45860</v>
+      </c>
+      <c r="AA29" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="AA29" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>$82,479,497,216.00</t>
+          <t>$82,758,533,120.00</t>
         </is>
       </c>
       <c r="AC29" t="inlineStr">
         <is>
-          <t>2025-08-11</t>
+          <t>2025-08-12</t>
         </is>
       </c>
     </row>
@@ -4339,7 +4287,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>4.41%</t>
+          <t>4.46%</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -4349,7 +4297,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>$153.56</t>
+          <t>$155.78</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -4361,13 +4309,13 @@
         <v>0.84</v>
       </c>
       <c r="L30" t="n">
-        <v>19.76</v>
+        <v>20.07</v>
       </c>
       <c r="M30" t="n">
-        <v>13.91</v>
+        <v>14.11</v>
       </c>
       <c r="N30" t="n">
-        <v>1.81</v>
+        <v>1.84</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -4400,7 +4348,7 @@
         </is>
       </c>
       <c r="U30" t="n">
-        <v>8.029999999999999</v>
+        <v>7.96</v>
       </c>
       <c r="V30" t="n">
         <v>0.8</v>
@@ -4420,24 +4368,22 @@
           <t>$1.71</t>
         </is>
       </c>
-      <c r="Z30" t="inlineStr">
+      <c r="Z30" s="2" t="n">
+        <v>45796</v>
+      </c>
+      <c r="AA30" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="AA30" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>$309,385,658,368.00</t>
+          <t>$313,858,555,904.00</t>
         </is>
       </c>
       <c r="AC30" t="inlineStr">
         <is>
-          <t>2025-08-11</t>
+          <t>2025-08-12</t>
         </is>
       </c>
     </row>
@@ -4472,7 +4418,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>5.36%</t>
+          <t>5.37%</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -4482,7 +4428,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>$38.43</t>
+          <t>$38.84</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -4494,13 +4440,13 @@
         <v>0.96</v>
       </c>
       <c r="L31" t="n">
-        <v>23.43</v>
+        <v>23.68</v>
       </c>
       <c r="M31" t="n">
-        <v>21.59</v>
+        <v>21.82</v>
       </c>
       <c r="N31" t="n">
-        <v>3.11</v>
+        <v>3.15</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -4533,7 +4479,7 @@
         </is>
       </c>
       <c r="U31" t="n">
-        <v>17.48</v>
+        <v>17.44</v>
       </c>
       <c r="V31" t="n">
         <v>4.84</v>
@@ -4553,24 +4499,22 @@
           <t>$0.52</t>
         </is>
       </c>
-      <c r="Z31" t="inlineStr">
+      <c r="Z31" s="2" t="n">
+        <v>45839</v>
+      </c>
+      <c r="AA31" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="AA31" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="AB31" t="inlineStr">
         <is>
-          <t>$8,809,309,184.00</t>
+          <t>$8,903,292,928.00</t>
         </is>
       </c>
       <c r="AC31" t="inlineStr">
         <is>
-          <t>2025-08-11</t>
+          <t>2025-08-12</t>
         </is>
       </c>
     </row>
@@ -4605,7 +4549,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>2.87%</t>
+          <t>2.89%</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -4615,7 +4559,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>$169.09</t>
+          <t>$169.08</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -4666,7 +4610,7 @@
         </is>
       </c>
       <c r="U32" t="n">
-        <v>29.85</v>
+        <v>29.69</v>
       </c>
       <c r="V32" t="n">
         <v>7.76</v>
@@ -4686,24 +4630,22 @@
           <t>$1.22</t>
         </is>
       </c>
-      <c r="Z32" t="inlineStr">
+      <c r="Z32" s="2" t="n">
+        <v>45821</v>
+      </c>
+      <c r="AA32" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="AA32" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="AB32" t="inlineStr">
         <is>
-          <t>$58,728,673,280.00</t>
+          <t>$58,726,035,456.00</t>
         </is>
       </c>
       <c r="AC32" t="inlineStr">
         <is>
-          <t>2025-08-11</t>
+          <t>2025-08-12</t>
         </is>
       </c>
     </row>
@@ -4738,7 +4680,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>6.60%</t>
+          <t>6.71%</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -4748,7 +4690,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>$20.55</t>
+          <t>$21.64</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -4765,10 +4707,10 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>6.61</v>
+        <v>6.96</v>
       </c>
       <c r="N33" t="n">
-        <v>0.85</v>
+        <v>0.89</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -4801,7 +4743,7 @@
         </is>
       </c>
       <c r="U33" t="n">
-        <v>8.23</v>
+        <v>8.16</v>
       </c>
       <c r="V33" t="n">
         <v>4.69</v>
@@ -4821,24 +4763,22 @@
           <t>$0.70</t>
         </is>
       </c>
-      <c r="Z33" t="inlineStr">
+      <c r="Z33" s="2" t="n">
+        <v>45807</v>
+      </c>
+      <c r="AA33" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="AA33" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="AB33" t="inlineStr">
         <is>
-          <t>$14,563,270,656.00</t>
+          <t>$15,339,384,832.00</t>
         </is>
       </c>
       <c r="AC33" t="inlineStr">
         <is>
-          <t>2025-08-11</t>
+          <t>2025-08-12</t>
         </is>
       </c>
     </row>
@@ -4873,7 +4813,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>3.40%</t>
+          <t>3.39%</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -4883,7 +4823,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>$125.09</t>
+          <t>$124.07</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -4895,13 +4835,13 @@
         <v>0.34</v>
       </c>
       <c r="L34" t="n">
-        <v>20.44</v>
+        <v>20.31</v>
       </c>
       <c r="M34" t="n">
-        <v>19.73</v>
+        <v>19.57</v>
       </c>
       <c r="N34" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -4934,7 +4874,7 @@
         </is>
       </c>
       <c r="U34" t="n">
-        <v>12.21</v>
+        <v>12.22</v>
       </c>
       <c r="V34" t="n">
         <v>5.75</v>
@@ -4954,24 +4894,22 @@
           <t>$1.04</t>
         </is>
       </c>
-      <c r="Z34" t="inlineStr">
+      <c r="Z34" s="2" t="n">
+        <v>45793</v>
+      </c>
+      <c r="AA34" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="AA34" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="AB34" t="inlineStr">
         <is>
-          <t>$97,272,979,456.00</t>
+          <t>$96,479,805,440.00</t>
         </is>
       </c>
       <c r="AC34" t="inlineStr">
         <is>
-          <t>2025-08-11</t>
+          <t>2025-08-12</t>
         </is>
       </c>
     </row>
@@ -5006,7 +4944,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>2.88%</t>
+          <t>2.92%</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -5016,7 +4954,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>$32.92</t>
+          <t>$33.45</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -5028,13 +4966,13 @@
         <v>1.11</v>
       </c>
       <c r="L35" t="n">
-        <v>7.41</v>
+        <v>7.53</v>
       </c>
       <c r="M35" t="n">
-        <v>7.38</v>
+        <v>7.5</v>
       </c>
       <c r="N35" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -5067,7 +5005,7 @@
         </is>
       </c>
       <c r="U35" t="n">
-        <v>3.71</v>
+        <v>3.67</v>
       </c>
       <c r="V35" t="n">
         <v>1.17</v>
@@ -5087,24 +5025,22 @@
           <t>$0.24</t>
         </is>
       </c>
-      <c r="Z35" t="inlineStr">
+      <c r="Z35" s="2" t="n">
+        <v>45821</v>
+      </c>
+      <c r="AA35" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="AA35" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="AB35" t="inlineStr">
         <is>
-          <t>$20,897,613,824.00</t>
+          <t>$21,234,061,312.00</t>
         </is>
       </c>
       <c r="AC35" t="inlineStr">
         <is>
-          <t>2025-08-11</t>
+          <t>2025-08-12</t>
         </is>
       </c>
     </row>
@@ -5139,7 +5075,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>3.48%</t>
+          <t>3.51%</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -5149,7 +5085,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>$160.37</t>
+          <t>$161.39</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -5161,13 +5097,13 @@
         <v>1</v>
       </c>
       <c r="L36" t="n">
-        <v>34.56</v>
+        <v>34.78</v>
       </c>
       <c r="M36" t="n">
-        <v>33.27</v>
+        <v>33.48</v>
       </c>
       <c r="N36" t="n">
-        <v>2.48</v>
+        <v>2.49</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -5200,7 +5136,7 @@
         </is>
       </c>
       <c r="U36" t="n">
-        <v>22.84</v>
+        <v>22.65</v>
       </c>
       <c r="V36" t="n">
         <v>3.41</v>
@@ -5220,24 +5156,22 @@
           <t>$1.40</t>
         </is>
       </c>
-      <c r="Z36" t="inlineStr">
+      <c r="Z36" s="2" t="n">
+        <v>45838</v>
+      </c>
+      <c r="AA36" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="AA36" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="AB36" t="inlineStr">
         <is>
-          <t>$8,553,237,504.00</t>
+          <t>$8,607,638,528.00</t>
         </is>
       </c>
       <c r="AC36" t="inlineStr">
         <is>
-          <t>2025-08-11</t>
+          <t>2025-08-12</t>
         </is>
       </c>
     </row>
@@ -5272,7 +5206,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>5.85%</t>
+          <t>5.79%</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -5282,25 +5216,25 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>$47.48</t>
+          <t>$47.34</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>$47.56</t>
+          <t>$47.62</t>
         </is>
       </c>
       <c r="K37" t="n">
         <v>0.86</v>
       </c>
       <c r="L37" t="n">
-        <v>22.94</v>
+        <v>22.87</v>
       </c>
       <c r="M37" t="n">
-        <v>22.19</v>
+        <v>22.12</v>
       </c>
       <c r="N37" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
@@ -5333,7 +5267,7 @@
         </is>
       </c>
       <c r="U37" t="n">
-        <v>12.56</v>
+        <v>12.62</v>
       </c>
       <c r="V37" t="n">
         <v>5.99</v>
@@ -5353,24 +5287,22 @@
           <t>$0.68</t>
         </is>
       </c>
-      <c r="Z37" t="inlineStr">
+      <c r="Z37" s="2" t="n">
+        <v>45792</v>
+      </c>
+      <c r="AA37" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="AA37" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="AB37" t="inlineStr">
         <is>
-          <t>$103,790,338,048.00</t>
+          <t>$103,477,231,616.00</t>
         </is>
       </c>
       <c r="AC37" t="inlineStr">
         <is>
-          <t>2025-08-11</t>
+          <t>2025-08-12</t>
         </is>
       </c>
     </row>
@@ -5415,7 +5347,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>$778.80</t>
+          <t>$782.24</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -5427,13 +5359,13 @@
         <v>0.89</v>
       </c>
       <c r="L38" t="n">
-        <v>76.58</v>
+        <v>76.84</v>
       </c>
       <c r="M38" t="n">
-        <v>58.21</v>
+        <v>58.46</v>
       </c>
       <c r="N38" t="n">
-        <v>5.41</v>
+        <v>5.44</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -5466,7 +5398,7 @@
         </is>
       </c>
       <c r="U38" t="n">
-        <v>24.95</v>
+        <v>24.97</v>
       </c>
       <c r="V38" t="n">
         <v>5.79</v>
@@ -5486,24 +5418,22 @@
           <t>$4.69</t>
         </is>
       </c>
-      <c r="Z38" t="inlineStr">
+      <c r="Z38" s="2" t="n">
+        <v>45798</v>
+      </c>
+      <c r="AA38" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="AA38" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="AB38" t="inlineStr">
         <is>
-          <t>$76,216,483,840.00</t>
+          <t>$76,552,642,560.00</t>
         </is>
       </c>
       <c r="AC38" t="inlineStr">
         <is>
-          <t>2025-08-11</t>
+          <t>2025-08-12</t>
         </is>
       </c>
     </row>
@@ -5538,7 +5468,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>4.38%</t>
+          <t>4.45%</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -5548,7 +5478,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>$62.30</t>
+          <t>$62.60</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -5560,13 +5490,13 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="L39" t="n">
-        <v>23.51</v>
+        <v>23.53</v>
       </c>
       <c r="M39" t="n">
-        <v>36.86</v>
+        <v>37.04</v>
       </c>
       <c r="N39" t="n">
-        <v>2.15</v>
+        <v>2.16</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -5599,7 +5529,7 @@
         </is>
       </c>
       <c r="U39" t="n">
-        <v>17.93</v>
+        <v>17.75</v>
       </c>
       <c r="V39" t="n">
         <v>4.67</v>
@@ -5619,24 +5549,22 @@
           <t>$0.69</t>
         </is>
       </c>
-      <c r="Z39" t="inlineStr">
+      <c r="Z39" s="2" t="n">
+        <v>45832</v>
+      </c>
+      <c r="AA39" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="AA39" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="AB39" t="inlineStr">
         <is>
-          <t>$24,518,912,000.00</t>
+          <t>$24,636,979,200.00</t>
         </is>
       </c>
       <c r="AC39" t="inlineStr">
         <is>
-          <t>2025-08-11</t>
+          <t>2025-08-12</t>
         </is>
       </c>
     </row>
@@ -5671,7 +5599,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>3.97%</t>
+          <t>4.01%</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -5681,7 +5609,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>$30.17</t>
+          <t>$29.94</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -5693,13 +5621,13 @@
         <v>1.09</v>
       </c>
       <c r="L40" t="n">
-        <v>25.35</v>
+        <v>25.16</v>
       </c>
       <c r="M40" t="n">
-        <v>23.76</v>
+        <v>23.57</v>
       </c>
       <c r="N40" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -5732,7 +5660,7 @@
         </is>
       </c>
       <c r="U40" t="n">
-        <v>18.23</v>
+        <v>18.1</v>
       </c>
       <c r="V40" t="n">
         <v>5.16</v>
@@ -5752,24 +5680,22 @@
           <t>$0.30</t>
         </is>
       </c>
-      <c r="Z40" t="inlineStr">
+      <c r="Z40" s="2" t="n">
+        <v>45838</v>
+      </c>
+      <c r="AA40" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="AA40" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="AB40" t="inlineStr">
         <is>
-          <t>$5,994,567,680.00</t>
+          <t>$5,948,868,096.00</t>
         </is>
       </c>
       <c r="AC40" t="inlineStr">
         <is>
-          <t>2025-08-11</t>
+          <t>2025-08-12</t>
         </is>
       </c>
     </row>
@@ -5804,7 +5730,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>4.04%</t>
+          <t>4.08%</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -5814,7 +5740,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>$251.90</t>
+          <t>$253.85</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -5826,13 +5752,13 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="L41" t="n">
-        <v>20.23</v>
+        <v>20.42</v>
       </c>
       <c r="M41" t="n">
-        <v>41.84</v>
+        <v>42.17</v>
       </c>
       <c r="N41" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -5865,7 +5791,7 @@
         </is>
       </c>
       <c r="U41" t="n">
-        <v>19.41</v>
+        <v>19.27</v>
       </c>
       <c r="V41" t="n">
         <v>5.66</v>
@@ -5885,24 +5811,22 @@
           <t>$2.57</t>
         </is>
       </c>
-      <c r="Z41" t="inlineStr">
+      <c r="Z41" s="2" t="n">
+        <v>45838</v>
+      </c>
+      <c r="AA41" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="AA41" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="AB41" t="inlineStr">
         <is>
-          <t>$17,398,353,920.00</t>
+          <t>$17,533,038,592.00</t>
         </is>
       </c>
       <c r="AC41" t="inlineStr">
         <is>
-          <t>2025-08-11</t>
+          <t>2025-08-12</t>
         </is>
       </c>
     </row>
@@ -5937,7 +5861,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>4.75%</t>
+          <t>4.79%</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -5947,7 +5871,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>$135.25</t>
+          <t>$135.84</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -5959,13 +5883,13 @@
         <v>1.08</v>
       </c>
       <c r="L42" t="n">
-        <v>29.4</v>
+        <v>29.53</v>
       </c>
       <c r="M42" t="n">
-        <v>28.29</v>
+        <v>28.42</v>
       </c>
       <c r="N42" t="n">
-        <v>2.08</v>
+        <v>2.09</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -5998,7 +5922,7 @@
         </is>
       </c>
       <c r="U42" t="n">
-        <v>19.16</v>
+        <v>19.06</v>
       </c>
       <c r="V42" t="n">
         <v>6.03</v>
@@ -6018,24 +5942,22 @@
           <t>$1.62</t>
         </is>
       </c>
-      <c r="Z42" t="inlineStr">
+      <c r="Z42" s="2" t="n">
+        <v>45824</v>
+      </c>
+      <c r="AA42" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="AA42" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="AB42" t="inlineStr">
         <is>
-          <t>$29,971,533,824.00</t>
+          <t>$30,102,278,144.00</t>
         </is>
       </c>
       <c r="AC42" t="inlineStr">
         <is>
-          <t>2025-08-11</t>
+          <t>2025-08-12</t>
         </is>
       </c>
     </row>
@@ -6070,7 +5992,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>2.54%</t>
+          <t>2.58%</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -6080,7 +6002,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>$223.76</t>
+          <t>$232.41</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -6092,13 +6014,13 @@
         <v>1.31</v>
       </c>
       <c r="L43" t="n">
-        <v>13.31</v>
+        <v>13.83</v>
       </c>
       <c r="M43" t="n">
-        <v>9.84</v>
+        <v>10.22</v>
       </c>
       <c r="N43" t="n">
-        <v>1.9</v>
+        <v>1.97</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -6151,24 +6073,22 @@
           <t>$1.45</t>
         </is>
       </c>
-      <c r="Z43" t="inlineStr">
+      <c r="Z43" s="2" t="n">
+        <v>45831</v>
+      </c>
+      <c r="AA43" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="AA43" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="AB43" t="inlineStr">
         <is>
-          <t>$52,785,942,528.00</t>
+          <t>$54,825,287,680.00</t>
         </is>
       </c>
       <c r="AC43" t="inlineStr">
         <is>
-          <t>2025-08-11</t>
+          <t>2025-08-12</t>
         </is>
       </c>
     </row>
@@ -6203,35 +6123,35 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>2.65%</t>
+          <t>2.62%</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>$72.43</t>
+          <t>$72.67</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>$119.10</t>
+          <t>$119.56</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>$121.38</t>
+          <t>$121.82</t>
         </is>
       </c>
       <c r="K44" t="n">
         <v>0.35</v>
       </c>
       <c r="L44" t="n">
-        <v>23.63</v>
+        <v>23.72</v>
       </c>
       <c r="M44" t="n">
-        <v>16.03</v>
+        <v>16.09</v>
       </c>
       <c r="N44" t="n">
-        <v>7.52</v>
+        <v>7.55</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -6264,7 +6184,7 @@
         </is>
       </c>
       <c r="U44" t="n">
-        <v>12.1</v>
+        <v>12.19</v>
       </c>
       <c r="V44" t="n">
         <v>1.81</v>
@@ -6284,24 +6204,22 @@
           <t>$0.79</t>
         </is>
       </c>
-      <c r="Z44" t="inlineStr">
+      <c r="Z44" s="2" t="n">
+        <v>45821</v>
+      </c>
+      <c r="AA44" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="AA44" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="AB44" t="inlineStr">
         <is>
-          <t>$147,774,504,960.00</t>
+          <t>$148,357,447,680.00</t>
         </is>
       </c>
       <c r="AC44" t="inlineStr">
         <is>
-          <t>2025-08-11</t>
+          <t>2025-08-12</t>
         </is>
       </c>
     </row>
@@ -6346,7 +6264,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>$314.42</t>
+          <t>$313.03</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -6358,13 +6276,13 @@
         <v>0.49</v>
       </c>
       <c r="L45" t="n">
-        <v>21.12</v>
+        <v>21.01</v>
       </c>
       <c r="M45" t="n">
-        <v>19.55</v>
+        <v>19.47</v>
       </c>
       <c r="N45" t="n">
-        <v>3.58</v>
+        <v>3.57</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -6397,7 +6315,7 @@
         </is>
       </c>
       <c r="U45" t="n">
-        <v>15.39</v>
+        <v>15.43</v>
       </c>
       <c r="V45" t="n">
         <v>1.75</v>
@@ -6417,24 +6335,22 @@
           <t>$1.50</t>
         </is>
       </c>
-      <c r="Z45" t="inlineStr">
+      <c r="Z45" s="2" t="n">
+        <v>45841</v>
+      </c>
+      <c r="AA45" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="AA45" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="AB45" t="inlineStr">
         <is>
-          <t>$84,576,780,288.00</t>
+          <t>$84,202,872,832.00</t>
         </is>
       </c>
       <c r="AC45" t="inlineStr">
         <is>
-          <t>2025-08-11</t>
+          <t>2025-08-12</t>
         </is>
       </c>
     </row>
@@ -6479,25 +6395,25 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>$720.70</t>
+          <t>$748.13</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>$737.88</t>
+          <t>$748.13</t>
         </is>
       </c>
       <c r="K46" t="n">
         <v>1.37</v>
       </c>
       <c r="L46" t="n">
-        <v>15.88</v>
+        <v>16.49</v>
       </c>
       <c r="M46" t="n">
-        <v>17.34</v>
+        <v>18</v>
       </c>
       <c r="N46" t="n">
-        <v>1.91</v>
+        <v>1.99</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
@@ -6552,24 +6468,22 @@
           <t>$3.00</t>
         </is>
       </c>
-      <c r="Z46" t="inlineStr">
+      <c r="Z46" s="2" t="n">
+        <v>45807</v>
+      </c>
+      <c r="AA46" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="AA46" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="AB46" t="inlineStr">
         <is>
-          <t>$218,169,507,840.00</t>
+          <t>$226,476,179,456.00</t>
         </is>
       </c>
       <c r="AC46" t="inlineStr">
         <is>
-          <t>2025-08-11</t>
+          <t>2025-08-12</t>
         </is>
       </c>
     </row>
@@ -6604,7 +6518,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>3.09%</t>
+          <t>3.08%</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -6614,7 +6528,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>$9.85</t>
+          <t>$10.04</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -6626,13 +6540,13 @@
         <v>1.04</v>
       </c>
       <c r="L47" t="n">
-        <v>42.83</v>
+        <v>43.63</v>
       </c>
       <c r="M47" t="n">
-        <v>33.97</v>
+        <v>34.6</v>
       </c>
       <c r="N47" t="n">
-        <v>3.5</v>
+        <v>3.57</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
@@ -6665,7 +6579,7 @@
         </is>
       </c>
       <c r="U47" t="n">
-        <v>16.16</v>
+        <v>16.19</v>
       </c>
       <c r="V47" t="n">
         <v>5.55</v>
@@ -6685,24 +6599,22 @@
           <t>$0.03</t>
         </is>
       </c>
-      <c r="Z47" t="inlineStr">
+      <c r="Z47" s="2" t="n">
+        <v>45855</v>
+      </c>
+      <c r="AA47" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="AA47" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="AB47" t="inlineStr">
         <is>
-          <t>$270,392,352.00</t>
+          <t>$275,470,784.00</t>
         </is>
       </c>
       <c r="AC47" t="inlineStr">
         <is>
-          <t>2025-08-11</t>
+          <t>2025-08-12</t>
         </is>
       </c>
     </row>
@@ -6737,7 +6649,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>4.27%</t>
+          <t>4.25%</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -6747,7 +6659,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>$32.66</t>
+          <t>$33.58</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -6759,10 +6671,10 @@
         <v>0.33</v>
       </c>
       <c r="L48" t="n">
-        <v>11.15</v>
+        <v>11.5</v>
       </c>
       <c r="M48" t="n">
-        <v>6.59</v>
+        <v>6.77</v>
       </c>
       <c r="N48" t="n">
         <v>0.01</v>
@@ -6818,24 +6730,22 @@
           <t>$0.71</t>
         </is>
       </c>
-      <c r="Z48" t="inlineStr">
+      <c r="Z48" s="2" t="n">
+        <v>45744</v>
+      </c>
+      <c r="AA48" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="AA48" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="AB48" t="inlineStr">
         <is>
-          <t>$43,810,623,488.00</t>
+          <t>$44,687,597,568.00</t>
         </is>
       </c>
       <c r="AC48" t="inlineStr">
         <is>
-          <t>2025-08-11</t>
+          <t>2025-08-12</t>
         </is>
       </c>
     </row>
@@ -6880,7 +6790,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>$215.11</t>
+          <t>$216.66</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -6892,13 +6802,13 @@
         <v>1.06</v>
       </c>
       <c r="L49" t="n">
-        <v>24.5</v>
+        <v>24.65</v>
       </c>
       <c r="M49" t="n">
-        <v>19.54</v>
+        <v>19.68</v>
       </c>
       <c r="N49" t="n">
-        <v>8.49</v>
+        <v>8.550000000000001</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
@@ -6931,7 +6841,7 @@
         </is>
       </c>
       <c r="U49" t="n">
-        <v>16.55</v>
+        <v>16.56</v>
       </c>
       <c r="V49" t="n">
         <v>3.78</v>
@@ -6951,24 +6861,22 @@
           <t>$1.13</t>
         </is>
       </c>
-      <c r="Z49" t="inlineStr">
+      <c r="Z49" s="2" t="n">
+        <v>45793</v>
+      </c>
+      <c r="AA49" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="AA49" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="AB49" t="inlineStr">
         <is>
-          <t>$136,572,698,624.00</t>
+          <t>$137,563,144,192.00</t>
         </is>
       </c>
       <c r="AC49" t="inlineStr">
         <is>
-          <t>2025-08-11</t>
+          <t>2025-08-12</t>
         </is>
       </c>
     </row>
@@ -7003,7 +6911,7 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>4.43%</t>
+          <t>4.54%</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -7013,7 +6921,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>$25.52</t>
+          <t>$26.57</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -7025,46 +6933,46 @@
         <v>1.31</v>
       </c>
       <c r="L50" t="n">
-        <v>9.82</v>
+        <v>10.22</v>
       </c>
       <c r="M50" t="n">
+        <v>7.38</v>
+      </c>
+      <c r="N50" t="n">
+        <v>-19.61</v>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>4.64%</t>
+        </is>
+      </c>
+      <c r="Q50" t="inlineStr">
+        <is>
+          <t>43.46%</t>
+        </is>
+      </c>
+      <c r="R50" t="inlineStr">
+        <is>
+          <t>$13,220,000,000.00</t>
+        </is>
+      </c>
+      <c r="S50" t="inlineStr">
+        <is>
+          <t>$406,000,000.00</t>
+        </is>
+      </c>
+      <c r="T50" t="inlineStr">
+        <is>
+          <t>$2,652,750,080.00</t>
+        </is>
+      </c>
+      <c r="U50" t="n">
         <v>7.09</v>
-      </c>
-      <c r="N50" t="n">
-        <v>-18.84</v>
-      </c>
-      <c r="O50" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-      <c r="P50" t="inlineStr">
-        <is>
-          <t>4.64%</t>
-        </is>
-      </c>
-      <c r="Q50" t="inlineStr">
-        <is>
-          <t>43.46%</t>
-        </is>
-      </c>
-      <c r="R50" t="inlineStr">
-        <is>
-          <t>$13,220,000,000.00</t>
-        </is>
-      </c>
-      <c r="S50" t="inlineStr">
-        <is>
-          <t>$406,000,000.00</t>
-        </is>
-      </c>
-      <c r="T50" t="inlineStr">
-        <is>
-          <t>$2,652,750,080.00</t>
-        </is>
-      </c>
-      <c r="U50" t="n">
-        <v>7.21</v>
       </c>
       <c r="V50" t="n">
         <v>2.55</v>
@@ -7084,24 +6992,22 @@
           <t>$0.29</t>
         </is>
       </c>
-      <c r="Z50" t="inlineStr">
+      <c r="Z50" s="2" t="n">
+        <v>45819</v>
+      </c>
+      <c r="AA50" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="AA50" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="AB50" t="inlineStr">
         <is>
-          <t>$23,974,662,144.00</t>
+          <t>$24,951,787,520.00</t>
         </is>
       </c>
       <c r="AC50" t="inlineStr">
         <is>
-          <t>2025-08-11</t>
+          <t>2025-08-12</t>
         </is>
       </c>
     </row>
@@ -7136,17 +7042,17 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>3.14%</t>
+          <t>3.12%</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>$41.44</t>
+          <t>$41.68</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>$64.14</t>
+          <t>$65.05</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -7158,13 +7064,13 @@
         <v>0.5</v>
       </c>
       <c r="L51" t="n">
-        <v>12.7</v>
+        <v>12.88</v>
       </c>
       <c r="M51" t="n">
-        <v>46.14</v>
+        <v>46.79</v>
       </c>
       <c r="N51" t="n">
-        <v>6.49</v>
+        <v>6.59</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
@@ -7219,24 +7125,22 @@
           <t>$0.50</t>
         </is>
       </c>
-      <c r="Z51" t="inlineStr">
+      <c r="Z51" s="2" t="n">
+        <v>45786</v>
+      </c>
+      <c r="AA51" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="AA51" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="AB51" t="inlineStr">
         <is>
-          <t>$222,940,971,008.00</t>
+          <t>$226,104,229,888.00</t>
         </is>
       </c>
       <c r="AC51" t="inlineStr">
         <is>
-          <t>2025-08-11</t>
+          <t>2025-08-12</t>
         </is>
       </c>
     </row>
@@ -7271,17 +7175,17 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>2.77%</t>
+          <t>2.84%</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>$189.00</t>
+          <t>$189.21</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>$236.50</t>
+          <t>$234.26</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -7293,13 +7197,13 @@
         <v>0.68</v>
       </c>
       <c r="L52" t="n">
-        <v>38.15</v>
+        <v>37.85</v>
       </c>
       <c r="M52" t="n">
-        <v>22.29</v>
+        <v>22.08</v>
       </c>
       <c r="N52" t="n">
-        <v>8.01</v>
+        <v>7.93</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
@@ -7332,7 +7236,7 @@
         </is>
       </c>
       <c r="U52" t="n">
-        <v>19.6</v>
+        <v>19.21</v>
       </c>
       <c r="V52" t="n">
         <v>4.77</v>
@@ -7352,24 +7256,22 @@
           <t>$1.68</t>
         </is>
       </c>
-      <c r="Z52" t="inlineStr">
+      <c r="Z52" s="2" t="n">
+        <v>45877</v>
+      </c>
+      <c r="AA52" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="AA52" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="AB52" t="inlineStr">
         <is>
-          <t>$220,304,244,736.00</t>
+          <t>$218,218,283,008.00</t>
         </is>
       </c>
       <c r="AC52" t="inlineStr">
         <is>
-          <t>2025-08-11</t>
+          <t>2025-08-12</t>
         </is>
       </c>
     </row>
@@ -7404,7 +7306,7 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>3.87%</t>
+          <t>3.88%</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -7414,7 +7316,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>$29.86</t>
+          <t>$29.93</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -7426,13 +7328,13 @@
         <v>0.78</v>
       </c>
       <c r="L53" t="n">
-        <v>33.54</v>
+        <v>33.62</v>
       </c>
       <c r="M53" t="n">
-        <v>40.34</v>
+        <v>40.44</v>
       </c>
       <c r="N53" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
@@ -7465,7 +7367,7 @@
         </is>
       </c>
       <c r="U53" t="n">
-        <v>18.25</v>
+        <v>18.23</v>
       </c>
       <c r="V53" t="n">
         <v>5.65</v>
@@ -7485,24 +7387,22 @@
           <t>$0.29</t>
         </is>
       </c>
-      <c r="Z53" t="inlineStr">
+      <c r="Z53" s="2" t="n">
+        <v>45834</v>
+      </c>
+      <c r="AA53" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="AA53" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="AB53" t="inlineStr">
         <is>
-          <t>$18,301,353,984.00</t>
+          <t>$18,344,263,680.00</t>
         </is>
       </c>
       <c r="AC53" t="inlineStr">
         <is>
-          <t>2025-08-11</t>
+          <t>2025-08-12</t>
         </is>
       </c>
     </row>
@@ -7537,7 +7437,7 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>3.00%</t>
+          <t>2.99%</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -7547,25 +7447,25 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>$173.48</t>
+          <t>$172.06</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>$174.60</t>
+          <t>$174.75</t>
         </is>
       </c>
       <c r="K54" t="n">
         <v>0.4</v>
       </c>
       <c r="L54" t="n">
-        <v>18.57</v>
+        <v>18.44</v>
       </c>
       <c r="M54" t="n">
-        <v>16.37</v>
+        <v>16.23</v>
       </c>
       <c r="N54" t="n">
-        <v>5.32</v>
+        <v>5.28</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
@@ -7598,7 +7498,7 @@
         </is>
       </c>
       <c r="U54" t="n">
-        <v>14.85</v>
+        <v>14.89</v>
       </c>
       <c r="V54" t="n">
         <v>1.68</v>
@@ -7618,24 +7518,22 @@
           <t>$1.30</t>
         </is>
       </c>
-      <c r="Z54" t="inlineStr">
+      <c r="Z54" s="2" t="n">
+        <v>45804</v>
+      </c>
+      <c r="AA54" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="AA54" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="AB54" t="inlineStr">
         <is>
-          <t>$417,798,815,744.00</t>
+          <t>$414,366,924,800.00</t>
         </is>
       </c>
       <c r="AC54" t="inlineStr">
         <is>
-          <t>2025-08-11</t>
+          <t>2025-08-12</t>
         </is>
       </c>
     </row>
@@ -7670,7 +7568,7 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>1.94%</t>
+          <t>1.93%</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -7680,7 +7578,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>$289.98</t>
+          <t>$293.94</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -7692,13 +7590,13 @@
         <v>1.11</v>
       </c>
       <c r="L55" t="n">
-        <v>14.88</v>
+        <v>15.08</v>
       </c>
       <c r="M55" t="n">
-        <v>17.32</v>
+        <v>17.56</v>
       </c>
       <c r="N55" t="n">
-        <v>2.37</v>
+        <v>2.4</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
@@ -7753,24 +7651,22 @@
           <t>$1.40</t>
         </is>
       </c>
-      <c r="Z55" t="inlineStr">
+      <c r="Z55" s="2" t="n">
+        <v>45841</v>
+      </c>
+      <c r="AA55" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="AA55" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="AB55" t="inlineStr">
         <is>
-          <t>$797,358,751,744.00</t>
+          <t>$808,220,229,632.00</t>
         </is>
       </c>
       <c r="AC55" t="inlineStr">
         <is>
-          <t>2025-08-11</t>
+          <t>2025-08-12</t>
         </is>
       </c>
     </row>
@@ -7815,7 +7711,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>$20.86</t>
+          <t>$21.05</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -7827,13 +7723,13 @@
         <v>1.32</v>
       </c>
       <c r="L56" t="n">
-        <v>25.46</v>
+        <v>25.68</v>
       </c>
       <c r="M56" t="n">
-        <v>29.83</v>
+        <v>30.08</v>
       </c>
       <c r="N56" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
@@ -7886,24 +7782,22 @@
           <t>$0.25</t>
         </is>
       </c>
-      <c r="Z56" t="inlineStr">
+      <c r="Z56" s="2" t="n">
+        <v>45814</v>
+      </c>
+      <c r="AA56" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="AA56" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="AB56" t="inlineStr">
         <is>
-          <t>$14,139,935,744.00</t>
+          <t>$14,258,446,336.00</t>
         </is>
       </c>
       <c r="AC56" t="inlineStr">
         <is>
-          <t>2025-08-11</t>
+          <t>2025-08-12</t>
         </is>
       </c>
     </row>
@@ -7938,7 +7832,7 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>3.70%</t>
+          <t>3.76%</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -7948,7 +7842,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>$134.06</t>
+          <t>$132.93</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -7960,13 +7854,13 @@
         <v>0.34</v>
       </c>
       <c r="L57" t="n">
-        <v>18.34</v>
+        <v>18.18</v>
       </c>
       <c r="M57" t="n">
-        <v>17.57</v>
+        <v>17.42</v>
       </c>
       <c r="N57" t="n">
-        <v>35.01</v>
+        <v>34.72</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
@@ -7999,7 +7893,7 @@
         </is>
       </c>
       <c r="U57" t="n">
-        <v>13.57</v>
+        <v>13.4</v>
       </c>
       <c r="V57" t="n">
         <v>1.9</v>
@@ -8019,24 +7913,22 @@
           <t>$1.26</t>
         </is>
       </c>
-      <c r="Z57" t="inlineStr">
+      <c r="Z57" s="2" t="n">
+        <v>45814</v>
+      </c>
+      <c r="AA57" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="AA57" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="AB57" t="inlineStr">
         <is>
-          <t>$44,480,086,016.00</t>
+          <t>$44,103,512,064.00</t>
         </is>
       </c>
       <c r="AC57" t="inlineStr">
         <is>
-          <t>2025-08-11</t>
+          <t>2025-08-12</t>
         </is>
       </c>
     </row>
@@ -8071,7 +7963,7 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>2.90%</t>
+          <t>2.88%</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -8081,7 +7973,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>$70.41</t>
+          <t>$70.72</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -8093,13 +7985,13 @@
         <v>0.44</v>
       </c>
       <c r="L58" t="n">
-        <v>24.97</v>
+        <v>25.08</v>
       </c>
       <c r="M58" t="n">
-        <v>23.71</v>
+        <v>23.81</v>
       </c>
       <c r="N58" t="n">
-        <v>10.6</v>
+        <v>10.65</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
@@ -8132,7 +8024,7 @@
         </is>
       </c>
       <c r="U58" t="n">
-        <v>21.55</v>
+        <v>21.66</v>
       </c>
       <c r="V58" t="n">
         <v>3.18</v>
@@ -8152,24 +8044,22 @@
           <t>$0.51</t>
         </is>
       </c>
-      <c r="Z58" t="inlineStr">
+      <c r="Z58" s="2" t="n">
+        <v>45821</v>
+      </c>
+      <c r="AA58" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="AA58" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="AB58" t="inlineStr">
         <is>
-          <t>$302,999,863,296.00</t>
+          <t>$304,377,036,800.00</t>
         </is>
       </c>
       <c r="AC58" t="inlineStr">
         <is>
-          <t>2025-08-11</t>
+          <t>2025-08-12</t>
         </is>
       </c>
     </row>
@@ -8204,7 +8094,7 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>5.71%</t>
+          <t>5.91%</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -8214,7 +8104,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>$37.06</t>
+          <t>$37.62</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -8226,13 +8116,13 @@
         <v>1.24</v>
       </c>
       <c r="L59" t="n">
-        <v>20.14</v>
+        <v>20.45</v>
       </c>
       <c r="M59" t="n">
-        <v>28.73</v>
+        <v>29.16</v>
       </c>
       <c r="N59" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
@@ -8265,7 +8155,7 @@
         </is>
       </c>
       <c r="U59" t="n">
-        <v>14.06</v>
+        <v>13.83</v>
       </c>
       <c r="V59" t="n">
         <v>7.2</v>
@@ -8285,24 +8175,22 @@
           <t>$0.54</t>
         </is>
       </c>
-      <c r="Z59" t="inlineStr">
+      <c r="Z59" s="2" t="n">
+        <v>45838</v>
+      </c>
+      <c r="AA59" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="AA59" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="AB59" t="inlineStr">
         <is>
-          <t>$4,426,631,680.00</t>
+          <t>$4,493,520,896.00</t>
         </is>
       </c>
       <c r="AC59" t="inlineStr">
         <is>
-          <t>2025-08-11</t>
+          <t>2025-08-12</t>
         </is>
       </c>
     </row>
@@ -8337,7 +8225,7 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>1.27%</t>
+          <t>1.28%</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -8347,7 +8235,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>$467.78</t>
+          <t>$473.92</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -8359,13 +8247,13 @@
         <v>0.93</v>
       </c>
       <c r="L60" t="n">
-        <v>33.22</v>
+        <v>33.71</v>
       </c>
       <c r="M60" t="n">
-        <v>27.6</v>
+        <v>27.96</v>
       </c>
       <c r="N60" t="n">
-        <v>5.7</v>
+        <v>5.77</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
@@ -8398,7 +8286,7 @@
         </is>
       </c>
       <c r="U60" t="n">
-        <v>18.82</v>
+        <v>18.75</v>
       </c>
       <c r="V60" t="n">
         <v>2</v>
@@ -8418,24 +8306,22 @@
           <t>$1.50</t>
         </is>
       </c>
-      <c r="Z60" t="inlineStr">
+      <c r="Z60" s="2" t="n">
+        <v>45812</v>
+      </c>
+      <c r="AA60" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="AA60" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="AB60" t="inlineStr">
         <is>
-          <t>$219,346,255,872.00</t>
+          <t>$222,225,842,176.00</t>
         </is>
       </c>
       <c r="AC60" t="inlineStr">
         <is>
-          <t>2025-08-11</t>
+          <t>2025-08-12</t>
         </is>
       </c>
     </row>
@@ -8480,7 +8366,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>$426.32</t>
+          <t>$427.02</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -8492,13 +8378,13 @@
         <v>0.26</v>
       </c>
       <c r="L61" t="n">
-        <v>23.91</v>
+        <v>23.96</v>
       </c>
       <c r="M61" t="n">
-        <v>15.17</v>
+        <v>15.19</v>
       </c>
       <c r="N61" t="n">
-        <v>18.54</v>
+        <v>18.57</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
@@ -8531,7 +8417,7 @@
         </is>
       </c>
       <c r="U61" t="n">
-        <v>16.64</v>
+        <v>16.66</v>
       </c>
       <c r="V61" t="n">
         <v>3.01</v>
@@ -8551,24 +8437,22 @@
           <t>$3.30</t>
         </is>
       </c>
-      <c r="Z61" t="inlineStr">
+      <c r="Z61" s="2" t="n">
+        <v>45810</v>
+      </c>
+      <c r="AA61" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="AA61" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="AB61" t="inlineStr">
         <is>
-          <t>$99,530,801,152.00</t>
+          <t>$99,694,215,168.00</t>
         </is>
       </c>
       <c r="AC61" t="inlineStr">
         <is>
-          <t>2025-08-11</t>
+          <t>2025-08-12</t>
         </is>
       </c>
     </row>
@@ -8613,25 +8497,25 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>$102.53</t>
+          <t>$104.89</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>$104.15</t>
+          <t>$105.64</t>
         </is>
       </c>
       <c r="K62" t="n">
         <v>1.66</v>
       </c>
       <c r="L62" t="n">
-        <v>24.71</v>
+        <v>25.27</v>
       </c>
       <c r="M62" t="n">
-        <v>24.01</v>
+        <v>24.56</v>
       </c>
       <c r="N62" t="n">
-        <v>13.19</v>
+        <v>13.49</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
@@ -8664,7 +8548,7 @@
         </is>
       </c>
       <c r="U62" t="n">
-        <v>20.23</v>
+        <v>20.28</v>
       </c>
       <c r="V62" t="n">
         <v>0.71</v>
@@ -8684,24 +8568,22 @@
           <t>$0.23</t>
         </is>
       </c>
-      <c r="Z62" t="inlineStr">
+      <c r="Z62" s="2" t="n">
+        <v>45826</v>
+      </c>
+      <c r="AA62" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="AA62" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="AB62" t="inlineStr">
         <is>
-          <t>$130,083,905,536.00</t>
+          <t>$133,078,130,688.00</t>
         </is>
       </c>
       <c r="AC62" t="inlineStr">
         <is>
-          <t>2025-08-11</t>
+          <t>2025-08-12</t>
         </is>
       </c>
     </row>
@@ -8736,7 +8618,7 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>11.17%</t>
+          <t>11.34%</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -8746,7 +8628,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>$48.40</t>
+          <t>$50.06</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -8758,13 +8640,13 @@
         <v>0.87</v>
       </c>
       <c r="L63" t="n">
-        <v>102.97</v>
+        <v>106.51</v>
       </c>
       <c r="M63" t="n">
-        <v>5.62</v>
+        <v>5.81</v>
       </c>
       <c r="N63" t="n">
-        <v>1.31</v>
+        <v>1.35</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
@@ -8797,7 +8679,7 @@
         </is>
       </c>
       <c r="U63" t="n">
-        <v>9.789999999999999</v>
+        <v>9.710000000000001</v>
       </c>
       <c r="V63" t="n">
         <v>4.75</v>
@@ -8817,24 +8699,22 @@
           <t>$1.37</t>
         </is>
       </c>
-      <c r="Z63" t="inlineStr">
+      <c r="Z63" s="2" t="n">
+        <v>45810</v>
+      </c>
+      <c r="AA63" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="AA63" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="AB63" t="inlineStr">
         <is>
-          <t>$15,566,154,752.00</t>
+          <t>$16,101,699,584.00</t>
         </is>
       </c>
       <c r="AC63" t="inlineStr">
         <is>
-          <t>2025-08-11</t>
+          <t>2025-08-12</t>
         </is>
       </c>
     </row>
@@ -8869,7 +8749,7 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>6.49%</t>
+          <t>6.46%</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -8879,25 +8759,25 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>$65.52</t>
+          <t>$66.60</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>$67.00</t>
+          <t>$67.03</t>
         </is>
       </c>
       <c r="K64" t="n">
         <v>0.85</v>
       </c>
       <c r="L64" t="n">
-        <v>11.11</v>
+        <v>10.95</v>
       </c>
       <c r="M64" t="n">
-        <v>16.97</v>
+        <v>17.25</v>
       </c>
       <c r="N64" t="n">
-        <v>2.03</v>
+        <v>2.06</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
@@ -8911,22 +8791,22 @@
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>70.34%</t>
+          <t>68.75%</t>
         </is>
       </c>
       <c r="R64" t="inlineStr">
         <is>
-          <t>$139,523,000.00</t>
+          <t>$144,923,000.00</t>
         </is>
       </c>
       <c r="S64" t="inlineStr">
         <is>
-          <t>$116,082,000.00</t>
+          <t>$122,534,000.00</t>
         </is>
       </c>
       <c r="T64" t="inlineStr">
         <is>
-          <t>$0.00</t>
+          <t>$337,742,624.00</t>
         </is>
       </c>
       <c r="U64" t="n">
@@ -8952,24 +8832,22 @@
           <t>$0.26</t>
         </is>
       </c>
-      <c r="Z64" t="inlineStr">
+      <c r="Z64" s="2" t="n">
+        <v>45877</v>
+      </c>
+      <c r="AA64" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="AA64" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="AB64" t="inlineStr">
         <is>
-          <t>$5,833,205,760.00</t>
+          <t>$5,955,787,264.00</t>
         </is>
       </c>
       <c r="AC64" t="inlineStr">
         <is>
-          <t>2025-08-11</t>
+          <t>2025-08-12</t>
         </is>
       </c>
     </row>
@@ -9004,17 +8882,17 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>4.31%</t>
+          <t>4.38%</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>$138.66</t>
+          <t>$137.32</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>$139.15</t>
+          <t>$138.21</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -9026,13 +8904,13 @@
         <v>0.75</v>
       </c>
       <c r="L65" t="n">
-        <v>28.63</v>
+        <v>28.44</v>
       </c>
       <c r="M65" t="n">
-        <v>33.53</v>
+        <v>33.3</v>
       </c>
       <c r="N65" t="n">
-        <v>2.77</v>
+        <v>2.75</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
@@ -9065,7 +8943,7 @@
         </is>
       </c>
       <c r="U65" t="n">
-        <v>17.45</v>
+        <v>17.26</v>
       </c>
       <c r="V65" t="n">
         <v>4.09</v>
@@ -9085,24 +8963,22 @@
           <t>$1.51</t>
         </is>
       </c>
-      <c r="Z65" t="inlineStr">
+      <c r="Z65" s="2" t="n">
+        <v>45853</v>
+      </c>
+      <c r="AA65" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="AA65" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="AB65" t="inlineStr">
         <is>
-          <t>$16,700,921,856.00</t>
+          <t>$16,588,103,680.00</t>
         </is>
       </c>
       <c r="AC65" t="inlineStr">
         <is>
-          <t>2025-08-11</t>
+          <t>2025-08-12</t>
         </is>
       </c>
     </row>
@@ -9137,17 +9013,17 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>2.32%</t>
+          <t>2.33%</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>$265.33</t>
+          <t>$267.54</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>$304.38</t>
+          <t>$301.49</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -9159,13 +9035,13 @@
         <v>0.52</v>
       </c>
       <c r="L66" t="n">
-        <v>26.08</v>
+        <v>25.86</v>
       </c>
       <c r="M66" t="n">
-        <v>24.14</v>
+        <v>23.91</v>
       </c>
       <c r="N66" t="n">
-        <v>-78.69</v>
+        <v>-77.94</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
@@ -9198,7 +9074,7 @@
         </is>
       </c>
       <c r="U66" t="n">
-        <v>19.19</v>
+        <v>19.14</v>
       </c>
       <c r="V66" t="n">
         <v>3.94</v>
@@ -9218,24 +9094,22 @@
           <t>$1.77</t>
         </is>
       </c>
-      <c r="Z66" t="inlineStr">
+      <c r="Z66" s="2" t="n">
+        <v>45810</v>
+      </c>
+      <c r="AA66" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="AA66" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="AB66" t="inlineStr">
         <is>
-          <t>$217,206,718,464.00</t>
+          <t>$215,144,448,000.00</t>
         </is>
       </c>
       <c r="AC66" t="inlineStr">
         <is>
-          <t>2025-08-11</t>
+          <t>2025-08-12</t>
         </is>
       </c>
     </row>
@@ -9280,7 +9154,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>$92.44</t>
+          <t>$91.53</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -9292,13 +9166,13 @@
         <v>0.82</v>
       </c>
       <c r="L67" t="n">
-        <v>25.61</v>
+        <v>25.35</v>
       </c>
       <c r="M67" t="n">
-        <v>15.8</v>
+        <v>15.65</v>
       </c>
       <c r="N67" t="n">
-        <v>2.47</v>
+        <v>2.44</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
@@ -9331,7 +9205,7 @@
         </is>
       </c>
       <c r="U67" t="n">
-        <v>15.35</v>
+        <v>15.33</v>
       </c>
       <c r="V67" t="n">
         <v>3.25</v>
@@ -9351,24 +9225,22 @@
           <t>$0.71</t>
         </is>
       </c>
-      <c r="Z67" t="inlineStr">
+      <c r="Z67" s="2" t="n">
+        <v>45835</v>
+      </c>
+      <c r="AA67" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="AA67" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="AB67" t="inlineStr">
         <is>
-          <t>$118,433,267,712.00</t>
+          <t>$117,273,731,072.00</t>
         </is>
       </c>
       <c r="AC67" t="inlineStr">
         <is>
-          <t>2025-08-11</t>
+          <t>2025-08-12</t>
         </is>
       </c>
     </row>
@@ -9403,7 +9275,7 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>2.98%</t>
+          <t>3.01%</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -9413,7 +9285,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>$75.30</t>
+          <t>$76.66</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -9425,13 +9297,13 @@
         <v>0.83</v>
       </c>
       <c r="L68" t="n">
-        <v>12.78</v>
+        <v>13.02</v>
       </c>
       <c r="M68" t="n">
-        <v>7.77</v>
+        <v>7.91</v>
       </c>
       <c r="N68" t="n">
-        <v>1.81</v>
+        <v>1.85</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
@@ -9464,7 +9336,7 @@
         </is>
       </c>
       <c r="U68" t="n">
-        <v>9.44</v>
+        <v>9.35</v>
       </c>
       <c r="V68" t="n">
         <v>6.62</v>
@@ -9484,24 +9356,22 @@
           <t>$0.57</t>
         </is>
       </c>
-      <c r="Z68" t="inlineStr">
+      <c r="Z68" s="2" t="n">
+        <v>45874</v>
+      </c>
+      <c r="AA68" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="AA68" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="AB68" t="inlineStr">
         <is>
-          <t>$50,076,459,008.00</t>
+          <t>$50,980,962,304.00</t>
         </is>
       </c>
       <c r="AC68" t="inlineStr">
         <is>
-          <t>2025-08-11</t>
+          <t>2025-08-12</t>
         </is>
       </c>
     </row>
@@ -9536,7 +9406,7 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>1.90%</t>
+          <t>1.88%</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -9546,7 +9416,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>$154.84</t>
+          <t>$157.89</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -9558,14 +9428,14 @@
         <v>1.1</v>
       </c>
       <c r="L69" t="n">
-        <v>21.48</v>
+        <v>21.9</v>
       </c>
       <c r="M69" t="n">
+        <v>19.99</v>
+      </c>
+      <c r="N69" t="n">
         <v>19.6</v>
       </c>
-      <c r="N69" t="n">
-        <v>19.22</v>
-      </c>
       <c r="O69" t="inlineStr">
         <is>
           <t>94.76%</t>
@@ -9597,7 +9467,7 @@
         </is>
       </c>
       <c r="U69" t="n">
-        <v>15.75</v>
+        <v>15.94</v>
       </c>
       <c r="V69" t="n">
         <v>2.38</v>
@@ -9617,24 +9487,22 @@
           <t>$0.73</t>
         </is>
       </c>
-      <c r="Z69" t="inlineStr">
+      <c r="Z69" s="2" t="n">
+        <v>45800</v>
+      </c>
+      <c r="AA69" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="AA69" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="AB69" t="inlineStr">
         <is>
-          <t>$82,469,773,312.00</t>
+          <t>$84,096,950,272.00</t>
         </is>
       </c>
       <c r="AC69" t="inlineStr">
         <is>
-          <t>2025-08-11</t>
+          <t>2025-08-12</t>
         </is>
       </c>
     </row>
@@ -9669,35 +9537,35 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>2.79%</t>
+          <t>2.78%</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>$93.54</t>
+          <t>$94.09</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>$144.06</t>
+          <t>$148.03</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>$145.48</t>
+          <t>$148.08</t>
         </is>
       </c>
       <c r="K70" t="n">
         <v>1.32</v>
       </c>
       <c r="L70" t="n">
-        <v>16.31</v>
+        <v>16.76</v>
       </c>
       <c r="M70" t="n">
-        <v>18.17</v>
+        <v>18.67</v>
       </c>
       <c r="N70" t="n">
-        <v>2.34</v>
+        <v>2.4</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
@@ -9752,24 +9620,22 @@
           <t>$1.00</t>
         </is>
       </c>
-      <c r="Z70" t="inlineStr">
+      <c r="Z70" s="2" t="n">
+        <v>45869</v>
+      </c>
+      <c r="AA70" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="AA70" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="AB70" t="inlineStr">
         <is>
-          <t>$229,964,742,656.00</t>
+          <t>$236,306,202,624.00</t>
         </is>
       </c>
       <c r="AC70" t="inlineStr">
         <is>
-          <t>2025-08-11</t>
+          <t>2025-08-12</t>
         </is>
       </c>
     </row>
@@ -9814,7 +9680,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>$524.45</t>
+          <t>$529.05</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -9826,13 +9692,13 @@
         <v>1.05</v>
       </c>
       <c r="L71" t="n">
-        <v>38.48</v>
+        <v>38.84</v>
       </c>
       <c r="M71" t="n">
-        <v>35.08</v>
+        <v>35.39</v>
       </c>
       <c r="N71" t="n">
-        <v>11.35</v>
+        <v>11.45</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
@@ -9865,7 +9731,7 @@
         </is>
       </c>
       <c r="U71" t="n">
-        <v>24.9</v>
+        <v>24.89</v>
       </c>
       <c r="V71" t="n">
         <v>0.72</v>
@@ -9885,24 +9751,22 @@
           <t>$0.83</t>
         </is>
       </c>
-      <c r="Z71" t="inlineStr">
+      <c r="Z71" s="2" t="n">
+        <v>45792</v>
+      </c>
+      <c r="AA71" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="AA71" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="AB71" t="inlineStr">
         <is>
-          <t>$3,898,548,944,896.00</t>
+          <t>$3,932,518,350,848.00</t>
         </is>
       </c>
       <c r="AC71" t="inlineStr">
         <is>
-          <t>2025-08-11</t>
+          <t>2025-08-12</t>
         </is>
       </c>
     </row>
@@ -9947,7 +9811,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>$72.45</t>
+          <t>$71.46</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -9959,13 +9823,13 @@
         <v>0.62</v>
       </c>
       <c r="L72" t="n">
-        <v>25.24</v>
+        <v>24.9</v>
       </c>
       <c r="M72" t="n">
-        <v>19.69</v>
+        <v>19.42</v>
       </c>
       <c r="N72" t="n">
-        <v>2.94</v>
+        <v>2.9</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
@@ -9998,7 +9862,7 @@
         </is>
       </c>
       <c r="U72" t="n">
-        <v>17.12</v>
+        <v>17.13</v>
       </c>
       <c r="V72" t="n">
         <v>6.36</v>
@@ -10018,24 +9882,22 @@
           <t>$0.57</t>
         </is>
       </c>
-      <c r="Z72" t="inlineStr">
+      <c r="Z72" s="2" t="n">
+        <v>45810</v>
+      </c>
+      <c r="AA72" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="AA72" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="AB72" t="inlineStr">
         <is>
-          <t>$149,195,554,816.00</t>
+          <t>$147,156,860,928.00</t>
         </is>
       </c>
       <c r="AC72" t="inlineStr">
         <is>
-          <t>2025-08-11</t>
+          <t>2025-08-12</t>
         </is>
       </c>
     </row>
@@ -10070,7 +9932,7 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>4.33%</t>
+          <t>4.32%</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -10080,7 +9942,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>$71.15</t>
+          <t>$70.31</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -10092,13 +9954,13 @@
         <v>0.3</v>
       </c>
       <c r="L73" t="n">
-        <v>17.83</v>
+        <v>17.49</v>
       </c>
       <c r="M73" t="n">
-        <v>14.64</v>
+        <v>14.47</v>
       </c>
       <c r="N73" t="n">
-        <v>9.220000000000001</v>
+        <v>9.109999999999999</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
@@ -10131,7 +9993,7 @@
         </is>
       </c>
       <c r="U73" t="n">
-        <v>57.38</v>
+        <v>57.54</v>
       </c>
       <c r="V73" t="n">
         <v>7.16</v>
@@ -10151,24 +10013,22 @@
           <t>$2.06</t>
         </is>
       </c>
-      <c r="Z73" t="inlineStr">
+      <c r="Z73" s="2" t="n">
+        <v>45807</v>
+      </c>
+      <c r="AA73" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="AA73" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="AB73" t="inlineStr">
         <is>
-          <t>$70,877,847,552.00</t>
+          <t>$69,759,852,544.00</t>
         </is>
       </c>
       <c r="AC73" t="inlineStr">
         <is>
-          <t>2025-08-11</t>
+          <t>2025-08-12</t>
         </is>
       </c>
     </row>
@@ -10203,7 +10063,7 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>1.58%</t>
+          <t>1.60%</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
@@ -10213,7 +10073,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>$137.06</t>
+          <t>$141.51</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -10225,13 +10085,13 @@
         <v>1.75</v>
       </c>
       <c r="L74" t="n">
-        <v>24.61</v>
+        <v>25.36</v>
       </c>
       <c r="M74" t="n">
-        <v>14.64</v>
+        <v>15.12</v>
       </c>
       <c r="N74" t="n">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
@@ -10264,7 +10124,7 @@
         </is>
       </c>
       <c r="U74" t="n">
-        <v>10.47</v>
+        <v>10.39</v>
       </c>
       <c r="V74" t="n">
         <v>1.92</v>
@@ -10284,24 +10144,22 @@
           <t>$0.55</t>
         </is>
       </c>
-      <c r="Z74" t="inlineStr">
+      <c r="Z74" s="2" t="n">
+        <v>45838</v>
+      </c>
+      <c r="AA74" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="AA74" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="AB74" t="inlineStr">
         <is>
-          <t>$31,627,886,592.00</t>
+          <t>$32,653,574,144.00</t>
         </is>
       </c>
       <c r="AC74" t="inlineStr">
         <is>
-          <t>2025-08-11</t>
+          <t>2025-08-12</t>
         </is>
       </c>
     </row>
@@ -10346,7 +10204,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>$57.51</t>
+          <t>$57.38</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -10358,10 +10216,10 @@
         <v>0.77</v>
       </c>
       <c r="L75" t="n">
-        <v>55.84</v>
+        <v>55.7</v>
       </c>
       <c r="M75" t="n">
-        <v>36.17</v>
+        <v>36.08</v>
       </c>
       <c r="N75" t="n">
         <v>1.34</v>
@@ -10397,7 +10255,7 @@
         </is>
       </c>
       <c r="U75" t="n">
-        <v>16.44</v>
+        <v>16.43</v>
       </c>
       <c r="V75" t="n">
         <v>5.87</v>
@@ -10417,24 +10275,22 @@
           <t>$0.27</t>
         </is>
       </c>
-      <c r="Z75" t="inlineStr">
+      <c r="Z75" s="2" t="n">
+        <v>45870</v>
+      </c>
+      <c r="AA75" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="AA75" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="AB75" t="inlineStr">
         <is>
-          <t>$52,581,830,656.00</t>
+          <t>$52,458,307,584.00</t>
         </is>
       </c>
       <c r="AC75" t="inlineStr">
         <is>
-          <t>2025-08-11</t>
+          <t>2025-08-12</t>
         </is>
       </c>
     </row>
@@ -10469,7 +10325,7 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>6.71%</t>
+          <t>6.67%</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
@@ -10479,7 +10335,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>$40.16</t>
+          <t>$40.40</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -10491,13 +10347,13 @@
         <v>0.66</v>
       </c>
       <c r="L76" t="n">
-        <v>24.79</v>
+        <v>24.94</v>
       </c>
       <c r="M76" t="n">
-        <v>25.74</v>
+        <v>25.9</v>
       </c>
       <c r="N76" t="n">
-        <v>2.36</v>
+        <v>2.37</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
@@ -10530,7 +10386,7 @@
         </is>
       </c>
       <c r="U76" t="n">
-        <v>16.13</v>
+        <v>16.2</v>
       </c>
       <c r="V76" t="n">
         <v>4.98</v>
@@ -10550,24 +10406,22 @@
           <t>$0.67</t>
         </is>
       </c>
-      <c r="Z76" t="inlineStr">
+      <c r="Z76" s="2" t="n">
+        <v>45873</v>
+      </c>
+      <c r="AA76" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="AA76" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="AB76" t="inlineStr">
         <is>
-          <t>$12,176,913,408.00</t>
+          <t>$12,249,683,968.00</t>
         </is>
       </c>
       <c r="AC76" t="inlineStr">
         <is>
-          <t>2025-08-11</t>
+          <t>2025-08-12</t>
         </is>
       </c>
     </row>
@@ -10602,17 +10456,17 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>5.53%</t>
+          <t>5.59%</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>$73.51</t>
+          <t>$73.02</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>$73.75</t>
+          <t>$73.85</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -10624,10 +10478,10 @@
         <v>0.99</v>
       </c>
       <c r="L77" t="n">
-        <v>14.38</v>
+        <v>14.4</v>
       </c>
       <c r="M77" t="n">
-        <v>12.35</v>
+        <v>12.37</v>
       </c>
       <c r="N77" t="n">
         <v>2.13</v>
@@ -10663,7 +10517,7 @@
         </is>
       </c>
       <c r="U77" t="n">
-        <v>11.59</v>
+        <v>11.52</v>
       </c>
       <c r="V77" t="n">
         <v>4.74</v>
@@ -10683,24 +10537,22 @@
           <t>$1.03</t>
         </is>
       </c>
-      <c r="Z77" t="inlineStr">
+      <c r="Z77" s="2" t="n">
+        <v>45870</v>
+      </c>
+      <c r="AA77" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="AA77" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="AB77" t="inlineStr">
         <is>
-          <t>$46,447,652,864.00</t>
+          <t>$46,507,483,136.00</t>
         </is>
       </c>
       <c r="AC77" t="inlineStr">
         <is>
-          <t>2025-08-11</t>
+          <t>2025-08-12</t>
         </is>
       </c>
     </row>
@@ -10735,7 +10587,7 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>0.80%</t>
+          <t>0.79%</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
@@ -10745,7 +10597,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>$254.05</t>
+          <t>$253.76</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -10757,13 +10609,13 @@
         <v>1.43</v>
       </c>
       <c r="L78" t="n">
-        <v>58.4</v>
+        <v>58.34</v>
       </c>
       <c r="M78" t="n">
-        <v>35.48</v>
+        <v>35.44</v>
       </c>
       <c r="N78" t="n">
-        <v>34.87</v>
+        <v>34.83</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
@@ -10796,7 +10648,7 @@
         </is>
       </c>
       <c r="U78" t="n">
-        <v>34.09</v>
+        <v>34.4</v>
       </c>
       <c r="V78" t="n">
         <v>4.64</v>
@@ -10816,24 +10668,22 @@
           <t>$0.50</t>
         </is>
       </c>
-      <c r="Z78" t="inlineStr">
+      <c r="Z78" s="2" t="n">
+        <v>45848</v>
+      </c>
+      <c r="AA78" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="AA78" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="AB78" t="inlineStr">
         <is>
-          <t>$713,583,230,976.00</t>
+          <t>$712,782,708,736.00</t>
         </is>
       </c>
       <c r="AC78" t="inlineStr">
         <is>
-          <t>2025-08-11</t>
+          <t>2025-08-12</t>
         </is>
       </c>
     </row>
@@ -10868,7 +10718,7 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>3.92%</t>
+          <t>3.93%</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -10878,7 +10728,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>$144.70</t>
+          <t>$146.58</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -10890,13 +10740,13 @@
         <v>0.46</v>
       </c>
       <c r="L79" t="n">
-        <v>26.36</v>
+        <v>26.7</v>
       </c>
       <c r="M79" t="n">
-        <v>16.77</v>
+        <v>16.98</v>
       </c>
       <c r="N79" t="n">
-        <v>10.76</v>
+        <v>10.9</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
@@ -10929,7 +10779,7 @@
         </is>
       </c>
       <c r="U79" t="n">
-        <v>14.23</v>
+        <v>14.21</v>
       </c>
       <c r="V79" t="n">
         <v>3.02</v>
@@ -10949,24 +10799,22 @@
           <t>$1.42</t>
         </is>
       </c>
-      <c r="Z79" t="inlineStr">
+      <c r="Z79" s="2" t="n">
+        <v>45814</v>
+      </c>
+      <c r="AA79" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="AA79" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="AB79" t="inlineStr">
         <is>
-          <t>$198,106,021,888.00</t>
+          <t>$200,679,751,680.00</t>
         </is>
       </c>
       <c r="AC79" t="inlineStr">
         <is>
-          <t>2025-08-11</t>
+          <t>2025-08-12</t>
         </is>
       </c>
     </row>
@@ -11001,7 +10849,7 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>2.75%</t>
+          <t>2.73%</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
@@ -11011,7 +10859,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>$155.06</t>
+          <t>$154.88</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -11023,13 +10871,13 @@
         <v>0.37</v>
       </c>
       <c r="L80" t="n">
-        <v>23.82</v>
+        <v>23.79</v>
       </c>
       <c r="M80" t="n">
-        <v>20.9</v>
+        <v>20.87</v>
       </c>
       <c r="N80" t="n">
-        <v>7.09</v>
+        <v>7.08</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
@@ -11062,7 +10910,7 @@
         </is>
       </c>
       <c r="U80" t="n">
-        <v>15.85</v>
+        <v>15.99</v>
       </c>
       <c r="V80" t="n">
         <v>1.49</v>
@@ -11082,24 +10930,22 @@
           <t>$1.06</t>
         </is>
       </c>
-      <c r="Z80" t="inlineStr">
+      <c r="Z80" s="2" t="n">
+        <v>45856</v>
+      </c>
+      <c r="AA80" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="AA80" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="AB80" t="inlineStr">
         <is>
-          <t>$363,207,884,800.00</t>
+          <t>$362,786,291,712.00</t>
         </is>
       </c>
       <c r="AC80" t="inlineStr">
         <is>
-          <t>2025-08-11</t>
+          <t>2025-08-12</t>
         </is>
       </c>
     </row>
@@ -11134,7 +10980,7 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>3.82%</t>
+          <t>3.88%</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
@@ -11144,7 +10990,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>$104.38</t>
+          <t>$104.66</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -11156,10 +11002,10 @@
         <v>1.22</v>
       </c>
       <c r="L81" t="n">
-        <v>28.14</v>
+        <v>28.21</v>
       </c>
       <c r="M81" t="n">
-        <v>29.65</v>
+        <v>29.73</v>
       </c>
       <c r="N81" t="n">
         <v>1.84</v>
@@ -11195,7 +11041,7 @@
         </is>
       </c>
       <c r="U81" t="n">
-        <v>21.61</v>
+        <v>21.38</v>
       </c>
       <c r="V81" t="n">
         <v>5.57</v>
@@ -11215,24 +11061,22 @@
           <t>$1.01</t>
         </is>
       </c>
-      <c r="Z81" t="inlineStr">
+      <c r="Z81" s="2" t="n">
+        <v>45825</v>
+      </c>
+      <c r="AA81" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="AA81" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="AB81" t="inlineStr">
         <is>
-          <t>$96,875,569,152.00</t>
+          <t>$97,131,077,632.00</t>
         </is>
       </c>
       <c r="AC81" t="inlineStr">
         <is>
-          <t>2025-08-11</t>
+          <t>2025-08-12</t>
         </is>
       </c>
     </row>
@@ -11267,7 +11111,7 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>4.26%</t>
+          <t>4.29%</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
@@ -11277,7 +11121,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>$279.56</t>
+          <t>$279.45</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -11289,13 +11133,13 @@
         <v>0.85</v>
       </c>
       <c r="L82" t="n">
-        <v>30.52</v>
+        <v>30.44</v>
       </c>
       <c r="M82" t="n">
-        <v>26.3</v>
+        <v>26.29</v>
       </c>
       <c r="N82" t="n">
-        <v>9.77</v>
+        <v>9.76</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
@@ -11328,7 +11172,7 @@
         </is>
       </c>
       <c r="U82" t="n">
-        <v>18.86</v>
+        <v>18.75</v>
       </c>
       <c r="V82" t="n">
         <v>3.11</v>
@@ -11348,24 +11192,22 @@
           <t>$3.00</t>
         </is>
       </c>
-      <c r="Z82" t="inlineStr">
+      <c r="Z82" s="2" t="n">
+        <v>45820</v>
+      </c>
+      <c r="AA82" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="AA82" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="AB82" t="inlineStr">
         <is>
-          <t>$49,049,636,864.00</t>
+          <t>$49,031,213,056.00</t>
         </is>
       </c>
       <c r="AC82" t="inlineStr">
         <is>
-          <t>2025-08-11</t>
+          <t>2025-08-12</t>
         </is>
       </c>
     </row>
@@ -11400,7 +11242,7 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>4.03%</t>
+          <t>4.06%</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
@@ -11410,7 +11252,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>$118.42</t>
+          <t>$120.78</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -11422,13 +11264,13 @@
         <v>1.06</v>
       </c>
       <c r="L83" t="n">
-        <v>28.13</v>
+        <v>28.69</v>
       </c>
       <c r="M83" t="n">
-        <v>12.48</v>
+        <v>12.73</v>
       </c>
       <c r="N83" t="n">
-        <v>1.74</v>
+        <v>1.78</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
@@ -11461,7 +11303,7 @@
         </is>
       </c>
       <c r="U83" t="n">
-        <v>18.12</v>
+        <v>18.04</v>
       </c>
       <c r="V83" t="n">
         <v>5.49</v>
@@ -11481,24 +11323,22 @@
           <t>$1.20</t>
         </is>
       </c>
-      <c r="Z83" t="inlineStr">
+      <c r="Z83" s="2" t="n">
+        <v>45796</v>
+      </c>
+      <c r="AA83" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="AA83" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="AB83" t="inlineStr">
         <is>
-          <t>$47,856,361,472.00</t>
+          <t>$48,810,094,592.00</t>
         </is>
       </c>
       <c r="AC83" t="inlineStr">
         <is>
-          <t>2025-08-11</t>
+          <t>2025-08-12</t>
         </is>
       </c>
     </row>
@@ -11533,7 +11373,7 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>4.25%</t>
+          <t>4.17%</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
@@ -11543,7 +11383,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>$42.91</t>
+          <t>$45.34</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -11555,13 +11395,13 @@
         <v>1.12</v>
       </c>
       <c r="L84" t="n">
-        <v>18.82</v>
+        <v>19.89</v>
       </c>
       <c r="M84" t="n">
-        <v>17.58</v>
+        <v>18.58</v>
       </c>
       <c r="N84" t="n">
-        <v>-3.25</v>
+        <v>-3.44</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
@@ -11594,7 +11434,7 @@
         </is>
       </c>
       <c r="U84" t="n">
-        <v>9.779999999999999</v>
+        <v>9.890000000000001</v>
       </c>
       <c r="V84" t="n">
         <v>3.99</v>
@@ -11614,24 +11454,22 @@
           <t>$0.46</t>
         </is>
       </c>
-      <c r="Z84" t="inlineStr">
+      <c r="Z84" s="2" t="n">
+        <v>45796</v>
+      </c>
+      <c r="AA84" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="AA84" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="AB84" t="inlineStr">
         <is>
-          <t>$1,405,477,632.00</t>
+          <t>$1,485,243,136.00</t>
         </is>
       </c>
       <c r="AC84" t="inlineStr">
         <is>
-          <t>2025-08-11</t>
+          <t>2025-08-12</t>
         </is>
       </c>
     </row>
@@ -11676,7 +11514,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>$148.48</t>
+          <t>$152.92</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -11688,13 +11526,13 @@
         <v>1.23</v>
       </c>
       <c r="L85" t="n">
-        <v>14.33</v>
+        <v>14.76</v>
       </c>
       <c r="M85" t="n">
-        <v>12.14</v>
+        <v>12.5</v>
       </c>
       <c r="N85" t="n">
-        <v>5.92</v>
+        <v>6.09</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
@@ -11727,7 +11565,7 @@
         </is>
       </c>
       <c r="U85" t="n">
-        <v>11.82</v>
+        <v>11.86</v>
       </c>
       <c r="V85" t="n">
         <v>1.07</v>
@@ -11747,24 +11585,22 @@
           <t>$0.89</t>
         </is>
       </c>
-      <c r="Z85" t="inlineStr">
+      <c r="Z85" s="2" t="n">
+        <v>45813</v>
+      </c>
+      <c r="AA85" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="AA85" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="AB85" t="inlineStr">
         <is>
-          <t>$160,209,928,192.00</t>
+          <t>$165,000,691,712.00</t>
         </is>
       </c>
       <c r="AC85" t="inlineStr">
         <is>
-          <t>2025-08-11</t>
+          <t>2025-08-12</t>
         </is>
       </c>
     </row>
@@ -11799,7 +11635,7 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>3.92%</t>
+          <t>3.94%</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
@@ -11809,7 +11645,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>$71.89</t>
+          <t>$71.65</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -11821,13 +11657,13 @@
         <v>1.06</v>
       </c>
       <c r="L86" t="n">
-        <v>33.59</v>
+        <v>33.48</v>
       </c>
       <c r="M86" t="n">
-        <v>34.23</v>
+        <v>34.12</v>
       </c>
       <c r="N86" t="n">
-        <v>2.02</v>
+        <v>2.01</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
@@ -11860,7 +11696,7 @@
         </is>
       </c>
       <c r="U86" t="n">
-        <v>18.68</v>
+        <v>18.61</v>
       </c>
       <c r="V86" t="n">
         <v>5.15</v>
@@ -11880,24 +11716,22 @@
           <t>$0.70</t>
         </is>
       </c>
-      <c r="Z86" t="inlineStr">
+      <c r="Z86" s="2" t="n">
+        <v>45819</v>
+      </c>
+      <c r="AA86" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="AA86" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="AB86" t="inlineStr">
         <is>
-          <t>$13,131,255,808.00</t>
+          <t>$13,086,872,576.00</t>
         </is>
       </c>
       <c r="AC86" t="inlineStr">
         <is>
-          <t>2025-08-11</t>
+          <t>2025-08-12</t>
         </is>
       </c>
     </row>
@@ -11932,7 +11766,7 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>3.90%</t>
+          <t>3.82%</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
@@ -11942,7 +11776,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>$21.12</t>
+          <t>$22.80</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -11954,13 +11788,13 @@
         <v>0.46</v>
       </c>
       <c r="L87" t="n">
-        <v>16.5</v>
+        <v>17.81</v>
       </c>
       <c r="M87" t="n">
-        <v>17.31</v>
+        <v>18.68</v>
       </c>
       <c r="N87" t="n">
-        <v>1.85</v>
+        <v>1.99</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
@@ -11993,7 +11827,7 @@
         </is>
       </c>
       <c r="U87" t="n">
-        <v>11.89</v>
+        <v>11.99</v>
       </c>
       <c r="V87" t="n">
         <v>4.72</v>
@@ -12013,24 +11847,22 @@
           <t>$0.21</t>
         </is>
       </c>
-      <c r="Z87" t="inlineStr">
+      <c r="Z87" s="2" t="n">
+        <v>45856</v>
+      </c>
+      <c r="AA87" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="AA87" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="AB87" t="inlineStr">
         <is>
-          <t>$217,781,008.00</t>
+          <t>$235,052,928.00</t>
         </is>
       </c>
       <c r="AC87" t="inlineStr">
         <is>
-          <t>2025-08-11</t>
+          <t>2025-08-12</t>
         </is>
       </c>
     </row>
@@ -12065,7 +11897,7 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>5.79%</t>
+          <t>5.94%</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
@@ -12075,7 +11907,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>$52.77</t>
+          <t>$53.27</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -12092,10 +11924,10 @@
         </is>
       </c>
       <c r="M88" t="n">
-        <v>-23.46</v>
+        <v>-23.67</v>
       </c>
       <c r="N88" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="O88" t="inlineStr">
         <is>
@@ -12114,12 +11946,12 @@
       </c>
       <c r="R88" t="inlineStr">
         <is>
-          <t>$239,846,000.00</t>
+          <t>$220,867,000.00</t>
         </is>
       </c>
       <c r="S88" t="inlineStr">
         <is>
-          <t>$-15,183,000.00</t>
+          <t>$-5,202,000.00</t>
         </is>
       </c>
       <c r="T88" t="inlineStr">
@@ -12128,7 +11960,7 @@
         </is>
       </c>
       <c r="U88" t="n">
-        <v>72.87</v>
+        <v>72.2</v>
       </c>
       <c r="V88" t="n">
         <v>42.45</v>
@@ -12148,24 +11980,22 @@
           <t>$0.26</t>
         </is>
       </c>
-      <c r="Z88" t="inlineStr">
+      <c r="Z88" s="2" t="n">
+        <v>45869</v>
+      </c>
+      <c r="AA88" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="AA88" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="AB88" t="inlineStr">
         <is>
-          <t>$4,004,419,328.00</t>
+          <t>$4,041,466,112.00</t>
         </is>
       </c>
       <c r="AC88" t="inlineStr">
         <is>
-          <t>2025-08-11</t>
+          <t>2025-08-12</t>
         </is>
       </c>
     </row>
@@ -12210,7 +12040,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>$94.39</t>
+          <t>$93.80</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -12222,13 +12052,13 @@
         <v>0.36</v>
       </c>
       <c r="L89" t="n">
-        <v>24.39</v>
+        <v>24.24</v>
       </c>
       <c r="M89" t="n">
-        <v>21.85</v>
+        <v>21.71</v>
       </c>
       <c r="N89" t="n">
-        <v>3.05</v>
+        <v>3.03</v>
       </c>
       <c r="O89" t="inlineStr">
         <is>
@@ -12261,7 +12091,7 @@
         </is>
       </c>
       <c r="U89" t="n">
-        <v>13.25</v>
+        <v>13.24</v>
       </c>
       <c r="V89" t="n">
         <v>5.3</v>
@@ -12281,24 +12111,22 @@
           <t>$0.74</t>
         </is>
       </c>
-      <c r="Z89" t="inlineStr">
+      <c r="Z89" s="2" t="n">
+        <v>45796</v>
+      </c>
+      <c r="AA89" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="AA89" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="AB89" t="inlineStr">
         <is>
-          <t>$103,828,226,048.00</t>
+          <t>$103,184,695,296.00</t>
         </is>
       </c>
       <c r="AC89" t="inlineStr">
         <is>
-          <t>2025-08-11</t>
+          <t>2025-08-12</t>
         </is>
       </c>
     </row>
@@ -12343,7 +12171,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>$164.68</t>
+          <t>$168.66</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -12355,13 +12183,13 @@
         <v>1.52</v>
       </c>
       <c r="L90" t="n">
-        <v>25.45</v>
+        <v>26.03</v>
       </c>
       <c r="M90" t="n">
-        <v>24.29</v>
+        <v>24.88</v>
       </c>
       <c r="N90" t="n">
-        <v>22.3</v>
+        <v>22.84</v>
       </c>
       <c r="O90" t="inlineStr">
         <is>
@@ -12394,7 +12222,7 @@
         </is>
       </c>
       <c r="U90" t="n">
-        <v>17.71</v>
+        <v>17.73</v>
       </c>
       <c r="V90" t="n">
         <v>5.8</v>
@@ -12414,24 +12242,22 @@
           <t>$2.10</t>
         </is>
       </c>
-      <c r="Z90" t="inlineStr">
+      <c r="Z90" s="2" t="n">
+        <v>45817</v>
+      </c>
+      <c r="AA90" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="AA90" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="AB90" t="inlineStr">
         <is>
-          <t>$62,118,449,152.00</t>
+          <t>$63,618,981,888.00</t>
         </is>
       </c>
       <c r="AC90" t="inlineStr">
         <is>
-          <t>2025-08-11</t>
+          <t>2025-08-12</t>
         </is>
       </c>
     </row>
@@ -12466,7 +12292,7 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>4.30%</t>
+          <t>4.35%</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
@@ -12476,7 +12302,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>$34.42</t>
+          <t>$34.66</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -12488,13 +12314,13 @@
         <v>0.91</v>
       </c>
       <c r="L91" t="n">
-        <v>27.1</v>
+        <v>27.29</v>
       </c>
       <c r="M91" t="n">
-        <v>39.11</v>
+        <v>39.38</v>
       </c>
       <c r="N91" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="O91" t="inlineStr">
         <is>
@@ -12527,7 +12353,7 @@
         </is>
       </c>
       <c r="U91" t="n">
-        <v>16.35</v>
+        <v>16.24</v>
       </c>
       <c r="V91" t="n">
         <v>5.25</v>
@@ -12547,24 +12373,22 @@
           <t>$0.12</t>
         </is>
       </c>
-      <c r="Z91" t="inlineStr">
+      <c r="Z91" s="2" t="n">
+        <v>45869</v>
+      </c>
+      <c r="AA91" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="AA91" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="AB91" t="inlineStr">
         <is>
-          <t>$6,563,756,032.00</t>
+          <t>$6,608,569,856.00</t>
         </is>
       </c>
       <c r="AC91" t="inlineStr">
         <is>
-          <t>2025-08-11</t>
+          <t>2025-08-12</t>
         </is>
       </c>
     </row>
@@ -12599,7 +12423,7 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>3.95%</t>
+          <t>3.94%</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
@@ -12609,7 +12433,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>$28.11</t>
+          <t>$28.54</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -12621,13 +12445,13 @@
         <v>0.62</v>
       </c>
       <c r="L92" t="n">
-        <v>16.06</v>
+        <v>16.31</v>
       </c>
       <c r="M92" t="n">
-        <v>12.55</v>
+        <v>12.74</v>
       </c>
       <c r="N92" t="n">
-        <v>1.91</v>
+        <v>1.94</v>
       </c>
       <c r="O92" t="inlineStr">
         <is>
@@ -12660,7 +12484,7 @@
         </is>
       </c>
       <c r="U92" t="n">
-        <v>8.08</v>
+        <v>8.09</v>
       </c>
       <c r="V92" t="n">
         <v>3.41</v>
@@ -12680,24 +12504,22 @@
           <t>$0.28</t>
         </is>
       </c>
-      <c r="Z92" t="inlineStr">
+      <c r="Z92" s="2" t="n">
+        <v>45848</v>
+      </c>
+      <c r="AA92" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="AA92" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="AB92" t="inlineStr">
         <is>
-          <t>$201,017,475,072.00</t>
+          <t>$204,097,863,680.00</t>
         </is>
       </c>
       <c r="AC92" t="inlineStr">
         <is>
-          <t>2025-08-11</t>
+          <t>2025-08-12</t>
         </is>
       </c>
     </row>
@@ -12732,7 +12554,7 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>4.84%</t>
+          <t>4.83%</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
@@ -12742,7 +12564,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>$105.46</t>
+          <t>$107.53</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -12754,13 +12576,13 @@
         <v>1.49</v>
       </c>
       <c r="L93" t="n">
-        <v>11.81</v>
+        <v>12.04</v>
       </c>
       <c r="M93" t="n">
-        <v>11.28</v>
+        <v>11.5</v>
       </c>
       <c r="N93" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="O93" t="inlineStr">
         <is>
@@ -12793,7 +12615,7 @@
         </is>
       </c>
       <c r="U93" t="n">
-        <v>7.94</v>
+        <v>7.95</v>
       </c>
       <c r="V93" t="n">
         <v>0.19</v>
@@ -12813,24 +12635,22 @@
           <t>$1.27</t>
         </is>
       </c>
-      <c r="Z93" t="inlineStr">
+      <c r="Z93" s="2" t="n">
+        <v>45821</v>
+      </c>
+      <c r="AA93" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="AA93" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="AB93" t="inlineStr">
         <is>
-          <t>$23,171,143,680.00</t>
+          <t>$23,625,955,328.00</t>
         </is>
       </c>
       <c r="AC93" t="inlineStr">
         <is>
-          <t>2025-08-11</t>
+          <t>2025-08-12</t>
         </is>
       </c>
     </row>
@@ -12865,7 +12685,7 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>6.31%</t>
+          <t>6.35%</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
@@ -12875,7 +12695,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>$60.79</t>
+          <t>$61.92</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -12887,13 +12707,13 @@
         <v>0.71</v>
       </c>
       <c r="L94" t="n">
-        <v>11.01</v>
+        <v>11.22</v>
       </c>
       <c r="M94" t="n">
-        <v>7.48</v>
+        <v>7.62</v>
       </c>
       <c r="N94" t="n">
-        <v>1.15</v>
+        <v>1.17</v>
       </c>
       <c r="O94" t="inlineStr">
         <is>
@@ -12926,7 +12746,7 @@
         </is>
       </c>
       <c r="U94" t="n">
-        <v>4.93</v>
+        <v>4.91</v>
       </c>
       <c r="V94" t="n">
         <v>1.78</v>
@@ -12946,24 +12766,22 @@
           <t>$1.00</t>
         </is>
       </c>
-      <c r="Z94" t="inlineStr">
+      <c r="Z94" s="2" t="n">
+        <v>45826</v>
+      </c>
+      <c r="AA94" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="AA94" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="AB94" t="inlineStr">
         <is>
-          <t>$133,255,323,648.00</t>
+          <t>$136,955,273,216.00</t>
         </is>
       </c>
       <c r="AC94" t="inlineStr">
         <is>
-          <t>2025-08-11</t>
+          <t>2025-08-12</t>
         </is>
       </c>
     </row>
@@ -12998,7 +12816,7 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>3.25%</t>
+          <t>3.26%</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
@@ -13008,7 +12826,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>$60.90</t>
+          <t>$61.10</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -13020,13 +12838,13 @@
         <v>0.2</v>
       </c>
       <c r="L95" t="n">
-        <v>23.33</v>
+        <v>23.41</v>
       </c>
       <c r="M95" t="n">
-        <v>17.4</v>
+        <v>17.46</v>
       </c>
       <c r="N95" t="n">
-        <v>8.390000000000001</v>
+        <v>8.42</v>
       </c>
       <c r="O95" t="inlineStr">
         <is>
@@ -13059,7 +12877,7 @@
         </is>
       </c>
       <c r="U95" t="n">
-        <v>15.09</v>
+        <v>15.06</v>
       </c>
       <c r="V95" t="n">
         <v>2.71</v>
@@ -13079,24 +12897,22 @@
           <t>$0.52</t>
         </is>
       </c>
-      <c r="Z95" t="inlineStr">
+      <c r="Z95" s="2" t="n">
+        <v>45793</v>
+      </c>
+      <c r="AA95" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="AA95" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="AB95" t="inlineStr">
         <is>
-          <t>$149,304,803,328.00</t>
+          <t>$149,814,542,336.00</t>
         </is>
       </c>
       <c r="AC95" t="inlineStr">
         <is>
-          <t>2025-08-11</t>
+          <t>2025-08-12</t>
         </is>
       </c>
     </row>
@@ -13131,7 +12947,7 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>2.48%</t>
+          <t>2.51%</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
@@ -13141,7 +12957,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>$219.16</t>
+          <t>$219.57</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -13153,13 +12969,13 @@
         <v>1.05</v>
       </c>
       <c r="L96" t="n">
-        <v>19.04</v>
+        <v>19.08</v>
       </c>
       <c r="M96" t="n">
-        <v>18.1</v>
+        <v>18.13</v>
       </c>
       <c r="N96" t="n">
-        <v>7.99</v>
+        <v>8.01</v>
       </c>
       <c r="O96" t="inlineStr">
         <is>
@@ -13192,7 +13008,7 @@
         </is>
       </c>
       <c r="U96" t="n">
-        <v>13.32</v>
+        <v>13.19</v>
       </c>
       <c r="V96" t="n">
         <v>2.75</v>
@@ -13212,24 +13028,22 @@
           <t>$1.34</t>
         </is>
       </c>
-      <c r="Z96" t="inlineStr">
+      <c r="Z96" s="2" t="n">
+        <v>45807</v>
+      </c>
+      <c r="AA96" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="AA96" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="AB96" t="inlineStr">
         <is>
-          <t>$129,970,651,136.00</t>
+          <t>$130,214,264,832.00</t>
         </is>
       </c>
       <c r="AC96" t="inlineStr">
         <is>
-          <t>2025-08-11</t>
+          <t>2025-08-12</t>
         </is>
       </c>
     </row>
@@ -13264,7 +13078,7 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>7.57%</t>
+          <t>7.60%</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
@@ -13274,7 +13088,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>$86.22</t>
+          <t>$87.64</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -13286,13 +13100,13 @@
         <v>1.1</v>
       </c>
       <c r="L97" t="n">
-        <v>12.83</v>
+        <v>13.04</v>
       </c>
       <c r="M97" t="n">
-        <v>9.789999999999999</v>
+        <v>9.949999999999999</v>
       </c>
       <c r="N97" t="n">
-        <v>4.64</v>
+        <v>4.72</v>
       </c>
       <c r="O97" t="inlineStr">
         <is>
@@ -13325,7 +13139,7 @@
         </is>
       </c>
       <c r="U97" t="n">
-        <v>8.359999999999999</v>
+        <v>8.33</v>
       </c>
       <c r="V97" t="n">
         <v>2.51</v>
@@ -13345,24 +13159,22 @@
           <t>$1.64</t>
         </is>
       </c>
-      <c r="Z97" t="inlineStr">
+      <c r="Z97" s="2" t="n">
+        <v>45796</v>
+      </c>
+      <c r="AA97" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="AA97" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="AB97" t="inlineStr">
         <is>
-          <t>$73,077,481,472.00</t>
+          <t>$74,285,268,992.00</t>
         </is>
       </c>
       <c r="AC97" t="inlineStr">
         <is>
-          <t>2025-08-11</t>
+          <t>2025-08-12</t>
         </is>
       </c>
     </row>
@@ -13397,7 +13209,7 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>5.26%</t>
+          <t>5.27%</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
@@ -13407,7 +13219,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>$32.91</t>
+          <t>$32.94</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -13419,7 +13231,7 @@
         <v>0.71</v>
       </c>
       <c r="L98" t="n">
-        <v>12.61</v>
+        <v>12.62</v>
       </c>
       <c r="M98" t="n">
         <v>12.06</v>
@@ -13458,7 +13270,7 @@
         </is>
       </c>
       <c r="U98" t="n">
-        <v>14.61</v>
+        <v>14.58</v>
       </c>
       <c r="V98" t="n">
         <v>4.91</v>
@@ -13478,24 +13290,22 @@
           <t>$0.43</t>
         </is>
       </c>
-      <c r="Z98" t="inlineStr">
+      <c r="Z98" s="2" t="n">
+        <v>45826</v>
+      </c>
+      <c r="AA98" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="AA98" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="AB98" t="inlineStr">
         <is>
-          <t>$35,099,570,176.00</t>
+          <t>$35,120,898,048.00</t>
         </is>
       </c>
       <c r="AC98" t="inlineStr">
         <is>
-          <t>2025-08-11</t>
+          <t>2025-08-12</t>
         </is>
       </c>
     </row>
@@ -13540,7 +13350,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>$68.72</t>
+          <t>$67.76</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -13552,13 +13362,13 @@
         <v>0.89</v>
       </c>
       <c r="L99" t="n">
-        <v>159.83</v>
+        <v>157.58</v>
       </c>
       <c r="M99" t="n">
-        <v>429.53</v>
+        <v>423.5</v>
       </c>
       <c r="N99" t="n">
-        <v>2.71</v>
+        <v>2.67</v>
       </c>
       <c r="O99" t="inlineStr">
         <is>
@@ -13591,7 +13401,7 @@
         </is>
       </c>
       <c r="U99" t="n">
-        <v>21.91</v>
+        <v>21.89</v>
       </c>
       <c r="V99" t="n">
         <v>6.58</v>
@@ -13611,24 +13421,22 @@
           <t>$0.48</t>
         </is>
       </c>
-      <c r="Z99" t="inlineStr">
+      <c r="Z99" s="2" t="n">
+        <v>45838</v>
+      </c>
+      <c r="AA99" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="AA99" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="AB99" t="inlineStr">
         <is>
-          <t>$31,233,519,616.00</t>
+          <t>$30,794,956,800.00</t>
         </is>
       </c>
       <c r="AC99" t="inlineStr">
         <is>
-          <t>2025-08-11</t>
+          <t>2025-08-12</t>
         </is>
       </c>
     </row>
@@ -13673,7 +13481,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>$43.04</t>
+          <t>$43.45</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -13685,13 +13493,13 @@
         <v>0.36</v>
       </c>
       <c r="L100" t="n">
-        <v>10.01</v>
+        <v>10.11</v>
       </c>
       <c r="M100" t="n">
-        <v>9.1</v>
+        <v>9.19</v>
       </c>
       <c r="N100" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="O100" t="inlineStr">
         <is>
@@ -13744,24 +13552,22 @@
           <t>$0.68</t>
         </is>
       </c>
-      <c r="Z100" t="inlineStr">
+      <c r="Z100" s="2" t="n">
+        <v>45848</v>
+      </c>
+      <c r="AA100" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="AA100" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="AB100" t="inlineStr">
         <is>
-          <t>$181,451,440,128.00</t>
+          <t>$183,220,191,232.00</t>
         </is>
       </c>
       <c r="AC100" t="inlineStr">
         <is>
-          <t>2025-08-11</t>
+          <t>2025-08-12</t>
         </is>
       </c>
     </row>
@@ -13796,17 +13602,17 @@
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>3.24%</t>
+          <t>3.26%</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>$87.71</t>
+          <t>$88.14</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>$109.41</t>
+          <t>$109.21</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -13818,10 +13624,10 @@
         <v>0.41</v>
       </c>
       <c r="L101" t="n">
-        <v>21</v>
+        <v>20.96</v>
       </c>
       <c r="M101" t="n">
-        <v>20.96</v>
+        <v>20.92</v>
       </c>
       <c r="N101" t="n">
         <v>2.66</v>
@@ -13857,7 +13663,7 @@
         </is>
       </c>
       <c r="U101" t="n">
-        <v>15.4</v>
+        <v>15.34</v>
       </c>
       <c r="V101" t="n">
         <v>5.6</v>
@@ -13877,24 +13683,22 @@
           <t>$0.89</t>
         </is>
       </c>
-      <c r="Z101" t="inlineStr">
+      <c r="Z101" s="2" t="n">
+        <v>45791</v>
+      </c>
+      <c r="AA101" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="AA101" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="AB101" t="inlineStr">
         <is>
-          <t>$35,215,360,000.00</t>
+          <t>$35,150,983,168.00</t>
         </is>
       </c>
       <c r="AC101" t="inlineStr">
         <is>
-          <t>2025-08-11</t>
+          <t>2025-08-12</t>
         </is>
       </c>
     </row>
@@ -13939,7 +13743,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>$168.94</t>
+          <t>$164.00</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -13951,13 +13755,13 @@
         <v>0.92</v>
       </c>
       <c r="L102" t="n">
-        <v>93.86</v>
+        <v>91.11</v>
       </c>
       <c r="M102" t="n">
-        <v>92.81999999999999</v>
+        <v>90.11</v>
       </c>
       <c r="N102" t="n">
-        <v>3.13</v>
+        <v>3.04</v>
       </c>
       <c r="O102" t="inlineStr">
         <is>
@@ -14010,24 +13814,22 @@
           <t>$0.67</t>
         </is>
       </c>
-      <c r="Z102" t="inlineStr">
+      <c r="Z102" s="2" t="n">
+        <v>45791</v>
+      </c>
+      <c r="AA102" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="AA102" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="AB102" t="inlineStr">
         <is>
-          <t>$112,991,461,376.00</t>
+          <t>$109,690,003,456.00</t>
         </is>
       </c>
       <c r="AC102" t="inlineStr">
         <is>
-          <t>2025-08-11</t>
+          <t>2025-08-12</t>
         </is>
       </c>
     </row>
@@ -14062,7 +13864,7 @@
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>5.46%</t>
+          <t>5.49%</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
@@ -14072,7 +13874,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>$65.64</t>
+          <t>$65.00</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -14084,13 +13886,13 @@
         <v>0.8</v>
       </c>
       <c r="L103" t="n">
-        <v>43.19</v>
+        <v>42.77</v>
       </c>
       <c r="M103" t="n">
-        <v>29.97</v>
+        <v>29.68</v>
       </c>
       <c r="N103" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="O103" t="inlineStr">
         <is>
@@ -14123,7 +13925,7 @@
         </is>
       </c>
       <c r="U103" t="n">
-        <v>16.71</v>
+        <v>16.67</v>
       </c>
       <c r="V103" t="n">
         <v>6.33</v>
@@ -14143,24 +13945,22 @@
           <t>$0.90</t>
         </is>
       </c>
-      <c r="Z103" t="inlineStr">
+      <c r="Z103" s="2" t="n">
+        <v>45838</v>
+      </c>
+      <c r="AA103" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="AA103" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="AB103" t="inlineStr">
         <is>
-          <t>$14,375,007,232.00</t>
+          <t>$14,235,509,760.00</t>
         </is>
       </c>
       <c r="AC103" t="inlineStr">
         <is>
-          <t>2025-08-11</t>
+          <t>2025-08-12</t>
         </is>
       </c>
     </row>
@@ -14195,7 +13995,7 @@
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>3.71%</t>
+          <t>3.74%</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
@@ -14205,7 +14005,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>$105.63</t>
+          <t>$106.81</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -14217,13 +14017,13 @@
         <v>0.5</v>
       </c>
       <c r="L104" t="n">
-        <v>15</v>
+        <v>15.17</v>
       </c>
       <c r="M104" t="n">
-        <v>13.42</v>
+        <v>13.57</v>
       </c>
       <c r="N104" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="O104" t="inlineStr">
         <is>
@@ -14256,7 +14056,7 @@
         </is>
       </c>
       <c r="U104" t="n">
-        <v>7.81</v>
+        <v>7.75</v>
       </c>
       <c r="V104" t="n">
         <v>0.63</v>
@@ -14276,24 +14076,22 @@
           <t>$0.99</t>
         </is>
       </c>
-      <c r="Z104" t="inlineStr">
+      <c r="Z104" s="2" t="n">
+        <v>45792</v>
+      </c>
+      <c r="AA104" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="AA104" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="AB104" t="inlineStr">
         <is>
-          <t>$450,327,085,056.00</t>
+          <t>$455,336,394,752.00</t>
         </is>
       </c>
       <c r="AC104" t="inlineStr">
         <is>
-          <t>2025-08-11</t>
+          <t>2025-08-12</t>
         </is>
       </c>
     </row>

--- a/data/investimentos.xlsx
+++ b/data/investimentos.xlsx
@@ -615,7 +615,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>3.30%</t>
+          <t>3.21%</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -625,7 +625,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>$198.44</t>
+          <t>$205.50</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -637,13 +637,13 @@
         <v>0.5</v>
       </c>
       <c r="L2" t="n">
-        <v>94.05</v>
+        <v>97.39</v>
       </c>
       <c r="M2" t="n">
-        <v>16.36</v>
+        <v>16.94</v>
       </c>
       <c r="N2" t="n">
-        <v>-1908.08</v>
+        <v>-1975.96</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -676,7 +676,7 @@
         </is>
       </c>
       <c r="U2" t="n">
-        <v>14.79</v>
+        <v>15.16</v>
       </c>
       <c r="V2" t="n">
         <v>2.51</v>
@@ -706,12 +706,12 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>$350,556,160,000.00</t>
+          <t>$363,028,086,784.00</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>2025-08-12</t>
+          <t>2025-08-15</t>
         </is>
       </c>
     </row>
@@ -746,17 +746,17 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.80%</t>
+          <t>1.83%</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>$107.60</t>
+          <t>$110.33</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>$130.48</t>
+          <t>$131.88</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -768,13 +768,13 @@
         <v>0.7</v>
       </c>
       <c r="L3" t="n">
-        <v>16.37</v>
+        <v>16.57</v>
       </c>
       <c r="M3" t="n">
-        <v>25.29</v>
+        <v>25.56</v>
       </c>
       <c r="N3" t="n">
-        <v>4.49</v>
+        <v>4.54</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="U3" t="n">
-        <v>20.53</v>
+        <v>20.21</v>
       </c>
       <c r="V3" t="n">
         <v>1.18</v>
@@ -837,12 +837,12 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>$227,095,216,128.00</t>
+          <t>$229,531,877,376.00</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>2025-08-12</t>
+          <t>2025-08-15</t>
         </is>
       </c>
     </row>
@@ -877,7 +877,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>4.22%</t>
+          <t>4.26%</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -887,7 +887,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>$72.28</t>
+          <t>$72.58</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -899,10 +899,10 @@
         <v>0.55</v>
       </c>
       <c r="L4" t="n">
-        <v>43.02</v>
+        <v>43.2</v>
       </c>
       <c r="M4" t="n">
-        <v>39.71</v>
+        <v>39.88</v>
       </c>
       <c r="N4" t="n">
         <v>1.46</v>
@@ -938,7 +938,7 @@
         </is>
       </c>
       <c r="U4" t="n">
-        <v>20.11</v>
+        <v>19.97</v>
       </c>
       <c r="V4" t="n">
         <v>5.69</v>
@@ -968,12 +968,12 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>$8,024,091,648.00</t>
+          <t>$8,057,396,224.00</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>2025-08-12</t>
+          <t>2025-08-15</t>
         </is>
       </c>
     </row>
@@ -1008,17 +1008,17 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2.03%</t>
+          <t>2.04%</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>$259.08</t>
+          <t>$262.21</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>$302.35</t>
+          <t>$301.03</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -1030,13 +1030,13 @@
         <v>0.82</v>
       </c>
       <c r="L5" t="n">
-        <v>30.26</v>
+        <v>30.13</v>
       </c>
       <c r="M5" t="n">
-        <v>27.81</v>
+        <v>27.69</v>
       </c>
       <c r="N5" t="n">
-        <v>19.8</v>
+        <v>19.72</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -1069,7 +1069,7 @@
         </is>
       </c>
       <c r="U5" t="n">
-        <v>20.65</v>
+        <v>20.51</v>
       </c>
       <c r="V5" t="n">
         <v>1.53</v>
@@ -1099,12 +1099,12 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>$122,462,732,288.00</t>
+          <t>$121,931,112,448.00</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>2025-08-12</t>
+          <t>2025-08-15</t>
         </is>
       </c>
     </row>
@@ -1139,7 +1139,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>3.32%</t>
+          <t>3.30%</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -1149,7 +1149,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>$111.85</t>
+          <t>$112.60</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -1161,13 +1161,13 @@
         <v>0.39</v>
       </c>
       <c r="L6" t="n">
-        <v>16.4</v>
+        <v>16.51</v>
       </c>
       <c r="M6" t="n">
-        <v>18.99</v>
+        <v>19.12</v>
       </c>
       <c r="N6" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -1200,7 +1200,7 @@
         </is>
       </c>
       <c r="U6" t="n">
-        <v>12.51</v>
+        <v>12.56</v>
       </c>
       <c r="V6" t="n">
         <v>5.44</v>
@@ -1230,12 +1230,12 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>$59,816,820,736.00</t>
+          <t>$60,217,917,440.00</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>2025-08-12</t>
+          <t>2025-08-15</t>
         </is>
       </c>
     </row>
@@ -1270,17 +1270,17 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>1.94%</t>
+          <t>1.92%</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>$169.95</t>
+          <t>$176.00</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>$206.34</t>
+          <t>$208.42</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -1292,13 +1292,13 @@
         <v>0.34</v>
       </c>
       <c r="L7" t="n">
-        <v>9.699999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="M7" t="n">
-        <v>10.84</v>
+        <v>10.95</v>
       </c>
       <c r="N7" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -1331,7 +1331,7 @@
         </is>
       </c>
       <c r="U7" t="n">
-        <v>7.25</v>
+        <v>7.33</v>
       </c>
       <c r="V7" t="n">
         <v>1.09</v>
@@ -1361,12 +1361,12 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>$54,372,937,728.00</t>
+          <t>$54,920,368,128.00</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>2025-08-12</t>
+          <t>2025-08-15</t>
         </is>
       </c>
     </row>
@@ -1401,7 +1401,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>3.34%</t>
+          <t>3.28%</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>$284.69</t>
+          <t>$293.20</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -1423,13 +1423,13 @@
         <v>0.48</v>
       </c>
       <c r="L8" t="n">
-        <v>23.28</v>
+        <v>23.99</v>
       </c>
       <c r="M8" t="n">
-        <v>13.77</v>
+        <v>14.19</v>
       </c>
       <c r="N8" t="n">
-        <v>20.63</v>
+        <v>21.25</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1462,7 +1462,7 @@
         </is>
       </c>
       <c r="U8" t="n">
-        <v>12.56</v>
+        <v>12.74</v>
       </c>
       <c r="V8" t="n">
         <v>3.5</v>
@@ -1492,12 +1492,12 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>$153,266,274,304.00</t>
+          <t>$157,850,419,200.00</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>2025-08-12</t>
+          <t>2025-08-15</t>
         </is>
       </c>
     </row>
@@ -1532,7 +1532,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>3.47%</t>
+          <t>3.41%</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -1542,7 +1542,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>$45.30</t>
+          <t>$45.31</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -1593,7 +1593,7 @@
         </is>
       </c>
       <c r="U9" t="n">
-        <v>12.29</v>
+        <v>12.53</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1623,12 +1623,12 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>$860,373,696.00</t>
+          <t>$860,468,672.00</t>
         </is>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>2025-08-12</t>
+          <t>2025-08-15</t>
         </is>
       </c>
     </row>
@@ -1663,7 +1663,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>3.30%</t>
+          <t>3.34%</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -1673,7 +1673,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>$205.66</t>
+          <t>$205.38</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1685,13 +1685,13 @@
         <v>0.83</v>
       </c>
       <c r="L10" t="n">
-        <v>38.37</v>
+        <v>38.39</v>
       </c>
       <c r="M10" t="n">
-        <v>30.29</v>
+        <v>30.25</v>
       </c>
       <c r="N10" t="n">
-        <v>25.93</v>
+        <v>25.9</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1724,7 +1724,7 @@
         </is>
       </c>
       <c r="U10" t="n">
-        <v>22.1</v>
+        <v>21.91</v>
       </c>
       <c r="V10" t="n">
         <v>6.82</v>
@@ -1754,12 +1754,12 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>$96,298,164,224.00</t>
+          <t>$96,169,435,136.00</t>
         </is>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>2025-08-12</t>
+          <t>2025-08-15</t>
         </is>
       </c>
     </row>
@@ -1794,7 +1794,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>3.64%</t>
+          <t>3.69%</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -1804,7 +1804,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>$33.76</t>
+          <t>$33.23</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1816,13 +1816,13 @@
         <v>0.32</v>
       </c>
       <c r="L11" t="n">
-        <v>15.56</v>
+        <v>15.31</v>
       </c>
       <c r="M11" t="n">
-        <v>16.15</v>
+        <v>15.9</v>
       </c>
       <c r="N11" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1855,7 +1855,7 @@
         </is>
       </c>
       <c r="U11" t="n">
-        <v>10.79</v>
+        <v>10.71</v>
       </c>
       <c r="V11" t="n">
         <v>3.68</v>
@@ -1885,12 +1885,12 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>$347,730,528.00</t>
+          <t>$342,787,392.00</t>
         </is>
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>2025-08-12</t>
+          <t>2025-08-15</t>
         </is>
       </c>
     </row>
@@ -1925,17 +1925,17 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2.11%</t>
+          <t>2.09%</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>$127.43</t>
+          <t>$128.12</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>$164.68</t>
+          <t>$165.40</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1947,13 +1947,13 @@
         <v>0.68</v>
       </c>
       <c r="L12" t="n">
-        <v>22.78</v>
+        <v>22.88</v>
       </c>
       <c r="M12" t="n">
-        <v>23.06</v>
+        <v>23.17</v>
       </c>
       <c r="N12" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="U12" t="n">
-        <v>15.46</v>
+        <v>15.54</v>
       </c>
       <c r="V12" t="n">
         <v>4.01</v>
@@ -2016,12 +2016,12 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>$26,435,090,432.00</t>
+          <t>$26,550,669,312.00</t>
         </is>
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>2025-08-12</t>
+          <t>2025-08-15</t>
         </is>
       </c>
     </row>
@@ -2056,7 +2056,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>3.78%</t>
+          <t>3.70%</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -2066,7 +2066,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>$186.51</t>
+          <t>$189.86</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -2078,13 +2078,13 @@
         <v>0.87</v>
       </c>
       <c r="L13" t="n">
-        <v>22.91</v>
+        <v>23.32</v>
       </c>
       <c r="M13" t="n">
-        <v>33.67</v>
+        <v>34.27</v>
       </c>
       <c r="N13" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -2117,7 +2117,7 @@
         </is>
       </c>
       <c r="U13" t="n">
-        <v>19.15</v>
+        <v>19.48</v>
       </c>
       <c r="V13" t="n">
         <v>4.8</v>
@@ -2147,12 +2147,12 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>$26,555,854,848.00</t>
+          <t>$27,032,838,144.00</t>
         </is>
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>2025-08-12</t>
+          <t>2025-08-15</t>
         </is>
       </c>
     </row>
@@ -2187,7 +2187,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.78%</t>
+          <t>0.76%</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -2197,25 +2197,25 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>$310.42</t>
+          <t>$305.93</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>$310.43</t>
+          <t>$317.35</t>
         </is>
       </c>
       <c r="K14" t="n">
         <v>1.17</v>
       </c>
       <c r="L14" t="n">
-        <v>113.29</v>
+        <v>111.65</v>
       </c>
       <c r="M14" t="n">
-        <v>50.31</v>
+        <v>49.58</v>
       </c>
       <c r="N14" t="n">
-        <v>5.24</v>
+        <v>5.17</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -2248,7 +2248,7 @@
         </is>
       </c>
       <c r="U14" t="n">
-        <v>4.96</v>
+        <v>5.06</v>
       </c>
       <c r="V14" t="n">
         <v>1.3</v>
@@ -2278,12 +2278,12 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>$1,460,051,247,104.00</t>
+          <t>$1,438,932,533,248.00</t>
         </is>
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>2025-08-12</t>
+          <t>2025-08-15</t>
         </is>
       </c>
     </row>
@@ -2318,7 +2318,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2.27%</t>
+          <t>2.31%</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -2328,7 +2328,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>$141.63</t>
+          <t>$143.99</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -2340,13 +2340,13 @@
         <v>0.64</v>
       </c>
       <c r="L15" t="n">
-        <v>25.52</v>
+        <v>25.94</v>
       </c>
       <c r="M15" t="n">
-        <v>24.85</v>
+        <v>25.26</v>
       </c>
       <c r="N15" t="n">
-        <v>2.59</v>
+        <v>2.63</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -2379,7 +2379,7 @@
         </is>
       </c>
       <c r="U15" t="n">
-        <v>16.23</v>
+        <v>16.08</v>
       </c>
       <c r="V15" t="n">
         <v>5.65</v>
@@ -2400,7 +2400,7 @@
         </is>
       </c>
       <c r="Z15" s="2" t="n">
-        <v>45790</v>
+        <v>45881</v>
       </c>
       <c r="AA15" t="inlineStr">
         <is>
@@ -2409,12 +2409,12 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>$27,632,439,296.00</t>
+          <t>$28,092,307,456.00</t>
         </is>
       </c>
       <c r="AC15" t="inlineStr">
         <is>
-          <t>2025-08-12</t>
+          <t>2025-08-15</t>
         </is>
       </c>
     </row>
@@ -2449,7 +2449,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2.43%</t>
+          <t>2.35%</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -2459,7 +2459,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>$47.48</t>
+          <t>$47.05</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -2471,13 +2471,13 @@
         <v>1.31</v>
       </c>
       <c r="L16" t="n">
-        <v>13.93</v>
+        <v>13.8</v>
       </c>
       <c r="M16" t="n">
-        <v>12.97</v>
+        <v>12.86</v>
       </c>
       <c r="N16" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -2542,12 +2542,12 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>$351,719,030,784.00</t>
+          <t>$348,496,986,112.00</t>
         </is>
       </c>
       <c r="AC16" t="inlineStr">
         <is>
-          <t>2025-08-12</t>
+          <t>2025-08-15</t>
         </is>
       </c>
     </row>
@@ -2582,7 +2582,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>5.54%</t>
+          <t>5.30%</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -2592,7 +2592,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>$70.58</t>
+          <t>$71.49</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -2604,13 +2604,13 @@
         <v>1.23</v>
       </c>
       <c r="L17" t="n">
-        <v>17.21</v>
+        <v>17.44</v>
       </c>
       <c r="M17" t="n">
-        <v>10.32</v>
+        <v>10.45</v>
       </c>
       <c r="N17" t="n">
-        <v>5.4</v>
+        <v>5.47</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -2643,7 +2643,7 @@
         </is>
       </c>
       <c r="U17" t="n">
-        <v>6.64</v>
+        <v>6.9</v>
       </c>
       <c r="V17" t="n">
         <v>1.57</v>
@@ -2673,12 +2673,12 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>$14,916,872,192.00</t>
+          <t>$15,109,196,800.00</t>
         </is>
       </c>
       <c r="AC17" t="inlineStr">
         <is>
-          <t>2025-08-12</t>
+          <t>2025-08-15</t>
         </is>
       </c>
     </row>
@@ -2713,7 +2713,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>6.31%</t>
+          <t>6.01%</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -2723,7 +2723,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>$62.80</t>
+          <t>$64.92</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -2735,13 +2735,13 @@
         <v>1.19</v>
       </c>
       <c r="L18" t="n">
-        <v>3139.75</v>
+        <v>3246</v>
       </c>
       <c r="M18" t="n">
-        <v>33.58</v>
+        <v>34.72</v>
       </c>
       <c r="N18" t="n">
-        <v>1.89</v>
+        <v>1.96</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -2774,7 +2774,7 @@
         </is>
       </c>
       <c r="U18" t="n">
-        <v>15.06</v>
+        <v>15.32</v>
       </c>
       <c r="V18" t="n">
         <v>8.75</v>
@@ -2804,12 +2804,12 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>$11,102,344,192.00</t>
+          <t>$11,478,050,816.00</t>
         </is>
       </c>
       <c r="AC18" t="inlineStr">
         <is>
-          <t>2025-08-12</t>
+          <t>2025-08-15</t>
         </is>
       </c>
     </row>
@@ -2844,7 +2844,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>1.48%</t>
+          <t>1.45%</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -2854,7 +2854,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>$414.49</t>
+          <t>$412.00</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -2866,13 +2866,13 @@
         <v>1.4</v>
       </c>
       <c r="L19" t="n">
-        <v>21.09</v>
+        <v>21</v>
       </c>
       <c r="M19" t="n">
-        <v>18.71</v>
+        <v>18.6</v>
       </c>
       <c r="N19" t="n">
-        <v>10.41</v>
+        <v>10.34</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -2905,10 +2905,10 @@
         </is>
       </c>
       <c r="U19" t="n">
-        <v>16.2</v>
+        <v>16.56</v>
       </c>
       <c r="V19" t="n">
-        <v>2.9</v>
+        <v>2.91</v>
       </c>
       <c r="W19" t="inlineStr">
         <is>
@@ -2935,12 +2935,12 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>$194,179,858,432.00</t>
+          <t>$193,013,350,400.00</t>
         </is>
       </c>
       <c r="AC19" t="inlineStr">
         <is>
-          <t>2025-08-12</t>
+          <t>2025-08-15</t>
         </is>
       </c>
     </row>
@@ -2975,7 +2975,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2.60%</t>
+          <t>2.51%</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -2985,7 +2985,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>$95.28</t>
+          <t>$93.98</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -2997,13 +2997,13 @@
         <v>1.37</v>
       </c>
       <c r="L20" t="n">
-        <v>14.07</v>
+        <v>13.88</v>
       </c>
       <c r="M20" t="n">
-        <v>13.25</v>
+        <v>13.07</v>
       </c>
       <c r="N20" t="n">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -3068,12 +3068,12 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>$175,405,924,352.00</t>
+          <t>$173,016,989,696.00</t>
         </is>
       </c>
       <c r="AC20" t="inlineStr">
         <is>
-          <t>2025-08-12</t>
+          <t>2025-08-15</t>
         </is>
       </c>
     </row>
@@ -3108,7 +3108,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2.32%</t>
+          <t>2.26%</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -3118,7 +3118,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>$150.99</t>
+          <t>$153.56</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -3130,13 +3130,13 @@
         <v>0.71</v>
       </c>
       <c r="L21" t="n">
-        <v>13.1</v>
+        <v>13.32</v>
       </c>
       <c r="M21" t="n">
-        <v>20.6</v>
+        <v>20.95</v>
       </c>
       <c r="N21" t="n">
-        <v>1.65</v>
+        <v>1.68</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -3169,7 +3169,7 @@
         </is>
       </c>
       <c r="U21" t="n">
-        <v>9.49</v>
+        <v>9.77</v>
       </c>
       <c r="V21" t="n">
         <v>0.36</v>
@@ -3199,12 +3199,12 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>$23,611,213,824.00</t>
+          <t>$24,013,099,008.00</t>
         </is>
       </c>
       <c r="AC21" t="inlineStr">
         <is>
-          <t>2025-08-12</t>
+          <t>2025-08-15</t>
         </is>
       </c>
     </row>
@@ -3249,7 +3249,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>$84.47</t>
+          <t>$85.06</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -3261,13 +3261,13 @@
         <v>0.35</v>
       </c>
       <c r="L22" t="n">
-        <v>23.73</v>
+        <v>23.89</v>
       </c>
       <c r="M22" t="n">
-        <v>21.88</v>
+        <v>22.04</v>
       </c>
       <c r="N22" t="n">
-        <v>97.2</v>
+        <v>97.88</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -3300,7 +3300,7 @@
         </is>
       </c>
       <c r="U22" t="n">
-        <v>15.74</v>
+        <v>15.78</v>
       </c>
       <c r="V22" t="n">
         <v>1.82</v>
@@ -3330,12 +3330,12 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>$68,266,381,312.00</t>
+          <t>$68,743,962,624.00</t>
         </is>
       </c>
       <c r="AC22" t="inlineStr">
         <is>
-          <t>2025-08-12</t>
+          <t>2025-08-15</t>
         </is>
       </c>
     </row>
@@ -3370,7 +3370,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2.98%</t>
+          <t>2.99%</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -3380,7 +3380,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>$72.75</t>
+          <t>$72.38</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -3392,13 +3392,13 @@
         <v>0.35</v>
       </c>
       <c r="L23" t="n">
-        <v>21.46</v>
+        <v>21.35</v>
       </c>
       <c r="M23" t="n">
-        <v>20.32</v>
+        <v>20.22</v>
       </c>
       <c r="N23" t="n">
-        <v>2.67</v>
+        <v>2.65</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -3431,7 +3431,7 @@
         </is>
       </c>
       <c r="U23" t="n">
-        <v>13.94</v>
+        <v>13.91</v>
       </c>
       <c r="V23" t="n">
         <v>6.32</v>
@@ -3461,12 +3461,12 @@
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>$21,776,621,568.00</t>
+          <t>$21,665,867,776.00</t>
         </is>
       </c>
       <c r="AC23" t="inlineStr">
         <is>
-          <t>2025-08-12</t>
+          <t>2025-08-15</t>
         </is>
       </c>
     </row>
@@ -3501,7 +3501,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>1.75%</t>
+          <t>1.82%</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -3511,7 +3511,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>$275.90</t>
+          <t>$274.37</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -3523,13 +3523,13 @@
         <v>0.46</v>
       </c>
       <c r="L24" t="n">
-        <v>26.68</v>
+        <v>26.56</v>
       </c>
       <c r="M24" t="n">
-        <v>26.61</v>
+        <v>26.46</v>
       </c>
       <c r="N24" t="n">
-        <v>3.58</v>
+        <v>3.56</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -3562,7 +3562,7 @@
         </is>
       </c>
       <c r="U24" t="n">
-        <v>23.02</v>
+        <v>22.14</v>
       </c>
       <c r="V24" t="n">
         <v>0.83</v>
@@ -3592,12 +3592,12 @@
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>$99,428,843,520.00</t>
+          <t>$98,877,456,384.00</t>
         </is>
       </c>
       <c r="AC24" t="inlineStr">
         <is>
-          <t>2025-08-12</t>
+          <t>2025-08-15</t>
         </is>
       </c>
     </row>
@@ -3632,17 +3632,17 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2.28%</t>
+          <t>2.29%</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>$25.41</t>
+          <t>$25.65</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>$38.27</t>
+          <t>$38.13</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -3654,13 +3654,13 @@
         <v>0.57</v>
       </c>
       <c r="L25" t="n">
-        <v>26.77</v>
+        <v>26.67</v>
       </c>
       <c r="M25" t="n">
-        <v>22</v>
+        <v>21.92</v>
       </c>
       <c r="N25" t="n">
-        <v>2.27</v>
+        <v>2.26</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -3693,7 +3693,7 @@
         </is>
       </c>
       <c r="U25" t="n">
-        <v>13.95</v>
+        <v>13.93</v>
       </c>
       <c r="V25" t="n">
         <v>6.56</v>
@@ -3723,12 +3723,12 @@
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>$24,988,409,856.00</t>
+          <t>$24,897,007,616.00</t>
         </is>
       </c>
       <c r="AC25" t="inlineStr">
         <is>
-          <t>2025-08-12</t>
+          <t>2025-08-15</t>
         </is>
       </c>
     </row>
@@ -3768,12 +3768,12 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>$856.16</t>
+          <t>$867.16</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>$987.61</t>
+          <t>$972.91</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -3785,13 +3785,13 @@
         <v>0.95</v>
       </c>
       <c r="L26" t="n">
-        <v>56.11</v>
+        <v>55.12</v>
       </c>
       <c r="M26" t="n">
-        <v>50.18</v>
+        <v>49.44</v>
       </c>
       <c r="N26" t="n">
-        <v>16.15</v>
+        <v>15.91</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -3824,7 +3824,7 @@
         </is>
       </c>
       <c r="U26" t="n">
-        <v>34.72</v>
+        <v>34.24</v>
       </c>
       <c r="V26" t="n">
         <v>0.67</v>
@@ -3854,12 +3854,12 @@
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>$437,982,855,168.00</t>
+          <t>$431,463,202,816.00</t>
         </is>
       </c>
       <c r="AC26" t="inlineStr">
         <is>
-          <t>2025-08-12</t>
+          <t>2025-08-15</t>
         </is>
       </c>
     </row>
@@ -3894,17 +3894,17 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2.32%</t>
+          <t>2.37%</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>$44.89</t>
+          <t>$47.85</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>$71.38</t>
+          <t>$67.12</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -3916,27 +3916,27 @@
         <v>0.91</v>
       </c>
       <c r="L27" t="n">
-        <v>29.13</v>
+        <v>25.72</v>
       </c>
       <c r="M27" t="n">
-        <v>18.3</v>
+        <v>17.21</v>
       </c>
       <c r="N27" t="n">
-        <v>6.15</v>
+        <v>5.64</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>21.36%</t>
+          <t>22.58%</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>17.60%</t>
+          <t>18.45%</t>
         </is>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>65.71%</t>
+          <t>62.07%</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
@@ -3951,23 +3951,23 @@
       </c>
       <c r="T27" t="inlineStr">
         <is>
-          <t>$11,596,375,040.00</t>
+          <t>$12,657,375,232.00</t>
         </is>
       </c>
       <c r="U27" t="n">
-        <v>19.96</v>
+        <v>18.13</v>
       </c>
       <c r="V27" t="n">
-        <v>2.09</v>
+        <v>1.78</v>
       </c>
       <c r="W27" t="inlineStr">
         <is>
-          <t>11.40%</t>
+          <t>7.60%</t>
         </is>
       </c>
       <c r="X27" t="inlineStr">
         <is>
-          <t>34.80%</t>
+          <t>32.00%</t>
         </is>
       </c>
       <c r="Y27" t="inlineStr">
@@ -3985,12 +3985,12 @@
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>$282,664,796,160.00</t>
+          <t>$265,814,999,040.00</t>
         </is>
       </c>
       <c r="AC27" t="inlineStr">
         <is>
-          <t>2025-08-12</t>
+          <t>2025-08-15</t>
         </is>
       </c>
     </row>
@@ -4025,7 +4025,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>4.08%</t>
+          <t>3.98%</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -4035,25 +4035,25 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>$32.97</t>
+          <t>$33.90</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>$33.52</t>
+          <t>$34.00</t>
         </is>
       </c>
       <c r="K28" t="n">
         <v>0.87</v>
       </c>
       <c r="L28" t="n">
-        <v>27.02</v>
+        <v>27.79</v>
       </c>
       <c r="M28" t="n">
-        <v>24.79</v>
+        <v>25.49</v>
       </c>
       <c r="N28" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -4086,7 +4086,7 @@
         </is>
       </c>
       <c r="U28" t="n">
-        <v>23.8</v>
+        <v>24.33</v>
       </c>
       <c r="V28" t="n">
         <v>3.69</v>
@@ -4116,12 +4116,12 @@
       </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>$6,585,626,112.00</t>
+          <t>$7,449,389,568.00</t>
         </is>
       </c>
       <c r="AC28" t="inlineStr">
         <is>
-          <t>2025-08-12</t>
+          <t>2025-08-15</t>
         </is>
       </c>
     </row>
@@ -4156,7 +4156,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>4.10%</t>
+          <t>3.99%</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -4166,7 +4166,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>$65.25</t>
+          <t>$68.45</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -4178,13 +4178,13 @@
         <v>0.59</v>
       </c>
       <c r="L29" t="n">
-        <v>18.18</v>
+        <v>19.07</v>
       </c>
       <c r="M29" t="n">
-        <v>10.07</v>
+        <v>10.56</v>
       </c>
       <c r="N29" t="n">
-        <v>1.07</v>
+        <v>1.12</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -4217,7 +4217,7 @@
         </is>
       </c>
       <c r="U29" t="n">
-        <v>10.81</v>
+        <v>10.97</v>
       </c>
       <c r="V29" t="n">
         <v>5.92</v>
@@ -4247,12 +4247,12 @@
       </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>$82,758,533,120.00</t>
+          <t>$86,817,185,792.00</t>
         </is>
       </c>
       <c r="AC29" t="inlineStr">
         <is>
-          <t>2025-08-12</t>
+          <t>2025-08-15</t>
         </is>
       </c>
     </row>
@@ -4287,7 +4287,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>4.46%</t>
+          <t>4.41%</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -4297,7 +4297,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>$155.78</t>
+          <t>$156.57</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -4309,13 +4309,13 @@
         <v>0.84</v>
       </c>
       <c r="L30" t="n">
-        <v>20.07</v>
+        <v>20.15</v>
       </c>
       <c r="M30" t="n">
-        <v>14.11</v>
+        <v>14.18</v>
       </c>
       <c r="N30" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -4348,7 +4348,7 @@
         </is>
       </c>
       <c r="U30" t="n">
-        <v>7.96</v>
+        <v>8.039999999999999</v>
       </c>
       <c r="V30" t="n">
         <v>0.8</v>
@@ -4378,12 +4378,12 @@
       </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>$313,858,555,904.00</t>
+          <t>$315,470,446,592.00</t>
         </is>
       </c>
       <c r="AC30" t="inlineStr">
         <is>
-          <t>2025-08-12</t>
+          <t>2025-08-15</t>
         </is>
       </c>
     </row>
@@ -4418,7 +4418,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>5.37%</t>
+          <t>5.30%</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -4428,7 +4428,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>$38.84</t>
+          <t>$39.46</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -4440,13 +4440,13 @@
         <v>0.96</v>
       </c>
       <c r="L31" t="n">
-        <v>23.68</v>
+        <v>24.06</v>
       </c>
       <c r="M31" t="n">
-        <v>21.82</v>
+        <v>22.17</v>
       </c>
       <c r="N31" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -4479,7 +4479,7 @@
         </is>
       </c>
       <c r="U31" t="n">
-        <v>17.44</v>
+        <v>17.62</v>
       </c>
       <c r="V31" t="n">
         <v>4.84</v>
@@ -4509,12 +4509,12 @@
       </c>
       <c r="AB31" t="inlineStr">
         <is>
-          <t>$8,903,292,928.00</t>
+          <t>$9,045,415,936.00</t>
         </is>
       </c>
       <c r="AC31" t="inlineStr">
         <is>
-          <t>2025-08-12</t>
+          <t>2025-08-15</t>
         </is>
       </c>
     </row>
@@ -4549,7 +4549,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>2.89%</t>
+          <t>2.94%</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -4559,7 +4559,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>$169.08</t>
+          <t>$166.84</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -4571,13 +4571,13 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="L32" t="n">
-        <v>44.38</v>
+        <v>43.79</v>
       </c>
       <c r="M32" t="n">
-        <v>139.74</v>
+        <v>137.89</v>
       </c>
       <c r="N32" t="n">
-        <v>2.59</v>
+        <v>2.56</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -4610,7 +4610,7 @@
         </is>
       </c>
       <c r="U32" t="n">
-        <v>29.69</v>
+        <v>29.36</v>
       </c>
       <c r="V32" t="n">
         <v>7.76</v>
@@ -4640,12 +4640,12 @@
       </c>
       <c r="AB32" t="inlineStr">
         <is>
-          <t>$58,726,035,456.00</t>
+          <t>$57,948,938,240.00</t>
         </is>
       </c>
       <c r="AC32" t="inlineStr">
         <is>
-          <t>2025-08-12</t>
+          <t>2025-08-15</t>
         </is>
       </c>
     </row>
@@ -4680,7 +4680,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>6.71%</t>
+          <t>5.99%</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -4690,7 +4690,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>$21.64</t>
+          <t>$23.48</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -4707,10 +4707,10 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>6.96</v>
+        <v>7.55</v>
       </c>
       <c r="N33" t="n">
-        <v>0.89</v>
+        <v>0.97</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -4743,7 +4743,7 @@
         </is>
       </c>
       <c r="U33" t="n">
-        <v>8.16</v>
+        <v>8.619999999999999</v>
       </c>
       <c r="V33" t="n">
         <v>4.69</v>
@@ -4773,12 +4773,12 @@
       </c>
       <c r="AB33" t="inlineStr">
         <is>
-          <t>$15,339,384,832.00</t>
+          <t>$16,640,113,664.00</t>
         </is>
       </c>
       <c r="AC33" t="inlineStr">
         <is>
-          <t>2025-08-12</t>
+          <t>2025-08-15</t>
         </is>
       </c>
     </row>
@@ -4813,7 +4813,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>3.39%</t>
+          <t>3.43%</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -4823,7 +4823,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>$124.07</t>
+          <t>$122.67</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -4835,13 +4835,13 @@
         <v>0.34</v>
       </c>
       <c r="L34" t="n">
-        <v>20.31</v>
+        <v>20.08</v>
       </c>
       <c r="M34" t="n">
-        <v>19.57</v>
+        <v>19.35</v>
       </c>
       <c r="N34" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -4874,7 +4874,7 @@
         </is>
       </c>
       <c r="U34" t="n">
-        <v>12.22</v>
+        <v>12.15</v>
       </c>
       <c r="V34" t="n">
         <v>5.75</v>
@@ -4904,12 +4904,12 @@
       </c>
       <c r="AB34" t="inlineStr">
         <is>
-          <t>$96,479,805,440.00</t>
+          <t>$95,391,137,792.00</t>
         </is>
       </c>
       <c r="AC34" t="inlineStr">
         <is>
-          <t>2025-08-12</t>
+          <t>2025-08-15</t>
         </is>
       </c>
     </row>
@@ -4944,7 +4944,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>2.92%</t>
+          <t>2.84%</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -4954,7 +4954,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>$33.45</t>
+          <t>$33.92</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -4966,13 +4966,13 @@
         <v>1.11</v>
       </c>
       <c r="L35" t="n">
-        <v>7.53</v>
+        <v>7.64</v>
       </c>
       <c r="M35" t="n">
-        <v>7.5</v>
+        <v>7.61</v>
       </c>
       <c r="N35" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -5005,7 +5005,7 @@
         </is>
       </c>
       <c r="U35" t="n">
-        <v>3.67</v>
+        <v>3.75</v>
       </c>
       <c r="V35" t="n">
         <v>1.17</v>
@@ -5035,12 +5035,12 @@
       </c>
       <c r="AB35" t="inlineStr">
         <is>
-          <t>$21,234,061,312.00</t>
+          <t>$21,532,413,952.00</t>
         </is>
       </c>
       <c r="AC35" t="inlineStr">
         <is>
-          <t>2025-08-12</t>
+          <t>2025-08-15</t>
         </is>
       </c>
     </row>
@@ -5075,7 +5075,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>3.51%</t>
+          <t>3.46%</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -5085,7 +5085,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>$161.39</t>
+          <t>$161.98</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -5097,13 +5097,13 @@
         <v>1</v>
       </c>
       <c r="L36" t="n">
-        <v>34.78</v>
+        <v>34.83</v>
       </c>
       <c r="M36" t="n">
-        <v>33.48</v>
+        <v>33.61</v>
       </c>
       <c r="N36" t="n">
-        <v>2.49</v>
+        <v>2.5</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -5136,7 +5136,7 @@
         </is>
       </c>
       <c r="U36" t="n">
-        <v>22.65</v>
+        <v>22.94</v>
       </c>
       <c r="V36" t="n">
         <v>3.41</v>
@@ -5166,12 +5166,12 @@
       </c>
       <c r="AB36" t="inlineStr">
         <is>
-          <t>$8,607,638,528.00</t>
+          <t>$8,639,106,048.00</t>
         </is>
       </c>
       <c r="AC36" t="inlineStr">
         <is>
-          <t>2025-08-12</t>
+          <t>2025-08-15</t>
         </is>
       </c>
     </row>
@@ -5206,35 +5206,35 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>5.79%</t>
+          <t>5.71%</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>$38.44</t>
+          <t>$38.49</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>$47.34</t>
+          <t>$47.05</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>$47.62</t>
+          <t>$48.21</t>
         </is>
       </c>
       <c r="K37" t="n">
         <v>0.86</v>
       </c>
       <c r="L37" t="n">
-        <v>22.87</v>
+        <v>22.84</v>
       </c>
       <c r="M37" t="n">
-        <v>22.12</v>
+        <v>21.99</v>
       </c>
       <c r="N37" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
@@ -5267,7 +5267,7 @@
         </is>
       </c>
       <c r="U37" t="n">
-        <v>12.62</v>
+        <v>12.71</v>
       </c>
       <c r="V37" t="n">
         <v>5.99</v>
@@ -5297,12 +5297,12 @@
       </c>
       <c r="AB37" t="inlineStr">
         <is>
-          <t>$103,477,231,616.00</t>
+          <t>$103,033,389,056.00</t>
         </is>
       </c>
       <c r="AC37" t="inlineStr">
         <is>
-          <t>2025-08-12</t>
+          <t>2025-08-15</t>
         </is>
       </c>
     </row>
@@ -5347,7 +5347,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>$782.24</t>
+          <t>$779.82</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -5359,13 +5359,13 @@
         <v>0.89</v>
       </c>
       <c r="L38" t="n">
-        <v>76.84</v>
+        <v>76.75</v>
       </c>
       <c r="M38" t="n">
-        <v>58.46</v>
+        <v>58.28</v>
       </c>
       <c r="N38" t="n">
-        <v>5.44</v>
+        <v>5.42</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -5398,7 +5398,7 @@
         </is>
       </c>
       <c r="U38" t="n">
-        <v>24.97</v>
+        <v>24.93</v>
       </c>
       <c r="V38" t="n">
         <v>5.79</v>
@@ -5428,12 +5428,12 @@
       </c>
       <c r="AB38" t="inlineStr">
         <is>
-          <t>$76,552,642,560.00</t>
+          <t>$76,316,606,464.00</t>
         </is>
       </c>
       <c r="AC38" t="inlineStr">
         <is>
-          <t>2025-08-12</t>
+          <t>2025-08-15</t>
         </is>
       </c>
     </row>
@@ -5468,7 +5468,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>4.45%</t>
+          <t>4.36%</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -5478,7 +5478,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>$62.60</t>
+          <t>$63.93</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -5490,13 +5490,13 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="L39" t="n">
-        <v>23.53</v>
+        <v>24.12</v>
       </c>
       <c r="M39" t="n">
-        <v>37.04</v>
+        <v>37.83</v>
       </c>
       <c r="N39" t="n">
-        <v>2.16</v>
+        <v>2.21</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -5529,7 +5529,7 @@
         </is>
       </c>
       <c r="U39" t="n">
-        <v>17.75</v>
+        <v>18</v>
       </c>
       <c r="V39" t="n">
         <v>4.67</v>
@@ -5559,12 +5559,12 @@
       </c>
       <c r="AB39" t="inlineStr">
         <is>
-          <t>$24,636,979,200.00</t>
+          <t>$25,160,417,280.00</t>
         </is>
       </c>
       <c r="AC39" t="inlineStr">
         <is>
-          <t>2025-08-12</t>
+          <t>2025-08-15</t>
         </is>
       </c>
     </row>
@@ -5599,7 +5599,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>4.01%</t>
+          <t>3.96%</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -5609,7 +5609,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>$29.94</t>
+          <t>$30.40</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -5621,13 +5621,13 @@
         <v>1.09</v>
       </c>
       <c r="L40" t="n">
-        <v>25.16</v>
+        <v>25.55</v>
       </c>
       <c r="M40" t="n">
-        <v>23.57</v>
+        <v>23.94</v>
       </c>
       <c r="N40" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -5660,7 +5660,7 @@
         </is>
       </c>
       <c r="U40" t="n">
-        <v>18.1</v>
+        <v>18.28</v>
       </c>
       <c r="V40" t="n">
         <v>5.16</v>
@@ -5690,12 +5690,12 @@
       </c>
       <c r="AB40" t="inlineStr">
         <is>
-          <t>$5,948,868,096.00</t>
+          <t>$6,040,266,752.00</t>
         </is>
       </c>
       <c r="AC40" t="inlineStr">
         <is>
-          <t>2025-08-12</t>
+          <t>2025-08-15</t>
         </is>
       </c>
     </row>
@@ -5730,7 +5730,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>4.08%</t>
+          <t>4.01%</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -5740,7 +5740,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>$253.85</t>
+          <t>$257.12</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -5752,13 +5752,13 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="L41" t="n">
-        <v>20.42</v>
+        <v>20.65</v>
       </c>
       <c r="M41" t="n">
-        <v>42.17</v>
+        <v>42.71</v>
       </c>
       <c r="N41" t="n">
-        <v>2.9</v>
+        <v>2.94</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -5791,7 +5791,7 @@
         </is>
       </c>
       <c r="U41" t="n">
-        <v>19.27</v>
+        <v>19.49</v>
       </c>
       <c r="V41" t="n">
         <v>5.66</v>
@@ -5821,12 +5821,12 @@
       </c>
       <c r="AB41" t="inlineStr">
         <is>
-          <t>$17,533,038,592.00</t>
+          <t>$17,759,107,072.00</t>
         </is>
       </c>
       <c r="AC41" t="inlineStr">
         <is>
-          <t>2025-08-12</t>
+          <t>2025-08-15</t>
         </is>
       </c>
     </row>
@@ -5861,7 +5861,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>4.79%</t>
+          <t>4.74%</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -5871,7 +5871,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>$135.84</t>
+          <t>$137.27</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -5883,13 +5883,13 @@
         <v>1.08</v>
       </c>
       <c r="L42" t="n">
-        <v>29.53</v>
+        <v>29.84</v>
       </c>
       <c r="M42" t="n">
-        <v>28.42</v>
+        <v>28.72</v>
       </c>
       <c r="N42" t="n">
-        <v>2.09</v>
+        <v>2.11</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -5922,7 +5922,7 @@
         </is>
       </c>
       <c r="U42" t="n">
-        <v>19.06</v>
+        <v>19.19</v>
       </c>
       <c r="V42" t="n">
         <v>6.03</v>
@@ -5952,12 +5952,12 @@
       </c>
       <c r="AB42" t="inlineStr">
         <is>
-          <t>$30,102,278,144.00</t>
+          <t>$30,419,169,280.00</t>
         </is>
       </c>
       <c r="AC42" t="inlineStr">
         <is>
-          <t>2025-08-12</t>
+          <t>2025-08-15</t>
         </is>
       </c>
     </row>
@@ -5992,7 +5992,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>2.58%</t>
+          <t>2.51%</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -6002,7 +6002,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>$232.41</t>
+          <t>$229.69</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -6014,13 +6014,13 @@
         <v>1.31</v>
       </c>
       <c r="L43" t="n">
-        <v>13.83</v>
+        <v>13.67</v>
       </c>
       <c r="M43" t="n">
-        <v>10.22</v>
+        <v>10.1</v>
       </c>
       <c r="N43" t="n">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -6083,12 +6083,12 @@
       </c>
       <c r="AB43" t="inlineStr">
         <is>
-          <t>$54,825,287,680.00</t>
+          <t>$54,183,645,184.00</t>
         </is>
       </c>
       <c r="AC43" t="inlineStr">
         <is>
-          <t>2025-08-12</t>
+          <t>2025-08-15</t>
         </is>
       </c>
     </row>
@@ -6123,35 +6123,35 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>2.62%</t>
+          <t>2.66%</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>$72.67</t>
+          <t>$72.89</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>$119.56</t>
+          <t>$118.41</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>$121.82</t>
+          <t>$121.83</t>
         </is>
       </c>
       <c r="K44" t="n">
         <v>0.35</v>
       </c>
       <c r="L44" t="n">
-        <v>23.72</v>
+        <v>23.54</v>
       </c>
       <c r="M44" t="n">
-        <v>16.09</v>
+        <v>15.94</v>
       </c>
       <c r="N44" t="n">
-        <v>7.55</v>
+        <v>7.47</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -6184,7 +6184,7 @@
         </is>
       </c>
       <c r="U44" t="n">
-        <v>12.19</v>
+        <v>12.06</v>
       </c>
       <c r="V44" t="n">
         <v>1.81</v>
@@ -6214,12 +6214,12 @@
       </c>
       <c r="AB44" t="inlineStr">
         <is>
-          <t>$148,357,447,680.00</t>
+          <t>$146,924,322,816.00</t>
         </is>
       </c>
       <c r="AC44" t="inlineStr">
         <is>
-          <t>2025-08-12</t>
+          <t>2025-08-15</t>
         </is>
       </c>
     </row>
@@ -6254,7 +6254,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>1.91%</t>
+          <t>1.90%</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -6264,7 +6264,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>$313.03</t>
+          <t>$314.06</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -6276,13 +6276,13 @@
         <v>0.49</v>
       </c>
       <c r="L45" t="n">
-        <v>21.01</v>
+        <v>21.11</v>
       </c>
       <c r="M45" t="n">
-        <v>19.47</v>
+        <v>19.53</v>
       </c>
       <c r="N45" t="n">
-        <v>3.57</v>
+        <v>3.58</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -6315,7 +6315,7 @@
         </is>
       </c>
       <c r="U45" t="n">
-        <v>15.43</v>
+        <v>15.47</v>
       </c>
       <c r="V45" t="n">
         <v>1.75</v>
@@ -6345,12 +6345,12 @@
       </c>
       <c r="AB45" t="inlineStr">
         <is>
-          <t>$84,202,872,832.00</t>
+          <t>$84,481,286,144.00</t>
         </is>
       </c>
       <c r="AC45" t="inlineStr">
         <is>
-          <t>2025-08-12</t>
+          <t>2025-08-15</t>
         </is>
       </c>
     </row>
@@ -6385,7 +6385,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>2.22%</t>
+          <t>2.14%</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -6395,25 +6395,25 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>$748.13</t>
+          <t>$733.04</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>$748.13</t>
+          <t>$748.91</t>
         </is>
       </c>
       <c r="K46" t="n">
         <v>1.37</v>
       </c>
       <c r="L46" t="n">
-        <v>16.49</v>
+        <v>16.14</v>
       </c>
       <c r="M46" t="n">
-        <v>18</v>
+        <v>17.64</v>
       </c>
       <c r="N46" t="n">
-        <v>1.99</v>
+        <v>1.94</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
@@ -6478,12 +6478,12 @@
       </c>
       <c r="AB46" t="inlineStr">
         <is>
-          <t>$226,476,179,456.00</t>
+          <t>$221,908,107,264.00</t>
         </is>
       </c>
       <c r="AC46" t="inlineStr">
         <is>
-          <t>2025-08-12</t>
+          <t>2025-08-15</t>
         </is>
       </c>
     </row>
@@ -6518,7 +6518,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>3.08%</t>
+          <t>3.06%</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -6528,7 +6528,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>$10.04</t>
+          <t>$9.84</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -6540,27 +6540,27 @@
         <v>1.04</v>
       </c>
       <c r="L47" t="n">
-        <v>43.63</v>
+        <v>44.73</v>
       </c>
       <c r="M47" t="n">
-        <v>34.6</v>
+        <v>33.93</v>
       </c>
       <c r="N47" t="n">
-        <v>3.57</v>
+        <v>3.52</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>9.11%</t>
+          <t>8.96%</t>
         </is>
       </c>
       <c r="P47" t="inlineStr">
         <is>
-          <t>10.63%</t>
+          <t>10.27%</t>
         </is>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>131.40%</t>
+          <t>137.71%</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
@@ -6575,23 +6575,23 @@
       </c>
       <c r="T47" t="inlineStr">
         <is>
-          <t>$-15,664,250.00</t>
+          <t>$-36,513,000.00</t>
         </is>
       </c>
       <c r="U47" t="n">
-        <v>16.19</v>
+        <v>17.07</v>
       </c>
       <c r="V47" t="n">
-        <v>5.55</v>
+        <v>5.45</v>
       </c>
       <c r="W47" t="inlineStr">
         <is>
-          <t>7.30%</t>
+          <t>5.40%</t>
         </is>
       </c>
       <c r="X47" t="inlineStr">
         <is>
-          <t>-30.00%</t>
+          <t>-16.10%</t>
         </is>
       </c>
       <c r="Y47" t="inlineStr">
@@ -6609,12 +6609,12 @@
       </c>
       <c r="AB47" t="inlineStr">
         <is>
-          <t>$275,470,784.00</t>
+          <t>$270,109,600.00</t>
         </is>
       </c>
       <c r="AC47" t="inlineStr">
         <is>
-          <t>2025-08-12</t>
+          <t>2025-08-15</t>
         </is>
       </c>
     </row>
@@ -6649,7 +6649,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>4.25%</t>
+          <t>4.18%</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -6659,7 +6659,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>$33.58</t>
+          <t>$33.41</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -6671,10 +6671,10 @@
         <v>0.33</v>
       </c>
       <c r="L48" t="n">
-        <v>11.5</v>
+        <v>11.44</v>
       </c>
       <c r="M48" t="n">
-        <v>6.77</v>
+        <v>6.74</v>
       </c>
       <c r="N48" t="n">
         <v>0.01</v>
@@ -6740,12 +6740,12 @@
       </c>
       <c r="AB48" t="inlineStr">
         <is>
-          <t>$44,687,597,568.00</t>
+          <t>$44,461,359,104.00</t>
         </is>
       </c>
       <c r="AC48" t="inlineStr">
         <is>
-          <t>2025-08-12</t>
+          <t>2025-08-15</t>
         </is>
       </c>
     </row>
@@ -6780,7 +6780,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>2.09%</t>
+          <t>2.07%</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -6790,7 +6790,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>$216.66</t>
+          <t>$216.22</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -6802,13 +6802,13 @@
         <v>1.06</v>
       </c>
       <c r="L49" t="n">
-        <v>24.65</v>
+        <v>24.6</v>
       </c>
       <c r="M49" t="n">
-        <v>19.68</v>
+        <v>19.64</v>
       </c>
       <c r="N49" t="n">
-        <v>8.550000000000001</v>
+        <v>8.529999999999999</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
@@ -6841,7 +6841,7 @@
         </is>
       </c>
       <c r="U49" t="n">
-        <v>16.56</v>
+        <v>16.68</v>
       </c>
       <c r="V49" t="n">
         <v>3.78</v>
@@ -6871,12 +6871,12 @@
       </c>
       <c r="AB49" t="inlineStr">
         <is>
-          <t>$137,563,144,192.00</t>
+          <t>$137,280,610,304.00</t>
         </is>
       </c>
       <c r="AC49" t="inlineStr">
         <is>
-          <t>2025-08-12</t>
+          <t>2025-08-15</t>
         </is>
       </c>
     </row>
@@ -6911,7 +6911,7 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>4.54%</t>
+          <t>4.30%</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -6921,7 +6921,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>$26.57</t>
+          <t>$26.82</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -6933,46 +6933,46 @@
         <v>1.31</v>
       </c>
       <c r="L50" t="n">
-        <v>10.22</v>
+        <v>10.32</v>
       </c>
       <c r="M50" t="n">
+        <v>7.45</v>
+      </c>
+      <c r="N50" t="n">
+        <v>-19.79</v>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>4.64%</t>
+        </is>
+      </c>
+      <c r="Q50" t="inlineStr">
+        <is>
+          <t>43.46%</t>
+        </is>
+      </c>
+      <c r="R50" t="inlineStr">
+        <is>
+          <t>$13,220,000,000.00</t>
+        </is>
+      </c>
+      <c r="S50" t="inlineStr">
+        <is>
+          <t>$406,000,000.00</t>
+        </is>
+      </c>
+      <c r="T50" t="inlineStr">
+        <is>
+          <t>$2,652,750,080.00</t>
+        </is>
+      </c>
+      <c r="U50" t="n">
         <v>7.38</v>
-      </c>
-      <c r="N50" t="n">
-        <v>-19.61</v>
-      </c>
-      <c r="O50" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-      <c r="P50" t="inlineStr">
-        <is>
-          <t>4.64%</t>
-        </is>
-      </c>
-      <c r="Q50" t="inlineStr">
-        <is>
-          <t>43.46%</t>
-        </is>
-      </c>
-      <c r="R50" t="inlineStr">
-        <is>
-          <t>$13,220,000,000.00</t>
-        </is>
-      </c>
-      <c r="S50" t="inlineStr">
-        <is>
-          <t>$406,000,000.00</t>
-        </is>
-      </c>
-      <c r="T50" t="inlineStr">
-        <is>
-          <t>$2,652,750,080.00</t>
-        </is>
-      </c>
-      <c r="U50" t="n">
-        <v>7.09</v>
       </c>
       <c r="V50" t="n">
         <v>2.55</v>
@@ -7002,12 +7002,12 @@
       </c>
       <c r="AB50" t="inlineStr">
         <is>
-          <t>$24,951,787,520.00</t>
+          <t>$25,191,303,168.00</t>
         </is>
       </c>
       <c r="AC50" t="inlineStr">
         <is>
-          <t>2025-08-12</t>
+          <t>2025-08-15</t>
         </is>
       </c>
     </row>
@@ -7042,35 +7042,35 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>3.12%</t>
+          <t>3.04%</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>$41.68</t>
+          <t>$42.38</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>$65.05</t>
+          <t>$64.13</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>$65.75</t>
+          <t>$65.77</t>
         </is>
       </c>
       <c r="K51" t="n">
         <v>0.5</v>
       </c>
       <c r="L51" t="n">
-        <v>12.88</v>
+        <v>12.7</v>
       </c>
       <c r="M51" t="n">
-        <v>46.79</v>
+        <v>46.14</v>
       </c>
       <c r="N51" t="n">
-        <v>6.59</v>
+        <v>6.49</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
@@ -7135,12 +7135,12 @@
       </c>
       <c r="AB51" t="inlineStr">
         <is>
-          <t>$226,104,229,888.00</t>
+          <t>$222,800,445,440.00</t>
         </is>
       </c>
       <c r="AC51" t="inlineStr">
         <is>
-          <t>2025-08-12</t>
+          <t>2025-08-15</t>
         </is>
       </c>
     </row>
@@ -7175,17 +7175,17 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>2.84%</t>
+          <t>2.83%</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>$189.21</t>
+          <t>$192.86</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>$234.26</t>
+          <t>$239.04</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -7197,13 +7197,13 @@
         <v>0.68</v>
       </c>
       <c r="L52" t="n">
-        <v>37.85</v>
+        <v>38.62</v>
       </c>
       <c r="M52" t="n">
-        <v>22.08</v>
+        <v>22.53</v>
       </c>
       <c r="N52" t="n">
-        <v>7.93</v>
+        <v>8.09</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
@@ -7236,7 +7236,7 @@
         </is>
       </c>
       <c r="U52" t="n">
-        <v>19.21</v>
+        <v>19.26</v>
       </c>
       <c r="V52" t="n">
         <v>4.77</v>
@@ -7266,12 +7266,12 @@
       </c>
       <c r="AB52" t="inlineStr">
         <is>
-          <t>$218,218,283,008.00</t>
+          <t>$222,670,389,248.00</t>
         </is>
       </c>
       <c r="AC52" t="inlineStr">
         <is>
-          <t>2025-08-12</t>
+          <t>2025-08-15</t>
         </is>
       </c>
     </row>
@@ -7306,7 +7306,7 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>3.88%</t>
+          <t>3.83%</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -7316,7 +7316,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>$29.93</t>
+          <t>$30.41</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -7328,13 +7328,13 @@
         <v>0.78</v>
       </c>
       <c r="L53" t="n">
-        <v>33.62</v>
+        <v>34.17</v>
       </c>
       <c r="M53" t="n">
-        <v>40.44</v>
+        <v>41.1</v>
       </c>
       <c r="N53" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
@@ -7367,7 +7367,7 @@
         </is>
       </c>
       <c r="U53" t="n">
-        <v>18.23</v>
+        <v>18.38</v>
       </c>
       <c r="V53" t="n">
         <v>5.65</v>
@@ -7397,12 +7397,12 @@
       </c>
       <c r="AB53" t="inlineStr">
         <is>
-          <t>$18,344,263,680.00</t>
+          <t>$18,644,639,744.00</t>
         </is>
       </c>
       <c r="AC53" t="inlineStr">
         <is>
-          <t>2025-08-12</t>
+          <t>2025-08-15</t>
         </is>
       </c>
     </row>
@@ -7437,7 +7437,7 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>2.99%</t>
+          <t>2.98%</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -7447,25 +7447,25 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>$172.06</t>
+          <t>$175.95</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>$174.75</t>
+          <t>$176.54</t>
         </is>
       </c>
       <c r="K54" t="n">
         <v>0.4</v>
       </c>
       <c r="L54" t="n">
-        <v>18.44</v>
+        <v>18.82</v>
       </c>
       <c r="M54" t="n">
-        <v>16.23</v>
+        <v>16.6</v>
       </c>
       <c r="N54" t="n">
-        <v>5.28</v>
+        <v>5.4</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
@@ -7498,7 +7498,7 @@
         </is>
       </c>
       <c r="U54" t="n">
-        <v>14.89</v>
+        <v>14.96</v>
       </c>
       <c r="V54" t="n">
         <v>1.68</v>
@@ -7528,12 +7528,12 @@
       </c>
       <c r="AB54" t="inlineStr">
         <is>
-          <t>$414,366,924,800.00</t>
+          <t>$423,736,573,952.00</t>
         </is>
       </c>
       <c r="AC54" t="inlineStr">
         <is>
-          <t>2025-08-12</t>
+          <t>2025-08-15</t>
         </is>
       </c>
     </row>
@@ -7568,7 +7568,7 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>1.93%</t>
+          <t>1.90%</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -7578,7 +7578,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>$293.94</t>
+          <t>$291.13</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -7590,13 +7590,13 @@
         <v>1.11</v>
       </c>
       <c r="L55" t="n">
-        <v>15.08</v>
+        <v>14.93</v>
       </c>
       <c r="M55" t="n">
-        <v>17.56</v>
+        <v>17.39</v>
       </c>
       <c r="N55" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
@@ -7661,12 +7661,12 @@
       </c>
       <c r="AB55" t="inlineStr">
         <is>
-          <t>$808,220,229,632.00</t>
+          <t>$800,314,687,488.00</t>
         </is>
       </c>
       <c r="AC55" t="inlineStr">
         <is>
-          <t>2025-08-12</t>
+          <t>2025-08-15</t>
         </is>
       </c>
     </row>
@@ -7701,7 +7701,7 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>4.81%</t>
+          <t>4.73%</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -7711,7 +7711,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>$21.05</t>
+          <t>$21.21</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -7723,13 +7723,13 @@
         <v>1.32</v>
       </c>
       <c r="L56" t="n">
-        <v>25.68</v>
+        <v>25.87</v>
       </c>
       <c r="M56" t="n">
-        <v>30.08</v>
+        <v>30.31</v>
       </c>
       <c r="N56" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
@@ -7762,7 +7762,7 @@
         </is>
       </c>
       <c r="U56" t="n">
-        <v>17.52</v>
+        <v>17.71</v>
       </c>
       <c r="V56" t="n">
         <v>6.5</v>
@@ -7792,12 +7792,12 @@
       </c>
       <c r="AB56" t="inlineStr">
         <is>
-          <t>$14,258,446,336.00</t>
+          <t>$14,366,797,824.00</t>
         </is>
       </c>
       <c r="AC56" t="inlineStr">
         <is>
-          <t>2025-08-12</t>
+          <t>2025-08-15</t>
         </is>
       </c>
     </row>
@@ -7832,7 +7832,7 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>3.76%</t>
+          <t>3.78%</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -7842,7 +7842,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>$132.93</t>
+          <t>$133.49</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -7854,13 +7854,13 @@
         <v>0.34</v>
       </c>
       <c r="L57" t="n">
-        <v>18.18</v>
+        <v>18.26</v>
       </c>
       <c r="M57" t="n">
-        <v>17.42</v>
+        <v>17.5</v>
       </c>
       <c r="N57" t="n">
-        <v>34.72</v>
+        <v>34.86</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
@@ -7893,7 +7893,7 @@
         </is>
       </c>
       <c r="U57" t="n">
-        <v>13.4</v>
+        <v>13.34</v>
       </c>
       <c r="V57" t="n">
         <v>1.9</v>
@@ -7923,12 +7923,12 @@
       </c>
       <c r="AB57" t="inlineStr">
         <is>
-          <t>$44,103,512,064.00</t>
+          <t>$44,288,548,864.00</t>
         </is>
       </c>
       <c r="AC57" t="inlineStr">
         <is>
-          <t>2025-08-12</t>
+          <t>2025-08-15</t>
         </is>
       </c>
     </row>
@@ -7963,7 +7963,7 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>2.88%</t>
+          <t>2.93%</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -7973,7 +7973,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>$70.72</t>
+          <t>$69.89</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -7985,13 +7985,13 @@
         <v>0.44</v>
       </c>
       <c r="L58" t="n">
-        <v>25.08</v>
+        <v>24.78</v>
       </c>
       <c r="M58" t="n">
-        <v>23.81</v>
+        <v>23.53</v>
       </c>
       <c r="N58" t="n">
-        <v>10.65</v>
+        <v>10.52</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
@@ -8024,7 +8024,7 @@
         </is>
       </c>
       <c r="U58" t="n">
-        <v>21.66</v>
+        <v>21.33</v>
       </c>
       <c r="V58" t="n">
         <v>3.18</v>
@@ -8054,12 +8054,12 @@
       </c>
       <c r="AB58" t="inlineStr">
         <is>
-          <t>$304,377,036,800.00</t>
+          <t>$300,761,972,736.00</t>
         </is>
       </c>
       <c r="AC58" t="inlineStr">
         <is>
-          <t>2025-08-12</t>
+          <t>2025-08-15</t>
         </is>
       </c>
     </row>
@@ -8094,7 +8094,7 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>5.91%</t>
+          <t>5.64%</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -8104,7 +8104,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>$37.62</t>
+          <t>$38.43</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -8116,13 +8116,13 @@
         <v>1.24</v>
       </c>
       <c r="L59" t="n">
-        <v>20.45</v>
+        <v>20.89</v>
       </c>
       <c r="M59" t="n">
-        <v>29.16</v>
+        <v>29.79</v>
       </c>
       <c r="N59" t="n">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
@@ -8155,7 +8155,7 @@
         </is>
       </c>
       <c r="U59" t="n">
-        <v>13.83</v>
+        <v>14.15</v>
       </c>
       <c r="V59" t="n">
         <v>7.2</v>
@@ -8185,12 +8185,12 @@
       </c>
       <c r="AB59" t="inlineStr">
         <is>
-          <t>$4,493,520,896.00</t>
+          <t>$4,590,271,488.00</t>
         </is>
       </c>
       <c r="AC59" t="inlineStr">
         <is>
-          <t>2025-08-12</t>
+          <t>2025-08-15</t>
         </is>
       </c>
     </row>
@@ -8225,7 +8225,7 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>1.28%</t>
+          <t>1.26%</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -8235,7 +8235,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>$473.92</t>
+          <t>$481.30</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -8247,13 +8247,13 @@
         <v>0.93</v>
       </c>
       <c r="L60" t="n">
-        <v>33.71</v>
+        <v>34.16</v>
       </c>
       <c r="M60" t="n">
-        <v>27.96</v>
+        <v>28.4</v>
       </c>
       <c r="N60" t="n">
-        <v>5.77</v>
+        <v>5.86</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
@@ -8286,7 +8286,7 @@
         </is>
       </c>
       <c r="U60" t="n">
-        <v>18.75</v>
+        <v>19.01</v>
       </c>
       <c r="V60" t="n">
         <v>2</v>
@@ -8316,12 +8316,12 @@
       </c>
       <c r="AB60" t="inlineStr">
         <is>
-          <t>$222,225,842,176.00</t>
+          <t>$225,686,388,736.00</t>
         </is>
       </c>
       <c r="AC60" t="inlineStr">
         <is>
-          <t>2025-08-12</t>
+          <t>2025-08-15</t>
         </is>
       </c>
     </row>
@@ -8356,7 +8356,7 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>3.10%</t>
+          <t>3.02%</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -8366,7 +8366,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>$427.02</t>
+          <t>$438.66</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -8378,13 +8378,13 @@
         <v>0.26</v>
       </c>
       <c r="L61" t="n">
-        <v>23.96</v>
+        <v>24.64</v>
       </c>
       <c r="M61" t="n">
-        <v>15.19</v>
+        <v>15.61</v>
       </c>
       <c r="N61" t="n">
-        <v>18.57</v>
+        <v>19.08</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
@@ -8417,7 +8417,7 @@
         </is>
       </c>
       <c r="U61" t="n">
-        <v>16.66</v>
+        <v>17.02</v>
       </c>
       <c r="V61" t="n">
         <v>3.01</v>
@@ -8447,12 +8447,12 @@
       </c>
       <c r="AB61" t="inlineStr">
         <is>
-          <t>$99,694,215,168.00</t>
+          <t>$102,411,755,520.00</t>
         </is>
       </c>
       <c r="AC61" t="inlineStr">
         <is>
-          <t>2025-08-12</t>
+          <t>2025-08-15</t>
         </is>
       </c>
     </row>
@@ -8487,7 +8487,7 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>0.90%</t>
+          <t>0.86%</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -8497,25 +8497,25 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>$104.89</t>
+          <t>$99.96</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>$105.64</t>
+          <t>$108.02</t>
         </is>
       </c>
       <c r="K62" t="n">
         <v>1.66</v>
       </c>
       <c r="L62" t="n">
-        <v>25.27</v>
+        <v>24.14</v>
       </c>
       <c r="M62" t="n">
-        <v>24.56</v>
+        <v>23.41</v>
       </c>
       <c r="N62" t="n">
-        <v>13.49</v>
+        <v>12.86</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
@@ -8534,24 +8534,24 @@
       </c>
       <c r="R62" t="inlineStr">
         <is>
-          <t>$4,720,175,000.00</t>
+          <t>$5,171,393,000.00</t>
         </is>
       </c>
       <c r="S62" t="inlineStr">
         <is>
-          <t>$1,330,667,000.00</t>
+          <t>$1,720,088,000.00</t>
         </is>
       </c>
       <c r="T62" t="inlineStr">
         <is>
-          <t>$4,612,528,128.00</t>
+          <t>$4,422,444,032.00</t>
         </is>
       </c>
       <c r="U62" t="n">
-        <v>20.28</v>
+        <v>21.36</v>
       </c>
       <c r="V62" t="n">
-        <v>0.71</v>
+        <v>0.76</v>
       </c>
       <c r="W62" t="inlineStr">
         <is>
@@ -8560,7 +8560,7 @@
       </c>
       <c r="X62" t="inlineStr">
         <is>
-          <t>73.40%</t>
+          <t>72.20%</t>
         </is>
       </c>
       <c r="Y62" t="inlineStr">
@@ -8578,12 +8578,12 @@
       </c>
       <c r="AB62" t="inlineStr">
         <is>
-          <t>$133,078,130,688.00</t>
+          <t>$126,511,374,336.00</t>
         </is>
       </c>
       <c r="AC62" t="inlineStr">
         <is>
-          <t>2025-08-12</t>
+          <t>2025-08-15</t>
         </is>
       </c>
     </row>
@@ -8618,7 +8618,7 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>11.34%</t>
+          <t>10.28%</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -8628,7 +8628,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>$50.06</t>
+          <t>$53.58</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -8640,13 +8640,13 @@
         <v>0.87</v>
       </c>
       <c r="L63" t="n">
-        <v>106.51</v>
+        <v>114</v>
       </c>
       <c r="M63" t="n">
-        <v>5.81</v>
+        <v>6.22</v>
       </c>
       <c r="N63" t="n">
-        <v>1.35</v>
+        <v>1.45</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
@@ -8679,7 +8679,7 @@
         </is>
       </c>
       <c r="U63" t="n">
-        <v>9.710000000000001</v>
+        <v>10.28</v>
       </c>
       <c r="V63" t="n">
         <v>4.75</v>
@@ -8709,12 +8709,12 @@
       </c>
       <c r="AB63" t="inlineStr">
         <is>
-          <t>$16,101,699,584.00</t>
+          <t>$17,233,899,520.00</t>
         </is>
       </c>
       <c r="AC63" t="inlineStr">
         <is>
-          <t>2025-08-12</t>
+          <t>2025-08-15</t>
         </is>
       </c>
     </row>
@@ -8749,7 +8749,7 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>6.46%</t>
+          <t>6.34%</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -8759,22 +8759,22 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>$66.60</t>
+          <t>$66.50</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>$67.03</t>
+          <t>$67.77</t>
         </is>
       </c>
       <c r="K64" t="n">
         <v>0.85</v>
       </c>
       <c r="L64" t="n">
-        <v>10.95</v>
+        <v>10.94</v>
       </c>
       <c r="M64" t="n">
-        <v>17.25</v>
+        <v>17.23</v>
       </c>
       <c r="N64" t="n">
         <v>2.06</v>
@@ -8842,12 +8842,12 @@
       </c>
       <c r="AB64" t="inlineStr">
         <is>
-          <t>$5,955,787,264.00</t>
+          <t>$5,947,121,664.00</t>
         </is>
       </c>
       <c r="AC64" t="inlineStr">
         <is>
-          <t>2025-08-12</t>
+          <t>2025-08-15</t>
         </is>
       </c>
     </row>
@@ -8882,7 +8882,7 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>4.38%</t>
+          <t>4.33%</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -8892,7 +8892,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>$138.21</t>
+          <t>$140.47</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -8904,13 +8904,13 @@
         <v>0.75</v>
       </c>
       <c r="L65" t="n">
-        <v>28.44</v>
+        <v>28.9</v>
       </c>
       <c r="M65" t="n">
-        <v>33.3</v>
+        <v>33.85</v>
       </c>
       <c r="N65" t="n">
-        <v>2.75</v>
+        <v>2.79</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
@@ -8943,7 +8943,7 @@
         </is>
       </c>
       <c r="U65" t="n">
-        <v>17.26</v>
+        <v>17.41</v>
       </c>
       <c r="V65" t="n">
         <v>4.09</v>
@@ -8973,12 +8973,12 @@
       </c>
       <c r="AB65" t="inlineStr">
         <is>
-          <t>$16,588,103,680.00</t>
+          <t>$16,859,350,016.00</t>
         </is>
       </c>
       <c r="AC65" t="inlineStr">
         <is>
-          <t>2025-08-12</t>
+          <t>2025-08-15</t>
         </is>
       </c>
     </row>
@@ -9013,17 +9013,17 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>2.33%</t>
+          <t>2.29%</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>$267.54</t>
+          <t>$274.70</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>$301.49</t>
+          <t>$308.45</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -9035,13 +9035,13 @@
         <v>0.52</v>
       </c>
       <c r="L66" t="n">
-        <v>25.86</v>
+        <v>26.41</v>
       </c>
       <c r="M66" t="n">
-        <v>23.91</v>
+        <v>24.46</v>
       </c>
       <c r="N66" t="n">
-        <v>-77.94</v>
+        <v>-79.73999999999999</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
@@ -9074,7 +9074,7 @@
         </is>
       </c>
       <c r="U66" t="n">
-        <v>19.14</v>
+        <v>19.37</v>
       </c>
       <c r="V66" t="n">
         <v>3.94</v>
@@ -9104,12 +9104,12 @@
       </c>
       <c r="AB66" t="inlineStr">
         <is>
-          <t>$215,144,448,000.00</t>
+          <t>$220,111,159,296.00</t>
         </is>
       </c>
       <c r="AC66" t="inlineStr">
         <is>
-          <t>2025-08-12</t>
+          <t>2025-08-15</t>
         </is>
       </c>
     </row>
@@ -9144,7 +9144,7 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>3.06%</t>
+          <t>3.09%</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -9154,7 +9154,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>$91.53</t>
+          <t>$92.58</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -9166,13 +9166,13 @@
         <v>0.82</v>
       </c>
       <c r="L67" t="n">
-        <v>25.35</v>
+        <v>25.65</v>
       </c>
       <c r="M67" t="n">
-        <v>15.65</v>
+        <v>15.83</v>
       </c>
       <c r="N67" t="n">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
@@ -9205,7 +9205,7 @@
         </is>
       </c>
       <c r="U67" t="n">
-        <v>15.33</v>
+        <v>15.22</v>
       </c>
       <c r="V67" t="n">
         <v>3.25</v>
@@ -9235,12 +9235,12 @@
       </c>
       <c r="AB67" t="inlineStr">
         <is>
-          <t>$117,273,731,072.00</t>
+          <t>$118,621,487,104.00</t>
         </is>
       </c>
       <c r="AC67" t="inlineStr">
         <is>
-          <t>2025-08-12</t>
+          <t>2025-08-15</t>
         </is>
       </c>
     </row>
@@ -9275,7 +9275,7 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>3.01%</t>
+          <t>2.91%</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -9285,7 +9285,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>$76.66</t>
+          <t>$77.53</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -9297,13 +9297,13 @@
         <v>0.83</v>
       </c>
       <c r="L68" t="n">
-        <v>13.02</v>
+        <v>13.16</v>
       </c>
       <c r="M68" t="n">
-        <v>7.91</v>
+        <v>8</v>
       </c>
       <c r="N68" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
@@ -9336,7 +9336,7 @@
         </is>
       </c>
       <c r="U68" t="n">
-        <v>9.35</v>
+        <v>9.59</v>
       </c>
       <c r="V68" t="n">
         <v>6.62</v>
@@ -9366,12 +9366,12 @@
       </c>
       <c r="AB68" t="inlineStr">
         <is>
-          <t>$50,980,962,304.00</t>
+          <t>$51,562,790,912.00</t>
         </is>
       </c>
       <c r="AC68" t="inlineStr">
         <is>
-          <t>2025-08-12</t>
+          <t>2025-08-15</t>
         </is>
       </c>
     </row>
@@ -9406,7 +9406,7 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>1.88%</t>
+          <t>1.86%</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -9416,7 +9416,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>$157.89</t>
+          <t>$152.46</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -9428,13 +9428,13 @@
         <v>1.1</v>
       </c>
       <c r="L69" t="n">
-        <v>21.9</v>
+        <v>21.14</v>
       </c>
       <c r="M69" t="n">
-        <v>19.99</v>
+        <v>19.3</v>
       </c>
       <c r="N69" t="n">
-        <v>19.6</v>
+        <v>18.93</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
@@ -9467,7 +9467,7 @@
         </is>
       </c>
       <c r="U69" t="n">
-        <v>15.94</v>
+        <v>16.06</v>
       </c>
       <c r="V69" t="n">
         <v>2.38</v>
@@ -9497,12 +9497,12 @@
       </c>
       <c r="AB69" t="inlineStr">
         <is>
-          <t>$84,096,950,272.00</t>
+          <t>$81,202,110,464.00</t>
         </is>
       </c>
       <c r="AC69" t="inlineStr">
         <is>
-          <t>2025-08-12</t>
+          <t>2025-08-15</t>
         </is>
       </c>
     </row>
@@ -9537,7 +9537,7 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>2.78%</t>
+          <t>2.69%</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -9547,25 +9547,25 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>$148.03</t>
+          <t>$145.67</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>$148.08</t>
+          <t>$149.08</t>
         </is>
       </c>
       <c r="K70" t="n">
         <v>1.32</v>
       </c>
       <c r="L70" t="n">
-        <v>16.76</v>
+        <v>16.48</v>
       </c>
       <c r="M70" t="n">
-        <v>18.67</v>
+        <v>18.37</v>
       </c>
       <c r="N70" t="n">
-        <v>2.4</v>
+        <v>2.37</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
@@ -9630,12 +9630,12 @@
       </c>
       <c r="AB70" t="inlineStr">
         <is>
-          <t>$236,306,202,624.00</t>
+          <t>$232,538,832,896.00</t>
         </is>
       </c>
       <c r="AC70" t="inlineStr">
         <is>
-          <t>2025-08-12</t>
+          <t>2025-08-15</t>
         </is>
       </c>
     </row>
@@ -9680,7 +9680,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>$529.05</t>
+          <t>$522.12</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -9692,13 +9692,13 @@
         <v>1.05</v>
       </c>
       <c r="L71" t="n">
-        <v>38.84</v>
+        <v>38.28</v>
       </c>
       <c r="M71" t="n">
-        <v>35.39</v>
+        <v>34.92</v>
       </c>
       <c r="N71" t="n">
-        <v>11.45</v>
+        <v>11.3</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
@@ -9731,7 +9731,7 @@
         </is>
       </c>
       <c r="U71" t="n">
-        <v>24.89</v>
+        <v>24.92</v>
       </c>
       <c r="V71" t="n">
         <v>0.72</v>
@@ -9761,12 +9761,12 @@
       </c>
       <c r="AB71" t="inlineStr">
         <is>
-          <t>$3,932,518,350,848.00</t>
+          <t>$3,880,969,568,256.00</t>
         </is>
       </c>
       <c r="AC71" t="inlineStr">
         <is>
-          <t>2025-08-12</t>
+          <t>2025-08-15</t>
         </is>
       </c>
     </row>
@@ -9801,7 +9801,7 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>3.13%</t>
+          <t>3.14%</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -9811,7 +9811,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>$71.46</t>
+          <t>$72.43</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -9823,13 +9823,13 @@
         <v>0.62</v>
       </c>
       <c r="L72" t="n">
-        <v>24.9</v>
+        <v>25.24</v>
       </c>
       <c r="M72" t="n">
-        <v>19.42</v>
+        <v>19.68</v>
       </c>
       <c r="N72" t="n">
-        <v>2.9</v>
+        <v>2.94</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
@@ -9862,7 +9862,7 @@
         </is>
       </c>
       <c r="U72" t="n">
-        <v>17.13</v>
+        <v>17.1</v>
       </c>
       <c r="V72" t="n">
         <v>6.36</v>
@@ -9892,12 +9892,12 @@
       </c>
       <c r="AB72" t="inlineStr">
         <is>
-          <t>$147,156,860,928.00</t>
+          <t>$149,155,610,624.00</t>
         </is>
       </c>
       <c r="AC72" t="inlineStr">
         <is>
-          <t>2025-08-12</t>
+          <t>2025-08-15</t>
         </is>
       </c>
     </row>
@@ -9932,7 +9932,7 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>4.32%</t>
+          <t>4.30%</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -9942,7 +9942,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>$70.31</t>
+          <t>$71.47</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -9954,13 +9954,13 @@
         <v>0.3</v>
       </c>
       <c r="L73" t="n">
-        <v>17.49</v>
+        <v>17.69</v>
       </c>
       <c r="M73" t="n">
-        <v>14.47</v>
+        <v>14.7</v>
       </c>
       <c r="N73" t="n">
-        <v>9.109999999999999</v>
+        <v>9.26</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
@@ -9993,7 +9993,7 @@
         </is>
       </c>
       <c r="U73" t="n">
-        <v>57.54</v>
+        <v>57.77</v>
       </c>
       <c r="V73" t="n">
         <v>7.16</v>
@@ -10023,12 +10023,12 @@
       </c>
       <c r="AB73" t="inlineStr">
         <is>
-          <t>$69,759,852,544.00</t>
+          <t>$70,910,861,312.00</t>
         </is>
       </c>
       <c r="AC73" t="inlineStr">
         <is>
-          <t>2025-08-12</t>
+          <t>2025-08-15</t>
         </is>
       </c>
     </row>
@@ -10063,7 +10063,7 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>1.60%</t>
+          <t>1.52%</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
@@ -10073,7 +10073,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>$141.51</t>
+          <t>$145.59</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -10085,13 +10085,13 @@
         <v>1.75</v>
       </c>
       <c r="L74" t="n">
-        <v>25.36</v>
+        <v>26.04</v>
       </c>
       <c r="M74" t="n">
-        <v>15.12</v>
+        <v>15.55</v>
       </c>
       <c r="N74" t="n">
-        <v>1.6</v>
+        <v>1.64</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
@@ -10110,21 +10110,21 @@
       </c>
       <c r="R74" t="inlineStr">
         <is>
-          <t>$7,830,000,000.00</t>
+          <t>$8,456,000,000.00</t>
         </is>
       </c>
       <c r="S74" t="inlineStr">
         <is>
-          <t>$156,000,000.00</t>
+          <t>$603,000,000.00</t>
         </is>
       </c>
       <c r="T74" t="inlineStr">
         <is>
-          <t>$-697,609,024.00</t>
+          <t>$-670,734,016.00</t>
         </is>
       </c>
       <c r="U74" t="n">
-        <v>10.39</v>
+        <v>10.77</v>
       </c>
       <c r="V74" t="n">
         <v>1.92</v>
@@ -10136,7 +10136,7 @@
       </c>
       <c r="X74" t="inlineStr">
         <is>
-          <t>-2.90%</t>
+          <t>-3.00%</t>
         </is>
       </c>
       <c r="Y74" t="inlineStr">
@@ -10154,12 +10154,12 @@
       </c>
       <c r="AB74" t="inlineStr">
         <is>
-          <t>$32,653,574,144.00</t>
+          <t>$33,418,000,384.00</t>
         </is>
       </c>
       <c r="AC74" t="inlineStr">
         <is>
-          <t>2025-08-12</t>
+          <t>2025-08-15</t>
         </is>
       </c>
     </row>
@@ -10194,7 +10194,7 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>5.62%</t>
+          <t>5.58%</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -10204,7 +10204,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>$57.38</t>
+          <t>$58.20</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -10216,13 +10216,13 @@
         <v>0.77</v>
       </c>
       <c r="L75" t="n">
-        <v>55.7</v>
+        <v>56.5</v>
       </c>
       <c r="M75" t="n">
-        <v>36.08</v>
+        <v>36.6</v>
       </c>
       <c r="N75" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
@@ -10255,7 +10255,7 @@
         </is>
       </c>
       <c r="U75" t="n">
-        <v>16.43</v>
+        <v>16.51</v>
       </c>
       <c r="V75" t="n">
         <v>5.87</v>
@@ -10285,12 +10285,12 @@
       </c>
       <c r="AB75" t="inlineStr">
         <is>
-          <t>$52,458,307,584.00</t>
+          <t>$53,208,035,328.00</t>
         </is>
       </c>
       <c r="AC75" t="inlineStr">
         <is>
-          <t>2025-08-12</t>
+          <t>2025-08-15</t>
         </is>
       </c>
     </row>
@@ -10325,7 +10325,7 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>6.67%</t>
+          <t>6.56%</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
@@ -10335,7 +10335,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>$40.40</t>
+          <t>$41.06</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -10347,13 +10347,13 @@
         <v>0.66</v>
       </c>
       <c r="L76" t="n">
-        <v>24.94</v>
+        <v>25.35</v>
       </c>
       <c r="M76" t="n">
-        <v>25.9</v>
+        <v>26.32</v>
       </c>
       <c r="N76" t="n">
-        <v>2.37</v>
+        <v>2.41</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
@@ -10386,7 +10386,7 @@
         </is>
       </c>
       <c r="U76" t="n">
-        <v>16.2</v>
+        <v>16.39</v>
       </c>
       <c r="V76" t="n">
         <v>4.98</v>
@@ -10416,12 +10416,12 @@
       </c>
       <c r="AB76" t="inlineStr">
         <is>
-          <t>$12,249,683,968.00</t>
+          <t>$12,449,802,240.00</t>
         </is>
       </c>
       <c r="AC76" t="inlineStr">
         <is>
-          <t>2025-08-12</t>
+          <t>2025-08-15</t>
         </is>
       </c>
     </row>
@@ -10456,7 +10456,7 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>5.59%</t>
+          <t>5.51%</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
@@ -10466,7 +10466,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>$73.85</t>
+          <t>$74.91</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -10478,13 +10478,13 @@
         <v>0.99</v>
       </c>
       <c r="L77" t="n">
-        <v>14.4</v>
+        <v>14.6</v>
       </c>
       <c r="M77" t="n">
-        <v>12.37</v>
+        <v>12.55</v>
       </c>
       <c r="N77" t="n">
-        <v>2.13</v>
+        <v>2.16</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
@@ -10517,7 +10517,7 @@
         </is>
       </c>
       <c r="U77" t="n">
-        <v>11.52</v>
+        <v>11.62</v>
       </c>
       <c r="V77" t="n">
         <v>4.74</v>
@@ -10547,12 +10547,12 @@
       </c>
       <c r="AB77" t="inlineStr">
         <is>
-          <t>$46,507,483,136.00</t>
+          <t>$47,175,024,640.00</t>
         </is>
       </c>
       <c r="AC77" t="inlineStr">
         <is>
-          <t>2025-08-12</t>
+          <t>2025-08-15</t>
         </is>
       </c>
     </row>
@@ -10587,7 +10587,7 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>0.79%</t>
+          <t>0.82%</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
@@ -10597,7 +10597,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>$253.76</t>
+          <t>$247.75</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -10609,13 +10609,13 @@
         <v>1.43</v>
       </c>
       <c r="L78" t="n">
-        <v>58.34</v>
+        <v>57.09</v>
       </c>
       <c r="M78" t="n">
-        <v>35.44</v>
+        <v>34.6</v>
       </c>
       <c r="N78" t="n">
-        <v>34.83</v>
+        <v>34</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
@@ -10648,7 +10648,7 @@
         </is>
       </c>
       <c r="U78" t="n">
-        <v>34.4</v>
+        <v>33.48</v>
       </c>
       <c r="V78" t="n">
         <v>4.64</v>
@@ -10678,12 +10678,12 @@
       </c>
       <c r="AB78" t="inlineStr">
         <is>
-          <t>$712,782,708,736.00</t>
+          <t>$695,901,683,712.00</t>
         </is>
       </c>
       <c r="AC78" t="inlineStr">
         <is>
-          <t>2025-08-12</t>
+          <t>2025-08-15</t>
         </is>
       </c>
     </row>
@@ -10718,7 +10718,7 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>3.93%</t>
+          <t>3.83%</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -10728,7 +10728,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>$146.58</t>
+          <t>$150.31</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -10740,13 +10740,13 @@
         <v>0.46</v>
       </c>
       <c r="L79" t="n">
-        <v>26.7</v>
+        <v>27.43</v>
       </c>
       <c r="M79" t="n">
-        <v>16.98</v>
+        <v>17.42</v>
       </c>
       <c r="N79" t="n">
-        <v>10.9</v>
+        <v>11.18</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
@@ -10779,7 +10779,7 @@
         </is>
       </c>
       <c r="U79" t="n">
-        <v>14.21</v>
+        <v>14.51</v>
       </c>
       <c r="V79" t="n">
         <v>3.02</v>
@@ -10809,12 +10809,12 @@
       </c>
       <c r="AB79" t="inlineStr">
         <is>
-          <t>$200,679,751,680.00</t>
+          <t>$205,786,415,104.00</t>
         </is>
       </c>
       <c r="AC79" t="inlineStr">
         <is>
-          <t>2025-08-12</t>
+          <t>2025-08-15</t>
         </is>
       </c>
     </row>
@@ -10849,7 +10849,7 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>2.73%</t>
+          <t>2.75%</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
@@ -10859,7 +10859,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>$154.88</t>
+          <t>$155.08</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -10871,13 +10871,13 @@
         <v>0.37</v>
       </c>
       <c r="L80" t="n">
-        <v>23.79</v>
+        <v>23.86</v>
       </c>
       <c r="M80" t="n">
-        <v>20.87</v>
+        <v>20.9</v>
       </c>
       <c r="N80" t="n">
-        <v>7.08</v>
+        <v>7.09</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
@@ -10910,7 +10910,7 @@
         </is>
       </c>
       <c r="U80" t="n">
-        <v>15.99</v>
+        <v>15.87</v>
       </c>
       <c r="V80" t="n">
         <v>1.49</v>
@@ -10940,12 +10940,12 @@
       </c>
       <c r="AB80" t="inlineStr">
         <is>
-          <t>$362,786,291,712.00</t>
+          <t>$363,254,743,040.00</t>
         </is>
       </c>
       <c r="AC80" t="inlineStr">
         <is>
-          <t>2025-08-12</t>
+          <t>2025-08-15</t>
         </is>
       </c>
     </row>
@@ -10980,7 +10980,7 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>3.88%</t>
+          <t>3.82%</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
@@ -10990,7 +10990,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>$104.66</t>
+          <t>$106.36</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -11002,13 +11002,13 @@
         <v>1.22</v>
       </c>
       <c r="L81" t="n">
-        <v>28.21</v>
+        <v>28.75</v>
       </c>
       <c r="M81" t="n">
-        <v>29.73</v>
+        <v>30.22</v>
       </c>
       <c r="N81" t="n">
-        <v>1.84</v>
+        <v>1.87</v>
       </c>
       <c r="O81" t="inlineStr">
         <is>
@@ -11041,7 +11041,7 @@
         </is>
       </c>
       <c r="U81" t="n">
-        <v>21.38</v>
+        <v>21.64</v>
       </c>
       <c r="V81" t="n">
         <v>5.57</v>
@@ -11071,12 +11071,12 @@
       </c>
       <c r="AB81" t="inlineStr">
         <is>
-          <t>$97,131,077,632.00</t>
+          <t>$98,706,923,520.00</t>
         </is>
       </c>
       <c r="AC81" t="inlineStr">
         <is>
-          <t>2025-08-12</t>
+          <t>2025-08-15</t>
         </is>
       </c>
     </row>
@@ -11111,7 +11111,7 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>4.29%</t>
+          <t>4.27%</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
@@ -11121,7 +11121,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>$279.45</t>
+          <t>$283.07</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -11133,13 +11133,13 @@
         <v>0.85</v>
       </c>
       <c r="L82" t="n">
-        <v>30.44</v>
+        <v>30.9</v>
       </c>
       <c r="M82" t="n">
-        <v>26.29</v>
+        <v>26.63</v>
       </c>
       <c r="N82" t="n">
-        <v>9.76</v>
+        <v>9.890000000000001</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
@@ -11172,7 +11172,7 @@
         </is>
       </c>
       <c r="U82" t="n">
-        <v>18.75</v>
+        <v>18.81</v>
       </c>
       <c r="V82" t="n">
         <v>3.11</v>
@@ -11202,12 +11202,12 @@
       </c>
       <c r="AB82" t="inlineStr">
         <is>
-          <t>$49,031,213,056.00</t>
+          <t>$49,665,478,656.00</t>
         </is>
       </c>
       <c r="AC82" t="inlineStr">
         <is>
-          <t>2025-08-12</t>
+          <t>2025-08-15</t>
         </is>
       </c>
     </row>
@@ -11242,7 +11242,7 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>4.06%</t>
+          <t>3.91%</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
@@ -11252,7 +11252,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>$120.78</t>
+          <t>$124.08</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -11264,13 +11264,13 @@
         <v>1.06</v>
       </c>
       <c r="L83" t="n">
-        <v>28.69</v>
+        <v>29.47</v>
       </c>
       <c r="M83" t="n">
-        <v>12.73</v>
+        <v>13.07</v>
       </c>
       <c r="N83" t="n">
-        <v>1.78</v>
+        <v>1.82</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
@@ -11303,7 +11303,7 @@
         </is>
       </c>
       <c r="U83" t="n">
-        <v>18.04</v>
+        <v>18.51</v>
       </c>
       <c r="V83" t="n">
         <v>5.49</v>
@@ -11333,12 +11333,12 @@
       </c>
       <c r="AB83" t="inlineStr">
         <is>
-          <t>$48,810,094,592.00</t>
+          <t>$50,143,707,136.00</t>
         </is>
       </c>
       <c r="AC83" t="inlineStr">
         <is>
-          <t>2025-08-12</t>
+          <t>2025-08-15</t>
         </is>
       </c>
     </row>
@@ -11373,7 +11373,7 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>4.17%</t>
+          <t>3.87%</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
@@ -11383,7 +11383,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>$45.34</t>
+          <t>$47.40</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -11395,13 +11395,13 @@
         <v>1.12</v>
       </c>
       <c r="L84" t="n">
-        <v>19.89</v>
+        <v>20.79</v>
       </c>
       <c r="M84" t="n">
-        <v>18.58</v>
+        <v>19.42</v>
       </c>
       <c r="N84" t="n">
-        <v>-3.44</v>
+        <v>-3.59</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
@@ -11434,7 +11434,7 @@
         </is>
       </c>
       <c r="U84" t="n">
-        <v>9.890000000000001</v>
+        <v>10.36</v>
       </c>
       <c r="V84" t="n">
         <v>3.99</v>
@@ -11464,12 +11464,12 @@
       </c>
       <c r="AB84" t="inlineStr">
         <is>
-          <t>$1,485,243,136.00</t>
+          <t>$1,552,560,640.00</t>
         </is>
       </c>
       <c r="AC84" t="inlineStr">
         <is>
-          <t>2025-08-12</t>
+          <t>2025-08-15</t>
         </is>
       </c>
     </row>
@@ -11504,7 +11504,7 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>2.41%</t>
+          <t>2.25%</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
@@ -11514,7 +11514,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>$152.92</t>
+          <t>$157.84</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -11526,13 +11526,13 @@
         <v>1.23</v>
       </c>
       <c r="L85" t="n">
-        <v>14.76</v>
+        <v>15.25</v>
       </c>
       <c r="M85" t="n">
-        <v>12.5</v>
+        <v>12.91</v>
       </c>
       <c r="N85" t="n">
-        <v>6.09</v>
+        <v>6.29</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
@@ -11565,7 +11565,7 @@
         </is>
       </c>
       <c r="U85" t="n">
-        <v>11.86</v>
+        <v>12.64</v>
       </c>
       <c r="V85" t="n">
         <v>1.07</v>
@@ -11595,12 +11595,12 @@
       </c>
       <c r="AB85" t="inlineStr">
         <is>
-          <t>$165,000,691,712.00</t>
+          <t>$170,309,369,856.00</t>
         </is>
       </c>
       <c r="AC85" t="inlineStr">
         <is>
-          <t>2025-08-12</t>
+          <t>2025-08-15</t>
         </is>
       </c>
     </row>
@@ -11635,7 +11635,7 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>3.94%</t>
+          <t>3.97%</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
@@ -11645,7 +11645,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>$71.65</t>
+          <t>$71.14</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -11657,13 +11657,13 @@
         <v>1.06</v>
       </c>
       <c r="L86" t="n">
-        <v>33.48</v>
+        <v>33.24</v>
       </c>
       <c r="M86" t="n">
-        <v>34.12</v>
+        <v>33.88</v>
       </c>
       <c r="N86" t="n">
-        <v>2.01</v>
+        <v>2</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="U86" t="n">
-        <v>18.61</v>
+        <v>18.54</v>
       </c>
       <c r="V86" t="n">
         <v>5.15</v>
@@ -11726,12 +11726,12 @@
       </c>
       <c r="AB86" t="inlineStr">
         <is>
-          <t>$13,086,872,576.00</t>
+          <t>$12,993,721,344.00</t>
         </is>
       </c>
       <c r="AC86" t="inlineStr">
         <is>
-          <t>2025-08-12</t>
+          <t>2025-08-15</t>
         </is>
       </c>
     </row>
@@ -11766,7 +11766,7 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>3.82%</t>
+          <t>3.77%</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
@@ -11776,7 +11776,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>$22.80</t>
+          <t>$21.52</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -11788,58 +11788,58 @@
         <v>0.46</v>
       </c>
       <c r="L87" t="n">
-        <v>17.81</v>
+        <v>16.3</v>
       </c>
       <c r="M87" t="n">
-        <v>18.68</v>
+        <v>17.64</v>
       </c>
       <c r="N87" t="n">
-        <v>1.99</v>
+        <v>1.91</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>11.60%</t>
+          <t>12.11%</t>
         </is>
       </c>
       <c r="P87" t="inlineStr">
         <is>
-          <t>14.50%</t>
+          <t>14.48%</t>
         </is>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>63.09%</t>
+          <t>61.74%</t>
         </is>
       </c>
       <c r="R87" t="inlineStr">
         <is>
-          <t>$36,462,097.00</t>
+          <t>$17,264,615.00</t>
         </is>
       </c>
       <c r="S87" t="inlineStr">
         <is>
-          <t>$7,676,208.00</t>
+          <t>$538,412.00</t>
         </is>
       </c>
       <c r="T87" t="inlineStr">
         <is>
-          <t>$4,326,423.00</t>
+          <t>$3,689,844.00</t>
         </is>
       </c>
       <c r="U87" t="n">
-        <v>11.99</v>
+        <v>12.14</v>
       </c>
       <c r="V87" t="n">
         <v>4.72</v>
       </c>
       <c r="W87" t="inlineStr">
         <is>
-          <t>11.60%</t>
+          <t>19.40%</t>
         </is>
       </c>
       <c r="X87" t="inlineStr">
         <is>
-          <t>17.50%</t>
+          <t>225.10%</t>
         </is>
       </c>
       <c r="Y87" t="inlineStr">
@@ -11857,12 +11857,12 @@
       </c>
       <c r="AB87" t="inlineStr">
         <is>
-          <t>$235,052,928.00</t>
+          <t>$221,854,064.00</t>
         </is>
       </c>
       <c r="AC87" t="inlineStr">
         <is>
-          <t>2025-08-12</t>
+          <t>2025-08-15</t>
         </is>
       </c>
     </row>
@@ -11897,7 +11897,7 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>5.94%</t>
+          <t>5.67%</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
@@ -11907,7 +11907,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>$53.27</t>
+          <t>$54.03</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -11924,10 +11924,10 @@
         </is>
       </c>
       <c r="M88" t="n">
-        <v>-23.67</v>
+        <v>-24.01</v>
       </c>
       <c r="N88" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="O88" t="inlineStr">
         <is>
@@ -11960,10 +11960,10 @@
         </is>
       </c>
       <c r="U88" t="n">
-        <v>72.2</v>
+        <v>73.27</v>
       </c>
       <c r="V88" t="n">
-        <v>42.45</v>
+        <v>42.33</v>
       </c>
       <c r="W88" t="inlineStr">
         <is>
@@ -11990,12 +11990,12 @@
       </c>
       <c r="AB88" t="inlineStr">
         <is>
-          <t>$4,041,466,112.00</t>
+          <t>$4,099,510,272.00</t>
         </is>
       </c>
       <c r="AC88" t="inlineStr">
         <is>
-          <t>2025-08-12</t>
+          <t>2025-08-15</t>
         </is>
       </c>
     </row>
@@ -12030,7 +12030,7 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>3.13%</t>
+          <t>3.14%</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
@@ -12040,7 +12040,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>$93.80</t>
+          <t>$94.43</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -12052,13 +12052,13 @@
         <v>0.36</v>
       </c>
       <c r="L89" t="n">
-        <v>24.24</v>
+        <v>24.4</v>
       </c>
       <c r="M89" t="n">
-        <v>21.71</v>
+        <v>21.86</v>
       </c>
       <c r="N89" t="n">
-        <v>3.03</v>
+        <v>3.05</v>
       </c>
       <c r="O89" t="inlineStr">
         <is>
@@ -12091,7 +12091,7 @@
         </is>
       </c>
       <c r="U89" t="n">
-        <v>13.24</v>
+        <v>13.21</v>
       </c>
       <c r="V89" t="n">
         <v>5.3</v>
@@ -12121,12 +12121,12 @@
       </c>
       <c r="AB89" t="inlineStr">
         <is>
-          <t>$103,184,695,296.00</t>
+          <t>$103,877,730,304.00</t>
         </is>
       </c>
       <c r="AC89" t="inlineStr">
         <is>
-          <t>2025-08-12</t>
+          <t>2025-08-15</t>
         </is>
       </c>
     </row>
@@ -12161,7 +12161,7 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>5.21%</t>
+          <t>4.99%</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
@@ -12171,7 +12171,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>$168.66</t>
+          <t>$172.69</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -12183,13 +12183,13 @@
         <v>1.52</v>
       </c>
       <c r="L90" t="n">
-        <v>26.03</v>
+        <v>26.69</v>
       </c>
       <c r="M90" t="n">
-        <v>24.88</v>
+        <v>25.47</v>
       </c>
       <c r="N90" t="n">
-        <v>22.84</v>
+        <v>23.39</v>
       </c>
       <c r="O90" t="inlineStr">
         <is>
@@ -12222,7 +12222,7 @@
         </is>
       </c>
       <c r="U90" t="n">
-        <v>17.73</v>
+        <v>18.24</v>
       </c>
       <c r="V90" t="n">
         <v>5.8</v>
@@ -12252,12 +12252,12 @@
       </c>
       <c r="AB90" t="inlineStr">
         <is>
-          <t>$63,618,981,888.00</t>
+          <t>$65,139,879,936.00</t>
         </is>
       </c>
       <c r="AC90" t="inlineStr">
         <is>
-          <t>2025-08-12</t>
+          <t>2025-08-15</t>
         </is>
       </c>
     </row>
@@ -12292,7 +12292,7 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>4.35%</t>
+          <t>4.28%</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
@@ -12302,7 +12302,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>$34.66</t>
+          <t>$34.78</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -12314,10 +12314,10 @@
         <v>0.91</v>
       </c>
       <c r="L91" t="n">
-        <v>27.29</v>
+        <v>27.39</v>
       </c>
       <c r="M91" t="n">
-        <v>39.38</v>
+        <v>39.52</v>
       </c>
       <c r="N91" t="n">
         <v>1.88</v>
@@ -12353,7 +12353,7 @@
         </is>
       </c>
       <c r="U91" t="n">
-        <v>16.24</v>
+        <v>16.41</v>
       </c>
       <c r="V91" t="n">
         <v>5.25</v>
@@ -12383,12 +12383,12 @@
       </c>
       <c r="AB91" t="inlineStr">
         <is>
-          <t>$6,608,569,856.00</t>
+          <t>$6,632,406,528.00</t>
         </is>
       </c>
       <c r="AC91" t="inlineStr">
         <is>
-          <t>2025-08-12</t>
+          <t>2025-08-15</t>
         </is>
       </c>
     </row>
@@ -12423,17 +12423,17 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>3.94%</t>
+          <t>3.86%</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>$18.97</t>
+          <t>$19.08</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>$28.54</t>
+          <t>$28.84</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -12445,13 +12445,13 @@
         <v>0.62</v>
       </c>
       <c r="L92" t="n">
-        <v>16.31</v>
+        <v>16.48</v>
       </c>
       <c r="M92" t="n">
-        <v>12.74</v>
+        <v>12.87</v>
       </c>
       <c r="N92" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="O92" t="inlineStr">
         <is>
@@ -12484,7 +12484,7 @@
         </is>
       </c>
       <c r="U92" t="n">
-        <v>8.09</v>
+        <v>8.19</v>
       </c>
       <c r="V92" t="n">
         <v>3.41</v>
@@ -12514,12 +12514,12 @@
       </c>
       <c r="AB92" t="inlineStr">
         <is>
-          <t>$204,097,863,680.00</t>
+          <t>$206,186,479,616.00</t>
         </is>
       </c>
       <c r="AC92" t="inlineStr">
         <is>
-          <t>2025-08-12</t>
+          <t>2025-08-15</t>
         </is>
       </c>
     </row>
@@ -12554,7 +12554,7 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>4.83%</t>
+          <t>4.66%</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
@@ -12564,7 +12564,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>$107.53</t>
+          <t>$107.46</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -12576,10 +12576,10 @@
         <v>1.49</v>
       </c>
       <c r="L93" t="n">
-        <v>12.04</v>
+        <v>12.03</v>
       </c>
       <c r="M93" t="n">
-        <v>11.5</v>
+        <v>11.49</v>
       </c>
       <c r="N93" t="n">
         <v>2.24</v>
@@ -12615,7 +12615,7 @@
         </is>
       </c>
       <c r="U93" t="n">
-        <v>7.95</v>
+        <v>8.26</v>
       </c>
       <c r="V93" t="n">
         <v>0.19</v>
@@ -12645,12 +12645,12 @@
       </c>
       <c r="AB93" t="inlineStr">
         <is>
-          <t>$23,625,955,328.00</t>
+          <t>$23,610,574,848.00</t>
         </is>
       </c>
       <c r="AC93" t="inlineStr">
         <is>
-          <t>2025-08-12</t>
+          <t>2025-08-15</t>
         </is>
       </c>
     </row>
@@ -12685,7 +12685,7 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>6.35%</t>
+          <t>6.29%</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
@@ -12695,7 +12695,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>$61.92</t>
+          <t>$62.61</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -12707,13 +12707,13 @@
         <v>0.71</v>
       </c>
       <c r="L94" t="n">
-        <v>11.22</v>
+        <v>11.34</v>
       </c>
       <c r="M94" t="n">
-        <v>7.62</v>
+        <v>7.7</v>
       </c>
       <c r="N94" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="O94" t="inlineStr">
         <is>
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="U94" t="n">
-        <v>4.91</v>
+        <v>4.95</v>
       </c>
       <c r="V94" t="n">
         <v>1.78</v>
@@ -12776,12 +12776,12 @@
       </c>
       <c r="AB94" t="inlineStr">
         <is>
-          <t>$136,955,273,216.00</t>
+          <t>$137,048,907,776.00</t>
         </is>
       </c>
       <c r="AC94" t="inlineStr">
         <is>
-          <t>2025-08-12</t>
+          <t>2025-08-15</t>
         </is>
       </c>
     </row>
@@ -12816,7 +12816,7 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>3.26%</t>
+          <t>3.22%</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
@@ -12826,7 +12826,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>$61.10</t>
+          <t>$61.22</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -12838,13 +12838,13 @@
         <v>0.2</v>
       </c>
       <c r="L95" t="n">
-        <v>23.41</v>
+        <v>23.37</v>
       </c>
       <c r="M95" t="n">
-        <v>17.46</v>
+        <v>17.49</v>
       </c>
       <c r="N95" t="n">
-        <v>8.42</v>
+        <v>8.43</v>
       </c>
       <c r="O95" t="inlineStr">
         <is>
@@ -12877,7 +12877,7 @@
         </is>
       </c>
       <c r="U95" t="n">
-        <v>15.06</v>
+        <v>15.22</v>
       </c>
       <c r="V95" t="n">
         <v>2.71</v>
@@ -12907,12 +12907,12 @@
       </c>
       <c r="AB95" t="inlineStr">
         <is>
-          <t>$149,814,542,336.00</t>
+          <t>$150,161,031,168.00</t>
         </is>
       </c>
       <c r="AC95" t="inlineStr">
         <is>
-          <t>2025-08-12</t>
+          <t>2025-08-15</t>
         </is>
       </c>
     </row>
@@ -12947,7 +12947,7 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>2.51%</t>
+          <t>2.49%</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
@@ -12957,7 +12957,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>$219.57</t>
+          <t>$222.02</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -12969,13 +12969,13 @@
         <v>1.05</v>
       </c>
       <c r="L96" t="n">
-        <v>19.08</v>
+        <v>19.27</v>
       </c>
       <c r="M96" t="n">
-        <v>18.13</v>
+        <v>18.33</v>
       </c>
       <c r="N96" t="n">
-        <v>8.01</v>
+        <v>8.1</v>
       </c>
       <c r="O96" t="inlineStr">
         <is>
@@ -13008,7 +13008,7 @@
         </is>
       </c>
       <c r="U96" t="n">
-        <v>13.19</v>
+        <v>13.28</v>
       </c>
       <c r="V96" t="n">
         <v>2.75</v>
@@ -13038,12 +13038,12 @@
       </c>
       <c r="AB96" t="inlineStr">
         <is>
-          <t>$130,214,264,832.00</t>
+          <t>$131,666,747,392.00</t>
         </is>
       </c>
       <c r="AC96" t="inlineStr">
         <is>
-          <t>2025-08-12</t>
+          <t>2025-08-15</t>
         </is>
       </c>
     </row>
@@ -13078,7 +13078,7 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>7.60%</t>
+          <t>7.41%</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
@@ -13088,7 +13088,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>$87.64</t>
+          <t>$88.33</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -13100,13 +13100,13 @@
         <v>1.1</v>
       </c>
       <c r="L97" t="n">
-        <v>13.04</v>
+        <v>13.14</v>
       </c>
       <c r="M97" t="n">
-        <v>9.949999999999999</v>
+        <v>10.03</v>
       </c>
       <c r="N97" t="n">
-        <v>4.72</v>
+        <v>4.76</v>
       </c>
       <c r="O97" t="inlineStr">
         <is>
@@ -13139,7 +13139,7 @@
         </is>
       </c>
       <c r="U97" t="n">
-        <v>8.33</v>
+        <v>8.5</v>
       </c>
       <c r="V97" t="n">
         <v>2.51</v>
@@ -13169,12 +13169,12 @@
       </c>
       <c r="AB97" t="inlineStr">
         <is>
-          <t>$74,285,268,992.00</t>
+          <t>$74,865,860,608.00</t>
         </is>
       </c>
       <c r="AC97" t="inlineStr">
         <is>
-          <t>2025-08-12</t>
+          <t>2025-08-15</t>
         </is>
       </c>
     </row>
@@ -13209,7 +13209,7 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>5.27%</t>
+          <t>5.31%</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
@@ -13219,7 +13219,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>$32.94</t>
+          <t>$32.55</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -13231,13 +13231,13 @@
         <v>0.71</v>
       </c>
       <c r="L98" t="n">
-        <v>12.62</v>
+        <v>12.47</v>
       </c>
       <c r="M98" t="n">
-        <v>12.06</v>
+        <v>11.92</v>
       </c>
       <c r="N98" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="O98" t="inlineStr">
         <is>
@@ -13270,7 +13270,7 @@
         </is>
       </c>
       <c r="U98" t="n">
-        <v>14.58</v>
+        <v>14.52</v>
       </c>
       <c r="V98" t="n">
         <v>4.91</v>
@@ -13300,12 +13300,12 @@
       </c>
       <c r="AB98" t="inlineStr">
         <is>
-          <t>$35,120,898,048.00</t>
+          <t>$34,715,676,672.00</t>
         </is>
       </c>
       <c r="AC98" t="inlineStr">
         <is>
-          <t>2025-08-12</t>
+          <t>2025-08-15</t>
         </is>
       </c>
     </row>
@@ -13340,7 +13340,7 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>2.80%</t>
+          <t>2.84%</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
@@ -13350,7 +13350,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>$67.76</t>
+          <t>$67.75</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -13362,10 +13362,10 @@
         <v>0.89</v>
       </c>
       <c r="L99" t="n">
-        <v>157.58</v>
+        <v>157.56</v>
       </c>
       <c r="M99" t="n">
-        <v>423.5</v>
+        <v>423.44</v>
       </c>
       <c r="N99" t="n">
         <v>2.67</v>
@@ -13401,7 +13401,7 @@
         </is>
       </c>
       <c r="U99" t="n">
-        <v>21.89</v>
+        <v>21.67</v>
       </c>
       <c r="V99" t="n">
         <v>6.58</v>
@@ -13431,12 +13431,12 @@
       </c>
       <c r="AB99" t="inlineStr">
         <is>
-          <t>$30,794,956,800.00</t>
+          <t>$30,790,410,240.00</t>
         </is>
       </c>
       <c r="AC99" t="inlineStr">
         <is>
-          <t>2025-08-12</t>
+          <t>2025-08-15</t>
         </is>
       </c>
     </row>
@@ -13471,7 +13471,7 @@
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>6.28%</t>
+          <t>6.23%</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
@@ -13481,7 +13481,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>$43.45</t>
+          <t>$43.96</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -13493,13 +13493,13 @@
         <v>0.36</v>
       </c>
       <c r="L100" t="n">
-        <v>10.11</v>
+        <v>10.22</v>
       </c>
       <c r="M100" t="n">
-        <v>9.19</v>
+        <v>9.289999999999999</v>
       </c>
       <c r="N100" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="O100" t="inlineStr">
         <is>
@@ -13532,7 +13532,7 @@
         </is>
       </c>
       <c r="U100" t="n">
-        <v>7.1</v>
+        <v>7.13</v>
       </c>
       <c r="V100" t="n">
         <v>3.5</v>
@@ -13562,12 +13562,12 @@
       </c>
       <c r="AB100" t="inlineStr">
         <is>
-          <t>$183,220,191,232.00</t>
+          <t>$185,349,423,104.00</t>
         </is>
       </c>
       <c r="AC100" t="inlineStr">
         <is>
-          <t>2025-08-12</t>
+          <t>2025-08-15</t>
         </is>
       </c>
     </row>
@@ -13602,17 +13602,17 @@
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>3.26%</t>
+          <t>3.30%</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>$88.14</t>
+          <t>$89.18</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>$109.21</t>
+          <t>$107.55</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -13624,13 +13624,13 @@
         <v>0.41</v>
       </c>
       <c r="L101" t="n">
-        <v>20.96</v>
+        <v>20.64</v>
       </c>
       <c r="M101" t="n">
-        <v>20.92</v>
+        <v>20.6</v>
       </c>
       <c r="N101" t="n">
-        <v>2.66</v>
+        <v>2.62</v>
       </c>
       <c r="O101" t="inlineStr">
         <is>
@@ -13663,7 +13663,7 @@
         </is>
       </c>
       <c r="U101" t="n">
-        <v>15.34</v>
+        <v>15.2</v>
       </c>
       <c r="V101" t="n">
         <v>5.6</v>
@@ -13684,7 +13684,7 @@
         </is>
       </c>
       <c r="Z101" s="2" t="n">
-        <v>45791</v>
+        <v>45883</v>
       </c>
       <c r="AA101" t="inlineStr">
         <is>
@@ -13693,12 +13693,12 @@
       </c>
       <c r="AB101" t="inlineStr">
         <is>
-          <t>$35,150,983,168.00</t>
+          <t>$34,616,688,640.00</t>
         </is>
       </c>
       <c r="AC101" t="inlineStr">
         <is>
-          <t>2025-08-12</t>
+          <t>2025-08-15</t>
         </is>
       </c>
     </row>
@@ -13733,7 +13733,7 @@
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>1.76%</t>
+          <t>1.83%</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
@@ -13743,7 +13743,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>$164.00</t>
+          <t>$162.99</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -13755,13 +13755,13 @@
         <v>0.92</v>
       </c>
       <c r="L102" t="n">
-        <v>91.11</v>
+        <v>90.55</v>
       </c>
       <c r="M102" t="n">
-        <v>90.11</v>
+        <v>89.55</v>
       </c>
       <c r="N102" t="n">
-        <v>3.04</v>
+        <v>3.02</v>
       </c>
       <c r="O102" t="inlineStr">
         <is>
@@ -13794,7 +13794,7 @@
         </is>
       </c>
       <c r="U102" t="n">
-        <v>36.29</v>
+        <v>35.11</v>
       </c>
       <c r="V102" t="n">
         <v>4.99</v>
@@ -13811,11 +13811,11 @@
       </c>
       <c r="Y102" t="inlineStr">
         <is>
-          <t>$0.67</t>
+          <t>$0.74</t>
         </is>
       </c>
       <c r="Z102" s="2" t="n">
-        <v>45791</v>
+        <v>45881</v>
       </c>
       <c r="AA102" t="inlineStr">
         <is>
@@ -13824,12 +13824,12 @@
       </c>
       <c r="AB102" t="inlineStr">
         <is>
-          <t>$109,690,003,456.00</t>
+          <t>$109,011,951,616.00</t>
         </is>
       </c>
       <c r="AC102" t="inlineStr">
         <is>
-          <t>2025-08-12</t>
+          <t>2025-08-15</t>
         </is>
       </c>
     </row>
@@ -13864,7 +13864,7 @@
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>5.49%</t>
+          <t>5.52%</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
@@ -13874,7 +13874,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>$65.00</t>
+          <t>$65.10</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -13886,13 +13886,13 @@
         <v>0.8</v>
       </c>
       <c r="L103" t="n">
-        <v>42.77</v>
+        <v>42.83</v>
       </c>
       <c r="M103" t="n">
-        <v>29.68</v>
+        <v>29.73</v>
       </c>
       <c r="N103" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="O103" t="inlineStr">
         <is>
@@ -13925,7 +13925,7 @@
         </is>
       </c>
       <c r="U103" t="n">
-        <v>16.67</v>
+        <v>16.6</v>
       </c>
       <c r="V103" t="n">
         <v>6.33</v>
@@ -13955,12 +13955,12 @@
       </c>
       <c r="AB103" t="inlineStr">
         <is>
-          <t>$14,235,509,760.00</t>
+          <t>$14,256,314,368.00</t>
         </is>
       </c>
       <c r="AC103" t="inlineStr">
         <is>
-          <t>2025-08-12</t>
+          <t>2025-08-15</t>
         </is>
       </c>
     </row>
@@ -13995,7 +13995,7 @@
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>3.74%</t>
+          <t>3.69%</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
@@ -14005,7 +14005,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>$106.81</t>
+          <t>$107.11</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -14017,13 +14017,13 @@
         <v>0.5</v>
       </c>
       <c r="L104" t="n">
-        <v>15.17</v>
+        <v>15.21</v>
       </c>
       <c r="M104" t="n">
-        <v>13.57</v>
+        <v>13.61</v>
       </c>
       <c r="N104" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="O104" t="inlineStr">
         <is>
@@ -14056,7 +14056,7 @@
         </is>
       </c>
       <c r="U104" t="n">
-        <v>7.75</v>
+        <v>7.85</v>
       </c>
       <c r="V104" t="n">
         <v>0.63</v>
@@ -14086,12 +14086,12 @@
       </c>
       <c r="AB104" t="inlineStr">
         <is>
-          <t>$455,336,394,752.00</t>
+          <t>$456,636,694,528.00</t>
         </is>
       </c>
       <c r="AC104" t="inlineStr">
         <is>
-          <t>2025-08-12</t>
+          <t>2025-08-15</t>
         </is>
       </c>
     </row>
